--- a/Prototypes/Mungbean/Exp1_2observed.xlsx
+++ b/Prototypes/Mungbean/Exp1_2observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EA76BD-2E30-43CD-8653-557FBFBFB4A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA65C6A-5C9B-44BC-B937-3922AC386636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{EC5736B7-331A-44E7-9B2A-DE6BDB9CC19C}"/>
+    <workbookView xWindow="3825" yWindow="855" windowWidth="21600" windowHeight="11205" xr2:uid="{EC5736B7-331A-44E7-9B2A-DE6BDB9CC19C}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>RadiationIntercepted</t>
-  </si>
-  <si>
-    <t>Soybean.Shell.HarvestIndex</t>
   </si>
   <si>
     <t>Soybean.Grain.Nconc</t>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>Yield</t>
+  </si>
+  <si>
+    <t>Soybean.Grain.HarvestIndex</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
   <dimension ref="A1:AH577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -609,13 +609,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -645,66 +645,66 @@
         <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="AF1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:34">
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="6">
         <v>35528</v>
@@ -717,7 +717,7 @@
         <v>390</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="7">
         <v>90.695997595899001</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="3" spans="1:34">
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6">
         <v>35535</v>
@@ -775,7 +775,7 @@
         <v>450</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="7">
         <v>97.5183097511417</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="4" spans="1:34">
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6">
         <v>35521</v>
@@ -832,7 +832,7 @@
         <v>470</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="7">
         <v>83.633614868270897</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="5" spans="1:34">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="6">
         <v>35528</v>
@@ -892,7 +892,7 @@
         <v>970</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="7">
         <v>90.556590397287493</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="6" spans="1:34">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6">
         <v>35535</v>
@@ -946,7 +946,7 @@
         <v>1260</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="7">
         <v>97.586412089739895</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="7" spans="1:34">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6">
         <v>35490</v>
@@ -1009,7 +1009,7 @@
         <v>1340</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="7">
         <v>92.588561039988406</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="8" spans="1:34">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6">
         <v>35522</v>
@@ -1060,7 +1060,7 @@
         <v>1490</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8">
         <v>125</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="9" spans="1:34">
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="6">
         <v>35497</v>
@@ -1120,7 +1120,7 @@
         <v>1830</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7">
         <v>99.745549142345993</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="10" spans="1:34">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="6">
         <v>35541</v>
@@ -1177,7 +1177,7 @@
         <v>1990</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7">
         <v>103.509256849159</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="11" spans="1:34">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="6">
         <v>35497</v>
@@ -1240,7 +1240,7 @@
         <v>2220</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11">
         <v>100</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="12" spans="1:34">
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6">
         <v>35548</v>
@@ -1291,7 +1291,7 @@
         <v>2260</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="7">
         <v>110.518899834865</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="13" spans="1:34">
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="6">
         <v>35541</v>
@@ -1354,7 +1354,7 @@
         <v>2740</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7">
         <v>103.860280177097</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="14" spans="1:34">
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6">
         <v>35521</v>
@@ -1408,7 +1408,7 @@
         <v>2810</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7">
         <v>123.746387700844</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="15" spans="1:34">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="6">
         <v>35521</v>
@@ -1465,7 +1465,7 @@
         <v>2930</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15">
         <v>124</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="16" spans="1:34">
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="6">
         <v>35514</v>
@@ -1525,7 +1525,7 @@
         <v>3270</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7">
         <v>116.883933633271</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="17" spans="2:33">
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6">
         <v>35514</v>
@@ -1582,7 +1582,7 @@
         <v>3330</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="7">
         <v>117.37411881234</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="18" spans="2:33">
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6">
         <v>35528</v>
@@ -1639,7 +1639,7 @@
         <v>4400</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18">
         <v>131</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="19" spans="2:33">
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="6">
         <v>35548</v>
@@ -1690,7 +1690,7 @@
         <v>4460</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>111</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="20" spans="2:33">
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="6">
         <v>35438</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="21" spans="2:33">
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="6">
         <v>35445</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="22" spans="2:33">
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="6">
         <v>35433</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="23" spans="2:33">
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="6">
         <v>35453</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="24" spans="2:33">
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="6">
         <v>35457</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="25" spans="2:33">
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="6">
         <v>35478</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="26" spans="2:33">
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="6">
         <v>35472</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="27" spans="2:33">
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="6">
         <v>35423</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="28" spans="2:33">
       <c r="B28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="6">
         <v>35418</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="29" spans="2:33">
       <c r="B29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="6">
         <v>35419</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="30" spans="2:33">
       <c r="B30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="6">
         <v>35440</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="31" spans="2:33">
       <c r="B31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="6">
         <v>35441</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="32" spans="2:33">
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="6">
         <v>35452</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="33" spans="2:34">
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="6">
         <v>35458</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="34" spans="2:34">
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="6">
         <v>35459</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="35" spans="2:34">
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="6">
         <v>35462</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="36" spans="2:34">
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="6">
         <v>35466</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="37" spans="2:34">
       <c r="B37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="6">
         <v>35467</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="38" spans="2:34">
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="6">
         <v>35471</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="39" spans="2:34">
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="6">
         <v>35475</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="40" spans="2:34">
       <c r="B40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="6">
         <v>35476</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="41" spans="2:34">
       <c r="B41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="6">
         <v>35482</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="42" spans="2:34">
       <c r="B42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="6">
         <v>35483</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="43" spans="2:34">
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="6">
         <v>35495</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="44" spans="2:34">
       <c r="B44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="6">
         <v>35496</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="45" spans="2:34">
       <c r="B45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C45" s="6">
         <v>35433</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="46" spans="2:34">
       <c r="B46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C46" s="6">
         <v>35470</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="47" spans="2:34">
       <c r="B47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" s="6">
         <v>35457</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="48" spans="2:34">
       <c r="B48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="6">
         <v>35478</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="49" spans="2:30">
       <c r="B49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" s="6">
         <v>35438</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="50" spans="2:30">
       <c r="B50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" s="6">
         <v>35447</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="51" spans="2:30">
       <c r="B51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C51" s="6">
         <v>35454</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="52" spans="2:30">
       <c r="B52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" s="6">
         <v>35422</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="53" spans="2:30">
       <c r="B53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C53" s="6">
         <v>35418</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="54" spans="2:30">
       <c r="B54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="6">
         <v>35419</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="55" spans="2:30">
       <c r="B55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C55" s="6">
         <v>35424</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="56" spans="2:30">
       <c r="B56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" s="6">
         <v>35429</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="57" spans="2:30">
       <c r="B57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" s="6">
         <v>35440</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="58" spans="2:30">
       <c r="B58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" s="6">
         <v>35441</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="59" spans="2:30">
       <c r="B59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59" s="6">
         <v>35442</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="60" spans="2:30">
       <c r="B60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60" s="6">
         <v>35449</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="61" spans="2:30">
       <c r="B61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" s="6">
         <v>35451</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="62" spans="2:30">
       <c r="B62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" s="6">
         <v>35452</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="63" spans="2:30">
       <c r="B63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63" s="6">
         <v>35458</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="64" spans="2:30">
       <c r="B64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64" s="6">
         <v>35460</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="65" spans="2:34">
       <c r="B65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C65" s="6">
         <v>35461</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="66" spans="2:34">
       <c r="B66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C66" s="6">
         <v>35462</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="67" spans="2:34">
       <c r="B67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67" s="6">
         <v>35466</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="68" spans="2:34">
       <c r="B68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68" s="6">
         <v>35467</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="69" spans="2:34">
       <c r="B69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" s="6">
         <v>35471</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="70" spans="2:34">
       <c r="B70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C70" s="6">
         <v>35472</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="71" spans="2:34">
       <c r="B71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C71" s="6">
         <v>35475</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="72" spans="2:34">
       <c r="B72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C72" s="6">
         <v>35477</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="73" spans="2:34">
       <c r="B73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" s="6">
         <v>35482</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="74" spans="2:34">
       <c r="B74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C74" s="6">
         <v>35483</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="75" spans="2:34">
       <c r="B75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C75" s="6">
         <v>35492</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="76" spans="2:34">
       <c r="B76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C76" s="6">
         <v>35495</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="77" spans="2:34">
       <c r="B77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C77" s="6">
         <v>35496</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="78" spans="2:34">
       <c r="B78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C78" s="6">
         <v>35457</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="79" spans="2:34">
       <c r="B79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C79" s="6">
         <v>35433</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="80" spans="2:34">
       <c r="B80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C80" s="6">
         <v>35439</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="81" spans="1:30">
       <c r="B81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C81" s="6">
         <v>35424</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="82" spans="1:30">
       <c r="B82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C82" s="6">
         <v>35446</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="83" spans="1:30">
       <c r="B83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C83" s="6">
         <v>35480</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="84" spans="1:30">
       <c r="B84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C84" s="6">
         <v>35454</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="85" spans="1:30">
       <c r="B85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C85" s="6">
         <v>35473</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="86" spans="1:30">
       <c r="B86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C86" s="6">
         <v>35419</v>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="87" spans="1:30">
       <c r="A87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C87" s="6">
         <v>35418</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="88" spans="1:30">
       <c r="B88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C88" s="6">
         <v>35420</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="89" spans="1:30">
       <c r="B89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C89" s="6">
         <v>35429</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="90" spans="1:30">
       <c r="B90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C90" s="6">
         <v>35441</v>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="91" spans="1:30">
       <c r="B91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C91" s="6">
         <v>35442</v>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="92" spans="1:30">
       <c r="B92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C92" s="6">
         <v>35449</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="93" spans="1:30">
       <c r="B93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C93" s="6">
         <v>35451</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="94" spans="1:30">
       <c r="B94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C94" s="6">
         <v>35452</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="95" spans="1:30">
       <c r="B95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C95" s="6">
         <v>35458</v>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="96" spans="1:30">
       <c r="B96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C96" s="6">
         <v>35460</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="97" spans="2:34">
       <c r="B97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C97" s="6">
         <v>35461</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="98" spans="2:34">
       <c r="B98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C98" s="6">
         <v>35462</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="99" spans="2:34">
       <c r="B99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C99" s="6">
         <v>35467</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="100" spans="2:34">
       <c r="B100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C100" s="6">
         <v>35471</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="101" spans="2:34">
       <c r="B101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C101" s="6">
         <v>35472</v>
@@ -3971,7 +3971,7 @@
     </row>
     <row r="102" spans="2:34">
       <c r="B102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C102" s="6">
         <v>35475</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="103" spans="2:34">
       <c r="B103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C103" s="6">
         <v>35476</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="104" spans="2:34">
       <c r="B104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C104" s="6">
         <v>35477</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="105" spans="2:34">
       <c r="B105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C105" s="6">
         <v>35481</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="106" spans="2:34">
       <c r="B106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C106" s="6">
         <v>35482</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="107" spans="2:34">
       <c r="B107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C107" s="6">
         <v>35483</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="108" spans="2:34">
       <c r="B108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C108" s="6">
         <v>35488</v>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="109" spans="2:34">
       <c r="B109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C109" s="6">
         <v>35489</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="110" spans="2:34">
       <c r="B110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C110" s="6">
         <v>35492</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="111" spans="2:34">
       <c r="B111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C111" s="6">
         <v>35497</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="112" spans="2:34">
       <c r="B112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C112" s="6">
         <v>35502</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="113" spans="2:28">
       <c r="B113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C113" s="6">
         <v>35515</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="114" spans="2:28">
       <c r="B114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C114" s="6">
         <v>35522</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="115" spans="2:28">
       <c r="B115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C115" s="6">
         <v>35456</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="116" spans="2:28">
       <c r="B116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C116" s="6">
         <v>35446</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="117" spans="2:28">
       <c r="B117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C117" s="6">
         <v>35453</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="118" spans="2:28">
       <c r="B118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C118" s="6">
         <v>35438</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="119" spans="2:28">
       <c r="B119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C119" s="6">
         <v>35433</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="120" spans="2:28">
       <c r="B120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C120" s="6">
         <v>35478</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="121" spans="2:28">
       <c r="B121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C121" s="6">
         <v>35471</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="122" spans="2:28">
       <c r="B122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C122" s="6">
         <v>35500</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="123" spans="2:28">
       <c r="B123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C123" s="6">
         <v>35507</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="124" spans="2:28">
       <c r="B124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C124" s="6">
         <v>35423</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="125" spans="2:28">
       <c r="B125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C125" s="6">
         <v>35514</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="126" spans="2:28">
       <c r="B126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C126" s="6">
         <v>35419</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="127" spans="2:28">
       <c r="B127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C127" s="6">
         <v>35418</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="128" spans="2:28">
       <c r="B128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C128" s="6">
         <v>35440</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="129" spans="2:34">
       <c r="B129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C129" s="6">
         <v>35441</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="130" spans="2:34">
       <c r="B130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C130" s="6">
         <v>35452</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="131" spans="2:34">
       <c r="B131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C131" s="6">
         <v>35458</v>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="132" spans="2:34">
       <c r="B132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C132" s="6">
         <v>35461</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="133" spans="2:34">
       <c r="B133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C133" s="6">
         <v>35462</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="134" spans="2:34">
       <c r="B134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C134" s="6">
         <v>35466</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="135" spans="2:34">
       <c r="B135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C135" s="6">
         <v>35467</v>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="136" spans="2:34">
       <c r="B136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C136" s="6">
         <v>35472</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="137" spans="2:34">
       <c r="B137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C137" s="6">
         <v>35475</v>
@@ -4932,7 +4932,7 @@
     </row>
     <row r="138" spans="2:34">
       <c r="B138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C138" s="6">
         <v>35476</v>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="139" spans="2:34">
       <c r="B139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C139" s="6">
         <v>35481</v>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="140" spans="2:34">
       <c r="B140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C140" s="6">
         <v>35482</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="141" spans="2:34">
       <c r="B141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C141" s="6">
         <v>35483</v>
@@ -5036,7 +5036,7 @@
     </row>
     <row r="142" spans="2:34">
       <c r="B142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C142" s="6">
         <v>35518</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="143" spans="2:34">
       <c r="B143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C143" s="6">
         <v>35520</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="144" spans="2:34">
       <c r="B144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C144" s="6">
         <v>35478</v>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="145" spans="2:30">
       <c r="B145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C145" s="6">
         <v>35433</v>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="146" spans="2:30">
       <c r="B146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C146" s="6">
         <v>35457</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="147" spans="2:30">
       <c r="B147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C147" s="6">
         <v>35439</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="148" spans="2:30">
       <c r="B148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C148" s="6">
         <v>35453</v>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="149" spans="2:30">
       <c r="B149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C149" s="6">
         <v>35471</v>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="150" spans="2:30">
       <c r="B150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C150" s="6">
         <v>35446</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="151" spans="2:30">
       <c r="B151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C151" s="6">
         <v>35501</v>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="152" spans="2:30">
       <c r="B152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C152" s="6">
         <v>35506</v>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="153" spans="2:30">
       <c r="B153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C153" s="6">
         <v>35424</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="154" spans="2:30">
       <c r="B154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C154" s="6">
         <v>35514</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="155" spans="2:30">
       <c r="B155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C155" s="6">
         <v>35419</v>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="156" spans="2:30">
       <c r="B156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C156" s="6">
         <v>35418</v>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="157" spans="2:30">
       <c r="B157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C157" s="6">
         <v>35429</v>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="158" spans="2:30">
       <c r="B158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C158" s="6">
         <v>35440</v>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="159" spans="2:30">
       <c r="B159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C159" s="6">
         <v>35441</v>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="160" spans="2:30">
       <c r="B160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C160" s="6">
         <v>35442</v>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="161" spans="2:34">
       <c r="B161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C161" s="6">
         <v>35449</v>
@@ -5538,7 +5538,7 @@
     </row>
     <row r="162" spans="2:34">
       <c r="B162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C162" s="6">
         <v>35451</v>
@@ -5570,7 +5570,7 @@
     </row>
     <row r="163" spans="2:34">
       <c r="B163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C163" s="6">
         <v>35452</v>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="164" spans="2:34">
       <c r="B164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C164" s="6">
         <v>35454</v>
@@ -5619,7 +5619,7 @@
     </row>
     <row r="165" spans="2:34">
       <c r="B165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C165" s="6">
         <v>35458</v>
@@ -5645,7 +5645,7 @@
     </row>
     <row r="166" spans="2:34">
       <c r="B166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C166" s="6">
         <v>35460</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="167" spans="2:34">
       <c r="B167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C167" s="6">
         <v>35461</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="168" spans="2:34">
       <c r="B168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C168" s="6">
         <v>35462</v>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="169" spans="2:34">
       <c r="B169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C169" s="6">
         <v>35466</v>
@@ -5752,7 +5752,7 @@
     </row>
     <row r="170" spans="2:34">
       <c r="B170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C170" s="6">
         <v>35467</v>
@@ -5781,7 +5781,7 @@
     </row>
     <row r="171" spans="2:34">
       <c r="B171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C171" s="6">
         <v>35472</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="172" spans="2:34">
       <c r="B172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C172" s="6">
         <v>35477</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="173" spans="2:34">
       <c r="B173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C173" s="6">
         <v>35481</v>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="174" spans="2:34">
       <c r="B174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C174" s="6">
         <v>35482</v>
@@ -5886,7 +5886,7 @@
     </row>
     <row r="175" spans="2:34">
       <c r="B175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C175" s="6">
         <v>35483</v>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="176" spans="2:34">
       <c r="B176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C176" s="6">
         <v>35497</v>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="177" spans="2:30">
       <c r="B177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C177" s="6">
         <v>35502</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="178" spans="2:30">
       <c r="B178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C178" s="6">
         <v>35515</v>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="179" spans="2:30">
       <c r="B179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C179" s="6">
         <v>35517</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="180" spans="2:30">
       <c r="B180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C180" s="6">
         <v>35519</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="181" spans="2:30">
       <c r="B181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C181" s="6">
         <v>35520</v>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="182" spans="2:30">
       <c r="B182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C182" s="6">
         <v>35514</v>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="183" spans="2:30">
       <c r="B183" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C183" s="6">
         <v>35478</v>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="184" spans="2:30">
       <c r="B184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C184" s="6">
         <v>35458</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="185" spans="2:30">
       <c r="B185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C185" s="6">
         <v>35433</v>
@@ -6169,7 +6169,7 @@
     </row>
     <row r="186" spans="2:30">
       <c r="B186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C186" s="6">
         <v>35454</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="187" spans="2:30">
       <c r="B187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C187" s="6">
         <v>35501</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="188" spans="2:30">
       <c r="B188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C188" s="6">
         <v>35439</v>
@@ -6256,7 +6256,7 @@
     </row>
     <row r="189" spans="2:30">
       <c r="B189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C189" s="6">
         <v>35446</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="190" spans="2:30">
       <c r="B190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C190" s="6">
         <v>35472</v>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="191" spans="2:30">
       <c r="B191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C191" s="6">
         <v>35424</v>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="192" spans="2:30">
       <c r="B192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C192" s="6">
         <v>35508</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="193" spans="2:34">
       <c r="B193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C193" s="6">
         <v>35418</v>
@@ -6410,7 +6410,7 @@
     </row>
     <row r="194" spans="2:34">
       <c r="B194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C194" s="6">
         <v>35419</v>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="195" spans="2:34">
       <c r="B195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C195" s="6">
         <v>35429</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="196" spans="2:34">
       <c r="B196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C196" s="6">
         <v>35440</v>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="197" spans="2:34">
       <c r="B197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C197" s="6">
         <v>35441</v>
@@ -6523,7 +6523,7 @@
     </row>
     <row r="198" spans="2:34">
       <c r="B198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C198" s="6">
         <v>35442</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="199" spans="2:34">
       <c r="B199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C199" s="6">
         <v>35449</v>
@@ -6602,7 +6602,7 @@
     </row>
     <row r="200" spans="2:34">
       <c r="B200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C200" s="6">
         <v>35451</v>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="201" spans="2:34">
       <c r="B201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C201" s="6">
         <v>35452</v>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="202" spans="2:34">
       <c r="B202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C202" s="6">
         <v>35460</v>
@@ -6696,7 +6696,7 @@
     </row>
     <row r="203" spans="2:34">
       <c r="B203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C203" s="6">
         <v>35461</v>
@@ -6725,7 +6725,7 @@
     </row>
     <row r="204" spans="2:34">
       <c r="B204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C204" s="6">
         <v>35462</v>
@@ -6754,7 +6754,7 @@
     </row>
     <row r="205" spans="2:34">
       <c r="B205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C205" s="6">
         <v>35466</v>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="206" spans="2:34">
       <c r="B206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C206" s="6">
         <v>35467</v>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="207" spans="2:34">
       <c r="B207" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C207" s="6">
         <v>35471</v>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="208" spans="2:34">
       <c r="B208" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C208" s="6">
         <v>35475</v>
@@ -6861,7 +6861,7 @@
     </row>
     <row r="209" spans="2:34">
       <c r="B209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C209" s="6">
         <v>35476</v>
@@ -6884,7 +6884,7 @@
     </row>
     <row r="210" spans="2:34">
       <c r="B210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C210" s="6">
         <v>35477</v>
@@ -6919,7 +6919,7 @@
     </row>
     <row r="211" spans="2:34">
       <c r="B211" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C211" s="6">
         <v>35482</v>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="212" spans="2:34">
       <c r="B212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C212" s="6">
         <v>35483</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="213" spans="2:34">
       <c r="B213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C213" s="6">
         <v>35492</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="214" spans="2:34">
       <c r="B214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C214" s="6">
         <v>35497</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="215" spans="2:34">
       <c r="B215" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C215" s="6">
         <v>35502</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="216" spans="2:34">
       <c r="B216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C216" s="6">
         <v>35510</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="217" spans="2:34">
       <c r="B217" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C217" s="6">
         <v>35513</v>
@@ -7141,7 +7141,7 @@
     </row>
     <row r="218" spans="2:34">
       <c r="B218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C218" s="6">
         <v>35515</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="219" spans="2:34">
       <c r="B219" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C219" s="6">
         <v>35505</v>
@@ -7205,7 +7205,7 @@
     </row>
     <row r="220" spans="2:34">
       <c r="B220" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C220" s="6">
         <v>35478</v>
@@ -7228,7 +7228,7 @@
     </row>
     <row r="221" spans="2:34">
       <c r="B221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C221" s="6">
         <v>35457</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="222" spans="2:34">
       <c r="B222" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C222" s="6">
         <v>35498</v>
@@ -7274,7 +7274,7 @@
     </row>
     <row r="223" spans="2:34">
       <c r="B223" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C223" s="6">
         <v>35471</v>
@@ -7297,7 +7297,7 @@
     </row>
     <row r="224" spans="2:34">
       <c r="B224" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C224" s="6">
         <v>35445</v>
@@ -7320,7 +7320,7 @@
     </row>
     <row r="225" spans="2:34">
       <c r="B225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C225" s="6">
         <v>35511</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="226" spans="2:34">
       <c r="B226" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C226" s="6">
         <v>35522</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="227" spans="2:34">
       <c r="B227" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C227" s="6">
         <v>35438</v>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="228" spans="2:34">
       <c r="B228" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C228" s="6">
         <v>35433</v>
@@ -7412,7 +7412,7 @@
     </row>
     <row r="229" spans="2:34">
       <c r="B229" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C229" s="6">
         <v>35423</v>
@@ -7435,7 +7435,7 @@
     </row>
     <row r="230" spans="2:34">
       <c r="B230" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C230" s="6">
         <v>35419</v>
@@ -7461,7 +7461,7 @@
     </row>
     <row r="231" spans="2:34">
       <c r="B231" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C231" s="6">
         <v>35418</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="232" spans="2:34">
       <c r="B232" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C232" s="6">
         <v>35440</v>
@@ -7507,7 +7507,7 @@
     </row>
     <row r="233" spans="2:34">
       <c r="B233" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C233" s="6">
         <v>35441</v>
@@ -7530,7 +7530,7 @@
     </row>
     <row r="234" spans="2:34">
       <c r="B234" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C234" s="6">
         <v>35451</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="235" spans="2:34">
       <c r="B235" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C235" s="6">
         <v>35482</v>
@@ -7582,7 +7582,7 @@
     </row>
     <row r="236" spans="2:34">
       <c r="B236" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C236" s="6">
         <v>35483</v>
@@ -7608,7 +7608,7 @@
     </row>
     <row r="237" spans="2:34">
       <c r="B237" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C237" s="6">
         <v>35494</v>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="238" spans="2:34">
       <c r="B238" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C238" s="6">
         <v>35496</v>
@@ -7654,7 +7654,7 @@
     </row>
     <row r="239" spans="2:34">
       <c r="B239" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C239" s="6">
         <v>35497</v>
@@ -7677,7 +7677,7 @@
     </row>
     <row r="240" spans="2:34">
       <c r="B240" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C240" s="6">
         <v>35504</v>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="241" spans="2:28">
       <c r="B241" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C241" s="6">
         <v>35507</v>
@@ -7726,7 +7726,7 @@
     </row>
     <row r="242" spans="2:28">
       <c r="B242" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C242" s="6">
         <v>35513</v>
@@ -7752,7 +7752,7 @@
     </row>
     <row r="243" spans="2:28">
       <c r="B243" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C243" s="6">
         <v>35515</v>
@@ -7775,7 +7775,7 @@
     </row>
     <row r="244" spans="2:28">
       <c r="B244" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C244" s="6">
         <v>35524</v>
@@ -7798,7 +7798,7 @@
     </row>
     <row r="245" spans="2:28">
       <c r="B245" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C245" s="6">
         <v>35526</v>
@@ -7821,7 +7821,7 @@
     </row>
     <row r="246" spans="2:28">
       <c r="B246" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C246" s="6">
         <v>35477</v>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="247" spans="2:28">
       <c r="B247" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C247" s="6">
         <v>35498</v>
@@ -7870,7 +7870,7 @@
     </row>
     <row r="248" spans="2:28">
       <c r="B248" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C248" s="6">
         <v>35505</v>
@@ -7893,7 +7893,7 @@
     </row>
     <row r="249" spans="2:28">
       <c r="B249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C249" s="6">
         <v>35471</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="250" spans="2:28">
       <c r="B250" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C250" s="6">
         <v>35457</v>
@@ -7939,7 +7939,7 @@
     </row>
     <row r="251" spans="2:28">
       <c r="B251" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C251" s="6">
         <v>35513</v>
@@ -7962,7 +7962,7 @@
     </row>
     <row r="252" spans="2:28">
       <c r="B252" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C252" s="6">
         <v>35433</v>
@@ -7985,7 +7985,7 @@
     </row>
     <row r="253" spans="2:28">
       <c r="B253" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C253" s="6">
         <v>35446</v>
@@ -8008,7 +8008,7 @@
     </row>
     <row r="254" spans="2:28">
       <c r="B254" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C254" s="6">
         <v>35439</v>
@@ -8034,7 +8034,7 @@
     </row>
     <row r="255" spans="2:28">
       <c r="B255" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C255" s="6">
         <v>35424</v>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="256" spans="2:28">
       <c r="B256" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C256" s="6">
         <v>35419</v>
@@ -8089,7 +8089,7 @@
     </row>
     <row r="257" spans="2:34">
       <c r="B257" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C257" s="6">
         <v>35418</v>
@@ -8115,7 +8115,7 @@
     </row>
     <row r="258" spans="2:34">
       <c r="B258" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C258" s="6">
         <v>35420</v>
@@ -8138,7 +8138,7 @@
     </row>
     <row r="259" spans="2:34">
       <c r="B259" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C259" s="6">
         <v>35429</v>
@@ -8161,7 +8161,7 @@
     </row>
     <row r="260" spans="2:34">
       <c r="B260" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C260" s="6">
         <v>35440</v>
@@ -8187,7 +8187,7 @@
     </row>
     <row r="261" spans="2:34">
       <c r="B261" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C261" s="6">
         <v>35442</v>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="262" spans="2:34">
       <c r="B262" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C262" s="6">
         <v>35449</v>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="263" spans="2:34">
       <c r="B263" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C263" s="6">
         <v>35454</v>
@@ -8259,7 +8259,7 @@
     </row>
     <row r="264" spans="2:34">
       <c r="B264" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C264" s="6">
         <v>35460</v>
@@ -8282,7 +8282,7 @@
     </row>
     <row r="265" spans="2:34">
       <c r="B265" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C265" s="6">
         <v>35481</v>
@@ -8308,7 +8308,7 @@
     </row>
     <row r="266" spans="2:34">
       <c r="B266" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C266" s="6">
         <v>35482</v>
@@ -8337,7 +8337,7 @@
     </row>
     <row r="267" spans="2:34">
       <c r="B267" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C267" s="6">
         <v>35483</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="268" spans="2:34">
       <c r="B268" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C268" s="6">
         <v>35494</v>
@@ -8395,7 +8395,7 @@
     </row>
     <row r="269" spans="2:34">
       <c r="B269" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C269" s="6">
         <v>35495</v>
@@ -8418,7 +8418,7 @@
     </row>
     <row r="270" spans="2:34">
       <c r="B270" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C270" s="6">
         <v>35496</v>
@@ -8441,7 +8441,7 @@
     </row>
     <row r="271" spans="2:34">
       <c r="B271" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C271" s="6">
         <v>35497</v>
@@ -8464,7 +8464,7 @@
     </row>
     <row r="272" spans="2:34">
       <c r="B272" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C272" s="6">
         <v>35502</v>
@@ -8487,7 +8487,7 @@
     </row>
     <row r="273" spans="2:28">
       <c r="B273" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C273" s="6">
         <v>35503</v>
@@ -8511,7 +8511,7 @@
     </row>
     <row r="274" spans="2:28">
       <c r="B274" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C274" s="6">
         <v>35504</v>
@@ -8537,7 +8537,7 @@
     </row>
     <row r="275" spans="2:28">
       <c r="B275" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C275" s="6">
         <v>35506</v>
@@ -8560,7 +8560,7 @@
     </row>
     <row r="276" spans="2:28">
       <c r="B276" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C276" s="6">
         <v>35512</v>
@@ -8586,7 +8586,7 @@
     </row>
     <row r="277" spans="2:28">
       <c r="B277" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C277" s="6">
         <v>35515</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="278" spans="2:28">
       <c r="B278" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C278" s="6">
         <v>35517</v>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="279" spans="2:28">
       <c r="B279" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C279" s="6">
         <v>35518</v>
@@ -8659,7 +8659,7 @@
     </row>
     <row r="280" spans="2:28">
       <c r="B280" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C280" s="6">
         <v>35519</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="281" spans="2:28">
       <c r="B281" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C281" s="6">
         <v>35520</v>
@@ -8708,7 +8708,7 @@
     </row>
     <row r="282" spans="2:28">
       <c r="B282" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C282" s="6">
         <v>35521</v>
@@ -8734,7 +8734,7 @@
     </row>
     <row r="283" spans="2:28">
       <c r="B283" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C283" s="6">
         <v>35477</v>
@@ -8772,7 +8772,7 @@
     </row>
     <row r="284" spans="2:28">
       <c r="B284" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C284" s="6">
         <v>35500</v>
@@ -8795,7 +8795,7 @@
     </row>
     <row r="285" spans="2:28">
       <c r="B285" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C285" s="6">
         <v>35506</v>
@@ -8821,7 +8821,7 @@
     </row>
     <row r="286" spans="2:28">
       <c r="B286" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C286" s="6">
         <v>35513</v>
@@ -8844,7 +8844,7 @@
     </row>
     <row r="287" spans="2:28">
       <c r="B287" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C287" s="6">
         <v>35473</v>
@@ -8867,7 +8867,7 @@
     </row>
     <row r="288" spans="2:28">
       <c r="B288" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C288" s="6">
         <v>35457</v>
@@ -8890,7 +8890,7 @@
     </row>
     <row r="289" spans="2:28">
       <c r="B289" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C289" s="6">
         <v>35433</v>
@@ -8913,7 +8913,7 @@
     </row>
     <row r="290" spans="2:28">
       <c r="B290" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C290" s="6">
         <v>35455</v>
@@ -8936,7 +8936,7 @@
     </row>
     <row r="291" spans="2:28">
       <c r="B291" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C291" s="6">
         <v>35439</v>
@@ -8959,7 +8959,7 @@
     </row>
     <row r="292" spans="2:28">
       <c r="B292" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C292" s="6">
         <v>35447</v>
@@ -8982,7 +8982,7 @@
     </row>
     <row r="293" spans="2:28">
       <c r="B293" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C293" s="6">
         <v>35423</v>
@@ -9005,7 +9005,7 @@
     </row>
     <row r="294" spans="2:28">
       <c r="B294" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C294" s="6">
         <v>35419</v>
@@ -9034,7 +9034,7 @@
     </row>
     <row r="295" spans="2:28">
       <c r="B295" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C295" s="6">
         <v>35418</v>
@@ -9075,7 +9075,7 @@
     </row>
     <row r="296" spans="2:28">
       <c r="B296" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C296" s="6">
         <v>35424</v>
@@ -9110,7 +9110,7 @@
     </row>
     <row r="297" spans="2:28">
       <c r="B297" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C297" s="6">
         <v>35429</v>
@@ -9145,7 +9145,7 @@
     </row>
     <row r="298" spans="2:28">
       <c r="B298" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C298" s="6">
         <v>35440</v>
@@ -9171,7 +9171,7 @@
     </row>
     <row r="299" spans="2:28">
       <c r="B299" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C299" s="6">
         <v>35441</v>
@@ -9194,7 +9194,7 @@
     </row>
     <row r="300" spans="2:28">
       <c r="B300" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C300" s="6">
         <v>35442</v>
@@ -9232,7 +9232,7 @@
     </row>
     <row r="301" spans="2:28">
       <c r="B301" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C301" s="6">
         <v>35449</v>
@@ -9267,7 +9267,7 @@
     </row>
     <row r="302" spans="2:28">
       <c r="B302" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C302" s="6">
         <v>35454</v>
@@ -9302,7 +9302,7 @@
     </row>
     <row r="303" spans="2:28">
       <c r="B303" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C303" s="6">
         <v>35460</v>
@@ -9337,7 +9337,7 @@
     </row>
     <row r="304" spans="2:28">
       <c r="B304" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C304" s="6">
         <v>35481</v>
@@ -9360,7 +9360,7 @@
     </row>
     <row r="305" spans="2:34">
       <c r="B305" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C305" s="6">
         <v>35482</v>
@@ -9404,7 +9404,7 @@
     </row>
     <row r="306" spans="2:34">
       <c r="B306" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C306" s="6">
         <v>35483</v>
@@ -9433,7 +9433,7 @@
     </row>
     <row r="307" spans="2:34">
       <c r="B307" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C307" s="6">
         <v>35494</v>
@@ -9457,7 +9457,7 @@
     </row>
     <row r="308" spans="2:34">
       <c r="B308" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C308" s="6">
         <v>35495</v>
@@ -9489,7 +9489,7 @@
     </row>
     <row r="309" spans="2:34">
       <c r="B309" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C309" s="6">
         <v>35497</v>
@@ -9527,7 +9527,7 @@
     </row>
     <row r="310" spans="2:34">
       <c r="B310" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C310" s="6">
         <v>35502</v>
@@ -9562,7 +9562,7 @@
     </row>
     <row r="311" spans="2:34">
       <c r="B311" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C311" s="6">
         <v>35504</v>
@@ -9589,7 +9589,7 @@
     </row>
     <row r="312" spans="2:34">
       <c r="B312" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C312" s="6">
         <v>35505</v>
@@ -9615,7 +9615,7 @@
     </row>
     <row r="313" spans="2:34">
       <c r="B313" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C313" s="6">
         <v>35507</v>
@@ -9635,7 +9635,7 @@
     </row>
     <row r="314" spans="2:34">
       <c r="B314" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C314" s="6">
         <v>35511</v>
@@ -9659,7 +9659,7 @@
     </row>
     <row r="315" spans="2:34">
       <c r="B315" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C315" s="6">
         <v>35512</v>
@@ -9682,7 +9682,7 @@
     </row>
     <row r="316" spans="2:34">
       <c r="B316" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C316" s="6">
         <v>35515</v>
@@ -9720,7 +9720,7 @@
     </row>
     <row r="317" spans="2:34">
       <c r="B317" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C317" s="6">
         <v>35518</v>
@@ -9747,7 +9747,7 @@
     </row>
     <row r="318" spans="2:34">
       <c r="B318" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C318" s="6">
         <v>35519</v>
@@ -9788,7 +9788,7 @@
     </row>
     <row r="319" spans="2:34">
       <c r="B319" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C319" s="6">
         <v>35520</v>
@@ -9811,7 +9811,7 @@
     </row>
     <row r="320" spans="2:34">
       <c r="B320" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C320" s="6">
         <v>35521</v>
@@ -9834,7 +9834,7 @@
     </row>
     <row r="321" spans="2:34">
       <c r="B321" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C321" s="6">
         <v>35501</v>
@@ -9860,7 +9860,7 @@
     </row>
     <row r="322" spans="2:34">
       <c r="B322" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C322" s="6">
         <v>35478</v>
@@ -9883,7 +9883,7 @@
     </row>
     <row r="323" spans="2:34">
       <c r="B323" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C323" s="6">
         <v>35507</v>
@@ -9906,7 +9906,7 @@
     </row>
     <row r="324" spans="2:34">
       <c r="B324" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C324" s="6">
         <v>35525</v>
@@ -9929,7 +9929,7 @@
     </row>
     <row r="325" spans="2:34">
       <c r="B325" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C325" s="6">
         <v>35522</v>
@@ -9952,7 +9952,7 @@
     </row>
     <row r="326" spans="2:34">
       <c r="B326" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C326" s="6">
         <v>35472</v>
@@ -9975,7 +9975,7 @@
     </row>
     <row r="327" spans="2:34">
       <c r="B327" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C327" s="6">
         <v>35514</v>
@@ -9998,7 +9998,7 @@
     </row>
     <row r="328" spans="2:34">
       <c r="B328" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C328" s="6">
         <v>35531</v>
@@ -10021,7 +10021,7 @@
     </row>
     <row r="329" spans="2:34">
       <c r="B329" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C329" s="6">
         <v>35539</v>
@@ -10044,7 +10044,7 @@
     </row>
     <row r="330" spans="2:34">
       <c r="B330" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C330" s="6">
         <v>35486</v>
@@ -10071,7 +10071,7 @@
     </row>
     <row r="331" spans="2:34">
       <c r="B331" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C331" s="6">
         <v>35487</v>
@@ -10106,7 +10106,7 @@
     </row>
     <row r="332" spans="2:34">
       <c r="B332" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C332" s="6">
         <v>35499</v>
@@ -10135,7 +10135,7 @@
     </row>
     <row r="333" spans="2:34">
       <c r="B333" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C333" s="6">
         <v>35500</v>
@@ -10165,7 +10165,7 @@
     </row>
     <row r="334" spans="2:34">
       <c r="B334" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C334" s="6">
         <v>35505</v>
@@ -10191,7 +10191,7 @@
     </row>
     <row r="335" spans="2:34">
       <c r="B335" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C335" s="6">
         <v>35506</v>
@@ -10228,7 +10228,7 @@
     </row>
     <row r="336" spans="2:34">
       <c r="B336" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C336" s="6">
         <v>35508</v>
@@ -10248,7 +10248,7 @@
     </row>
     <row r="337" spans="2:34">
       <c r="B337" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C337" s="6">
         <v>35509</v>
@@ -10289,7 +10289,7 @@
     </row>
     <row r="338" spans="2:34">
       <c r="B338" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C338" s="6">
         <v>35510</v>
@@ -10315,7 +10315,7 @@
     </row>
     <row r="339" spans="2:34">
       <c r="B339" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C339" s="6">
         <v>35540</v>
@@ -10344,7 +10344,7 @@
     </row>
     <row r="340" spans="2:34">
       <c r="B340" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C340" s="6">
         <v>35479</v>
@@ -10367,7 +10367,7 @@
     </row>
     <row r="341" spans="2:34">
       <c r="B341" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C341" s="6">
         <v>35501</v>
@@ -10393,7 +10393,7 @@
     </row>
     <row r="342" spans="2:34">
       <c r="B342" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C342" s="6">
         <v>35507</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="343" spans="2:34">
       <c r="B343" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C343" s="6">
         <v>35472</v>
@@ -10439,7 +10439,7 @@
     </row>
     <row r="344" spans="2:34">
       <c r="B344" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C344" s="6">
         <v>35515</v>
@@ -10462,7 +10462,7 @@
     </row>
     <row r="345" spans="2:34">
       <c r="B345" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C345" s="6">
         <v>35527</v>
@@ -10500,7 +10500,7 @@
     </row>
     <row r="346" spans="2:34">
       <c r="B346" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C346" s="6">
         <v>35523</v>
@@ -10523,7 +10523,7 @@
     </row>
     <row r="347" spans="2:34">
       <c r="B347" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C347" s="6">
         <v>35462</v>
@@ -10558,7 +10558,7 @@
     </row>
     <row r="348" spans="2:34">
       <c r="B348" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C348" s="6">
         <v>35482</v>
@@ -10593,7 +10593,7 @@
     </row>
     <row r="349" spans="2:34">
       <c r="B349" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C349" s="6">
         <v>35486</v>
@@ -10620,7 +10620,7 @@
     </row>
     <row r="350" spans="2:34">
       <c r="B350" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C350" s="6">
         <v>35487</v>
@@ -10655,7 +10655,7 @@
     </row>
     <row r="351" spans="2:34">
       <c r="B351" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C351" s="6">
         <v>35492</v>
@@ -10690,7 +10690,7 @@
     </row>
     <row r="352" spans="2:34">
       <c r="B352" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C352" s="6">
         <v>35497</v>
@@ -10725,7 +10725,7 @@
     </row>
     <row r="353" spans="2:34">
       <c r="B353" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C353" s="6">
         <v>35499</v>
@@ -10751,7 +10751,7 @@
     </row>
     <row r="354" spans="2:34">
       <c r="B354" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C354" s="6">
         <v>35500</v>
@@ -10777,7 +10777,7 @@
     </row>
     <row r="355" spans="2:34">
       <c r="B355" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C355" s="6">
         <v>35504</v>
@@ -10812,7 +10812,7 @@
     </row>
     <row r="356" spans="2:34">
       <c r="B356" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C356" s="6">
         <v>35505</v>
@@ -10835,7 +10835,7 @@
     </row>
     <row r="357" spans="2:34">
       <c r="B357" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C357" s="6">
         <v>35506</v>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="358" spans="2:34">
       <c r="B358" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C358" s="6">
         <v>35508</v>
@@ -10888,7 +10888,7 @@
     </row>
     <row r="359" spans="2:34">
       <c r="B359" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C359" s="6">
         <v>35509</v>
@@ -10911,7 +10911,7 @@
     </row>
     <row r="360" spans="2:34">
       <c r="B360" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C360" s="6">
         <v>35510</v>
@@ -10946,7 +10946,7 @@
     </row>
     <row r="361" spans="2:34">
       <c r="B361" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C361" s="6">
         <v>35512</v>
@@ -10981,7 +10981,7 @@
     </row>
     <row r="362" spans="2:34">
       <c r="B362" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C362" s="6">
         <v>35519</v>
@@ -11016,7 +11016,7 @@
     </row>
     <row r="363" spans="2:34">
       <c r="B363" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C363" s="6">
         <v>35535</v>
@@ -11045,7 +11045,7 @@
     </row>
     <row r="364" spans="2:34">
       <c r="B364" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C364" s="6">
         <v>35480</v>
@@ -11068,7 +11068,7 @@
     </row>
     <row r="365" spans="2:34">
       <c r="B365" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C365" s="6">
         <v>35502</v>
@@ -11091,7 +11091,7 @@
     </row>
     <row r="366" spans="2:34">
       <c r="B366" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C366" s="6">
         <v>35508</v>
@@ -11114,7 +11114,7 @@
     </row>
     <row r="367" spans="2:34">
       <c r="B367" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C367" s="6">
         <v>35473</v>
@@ -11137,7 +11137,7 @@
     </row>
     <row r="368" spans="2:34">
       <c r="B368" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C368" s="6">
         <v>35516</v>
@@ -11160,7 +11160,7 @@
     </row>
     <row r="369" spans="2:34">
       <c r="B369" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C369" s="6">
         <v>35525</v>
@@ -11183,7 +11183,7 @@
     </row>
     <row r="370" spans="2:34">
       <c r="B370" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C370" s="6">
         <v>35462</v>
@@ -11206,7 +11206,7 @@
     </row>
     <row r="371" spans="2:34">
       <c r="B371" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C371" s="6">
         <v>35482</v>
@@ -11232,7 +11232,7 @@
     </row>
     <row r="372" spans="2:34">
       <c r="B372" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C372" s="6">
         <v>35485</v>
@@ -11255,7 +11255,7 @@
     </row>
     <row r="373" spans="2:34">
       <c r="B373" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C373" s="6">
         <v>35486</v>
@@ -11284,7 +11284,7 @@
     </row>
     <row r="374" spans="2:34">
       <c r="B374" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C374" s="6">
         <v>35487</v>
@@ -11317,7 +11317,7 @@
     </row>
     <row r="375" spans="2:34">
       <c r="B375" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C375" s="6">
         <v>35492</v>
@@ -11340,7 +11340,7 @@
     </row>
     <row r="376" spans="2:34">
       <c r="B376" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C376" s="6">
         <v>35497</v>
@@ -11366,7 +11366,7 @@
     </row>
     <row r="377" spans="2:34">
       <c r="B377" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C377" s="6">
         <v>35498</v>
@@ -11389,7 +11389,7 @@
     </row>
     <row r="378" spans="2:34">
       <c r="B378" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C378" s="6">
         <v>35499</v>
@@ -11418,7 +11418,7 @@
     </row>
     <row r="379" spans="2:34">
       <c r="B379" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C379" s="6">
         <v>35500</v>
@@ -11452,7 +11452,7 @@
     </row>
     <row r="380" spans="2:34">
       <c r="B380" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C380" s="6">
         <v>35504</v>
@@ -11481,7 +11481,7 @@
     </row>
     <row r="381" spans="2:34">
       <c r="B381" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C381" s="6">
         <v>35505</v>
@@ -11504,7 +11504,7 @@
     </row>
     <row r="382" spans="2:34">
       <c r="B382" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C382" s="6">
         <v>35506</v>
@@ -11542,7 +11542,7 @@
     </row>
     <row r="383" spans="2:34">
       <c r="B383" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C383" s="6">
         <v>35509</v>
@@ -11579,7 +11579,7 @@
     </row>
     <row r="384" spans="2:34">
       <c r="B384" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C384" s="6">
         <v>35510</v>
@@ -11612,7 +11612,7 @@
     </row>
     <row r="385" spans="2:34">
       <c r="B385" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C385" s="6">
         <v>35512</v>
@@ -11638,7 +11638,7 @@
     </row>
     <row r="386" spans="2:34">
       <c r="B386" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C386" s="6">
         <v>35519</v>
@@ -11664,7 +11664,7 @@
     </row>
     <row r="387" spans="2:34">
       <c r="B387" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C387" s="6">
         <v>35520</v>
@@ -11690,7 +11690,7 @@
     </row>
     <row r="388" spans="2:34">
       <c r="B388" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C388" s="6">
         <v>35500</v>
@@ -11731,7 +11731,7 @@
     </row>
     <row r="389" spans="2:34">
       <c r="B389" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C389" s="6">
         <v>35507</v>
@@ -11754,7 +11754,7 @@
     </row>
     <row r="390" spans="2:34">
       <c r="B390" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C390" s="6">
         <v>35478</v>
@@ -11777,7 +11777,7 @@
     </row>
     <row r="391" spans="2:34">
       <c r="B391" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C391" s="6">
         <v>35524</v>
@@ -11800,7 +11800,7 @@
     </row>
     <row r="392" spans="2:34">
       <c r="B392" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C392" s="6">
         <v>35521</v>
@@ -11823,7 +11823,7 @@
     </row>
     <row r="393" spans="2:34">
       <c r="B393" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C393" s="6">
         <v>35513</v>
@@ -11846,7 +11846,7 @@
     </row>
     <row r="394" spans="2:34">
       <c r="B394" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C394" s="6">
         <v>35472</v>
@@ -11869,7 +11869,7 @@
     </row>
     <row r="395" spans="2:34">
       <c r="B395" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C395" s="6">
         <v>35531</v>
@@ -11892,7 +11892,7 @@
     </row>
     <row r="396" spans="2:34">
       <c r="B396" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C396" s="6">
         <v>35538</v>
@@ -11915,7 +11915,7 @@
     </row>
     <row r="397" spans="2:34">
       <c r="B397" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C397" s="6">
         <v>35545</v>
@@ -11938,7 +11938,7 @@
     </row>
     <row r="398" spans="2:34">
       <c r="B398" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C398" s="6">
         <v>35486</v>
@@ -11961,7 +11961,7 @@
     </row>
     <row r="399" spans="2:34">
       <c r="B399" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C399" s="6">
         <v>35487</v>
@@ -11999,7 +11999,7 @@
     </row>
     <row r="400" spans="2:34">
       <c r="B400" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C400" s="6">
         <v>35498</v>
@@ -12022,7 +12022,7 @@
     </row>
     <row r="401" spans="2:34">
       <c r="B401" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C401" s="6">
         <v>35505</v>
@@ -12048,7 +12048,7 @@
     </row>
     <row r="402" spans="2:34">
       <c r="B402" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C402" s="6">
         <v>35506</v>
@@ -12086,7 +12086,7 @@
     </row>
     <row r="403" spans="2:34">
       <c r="B403" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C403" s="6">
         <v>35508</v>
@@ -12109,7 +12109,7 @@
     </row>
     <row r="404" spans="2:34">
       <c r="B404" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C404" s="6">
         <v>35509</v>
@@ -12150,7 +12150,7 @@
     </row>
     <row r="405" spans="2:34">
       <c r="B405" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C405" s="6">
         <v>35510</v>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="406" spans="2:34">
       <c r="B406" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C406" s="6">
         <v>35546</v>
@@ -12202,7 +12202,7 @@
     </row>
     <row r="407" spans="2:34">
       <c r="B407" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C407" s="6">
         <v>35547</v>
@@ -12231,7 +12231,7 @@
     </row>
     <row r="408" spans="2:34">
       <c r="B408" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C408" s="6">
         <v>35479</v>
@@ -12254,7 +12254,7 @@
     </row>
     <row r="409" spans="2:34">
       <c r="B409" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C409" s="6">
         <v>35501</v>
@@ -12277,7 +12277,7 @@
     </row>
     <row r="410" spans="2:34">
       <c r="B410" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C410" s="6">
         <v>35507</v>
@@ -12300,7 +12300,7 @@
     </row>
     <row r="411" spans="2:34">
       <c r="B411" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C411" s="6">
         <v>35472</v>
@@ -12323,7 +12323,7 @@
     </row>
     <row r="412" spans="2:34">
       <c r="B412" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C412" s="6">
         <v>35524</v>
@@ -12346,7 +12346,7 @@
     </row>
     <row r="413" spans="2:34">
       <c r="B413" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C413" s="6">
         <v>35514</v>
@@ -12369,7 +12369,7 @@
     </row>
     <row r="414" spans="2:34">
       <c r="B414" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C414" s="6">
         <v>35533</v>
@@ -12392,7 +12392,7 @@
     </row>
     <row r="415" spans="2:34">
       <c r="B415" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C415" s="6">
         <v>35528</v>
@@ -12415,7 +12415,7 @@
     </row>
     <row r="416" spans="2:34">
       <c r="B416" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C416" s="6">
         <v>35462</v>
@@ -12450,7 +12450,7 @@
     </row>
     <row r="417" spans="2:34">
       <c r="B417" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C417" s="6">
         <v>35482</v>
@@ -12485,7 +12485,7 @@
     </row>
     <row r="418" spans="2:34">
       <c r="B418" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C418" s="6">
         <v>35486</v>
@@ -12517,7 +12517,7 @@
     </row>
     <row r="419" spans="2:34">
       <c r="B419" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C419" s="6">
         <v>35487</v>
@@ -12546,7 +12546,7 @@
     </row>
     <row r="420" spans="2:34">
       <c r="B420" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C420" s="6">
         <v>35492</v>
@@ -12581,7 +12581,7 @@
     </row>
     <row r="421" spans="2:34">
       <c r="B421" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C421" s="6">
         <v>35497</v>
@@ -12616,7 +12616,7 @@
     </row>
     <row r="422" spans="2:34">
       <c r="B422" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C422" s="6">
         <v>35499</v>
@@ -12645,7 +12645,7 @@
     </row>
     <row r="423" spans="2:34">
       <c r="B423" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C423" s="6">
         <v>35500</v>
@@ -12668,7 +12668,7 @@
     </row>
     <row r="424" spans="2:34">
       <c r="B424" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C424" s="6">
         <v>35504</v>
@@ -12703,7 +12703,7 @@
     </row>
     <row r="425" spans="2:34">
       <c r="B425" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C425" s="6">
         <v>35505</v>
@@ -12735,7 +12735,7 @@
     </row>
     <row r="426" spans="2:34">
       <c r="B426" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C426" s="6">
         <v>35506</v>
@@ -12758,7 +12758,7 @@
     </row>
     <row r="427" spans="2:34">
       <c r="B427" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C427" s="6">
         <v>35508</v>
@@ -12781,7 +12781,7 @@
     </row>
     <row r="428" spans="2:34">
       <c r="B428" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C428" s="6">
         <v>35509</v>
@@ -12807,7 +12807,7 @@
     </row>
     <row r="429" spans="2:34">
       <c r="B429" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C429" s="6">
         <v>35510</v>
@@ -12839,7 +12839,7 @@
     </row>
     <row r="430" spans="2:34">
       <c r="B430" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C430" s="6">
         <v>35512</v>
@@ -12874,7 +12874,7 @@
     </row>
     <row r="431" spans="2:34">
       <c r="B431" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C431" s="6">
         <v>35519</v>
@@ -12909,7 +12909,7 @@
     </row>
     <row r="432" spans="2:34">
       <c r="B432" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C432" s="6">
         <v>35527</v>
@@ -12944,7 +12944,7 @@
     </row>
     <row r="433" spans="2:34">
       <c r="B433" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C433" s="6">
         <v>35534</v>
@@ -12976,7 +12976,7 @@
     </row>
     <row r="434" spans="2:34">
       <c r="B434" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C434" s="6">
         <v>35479</v>
@@ -12999,7 +12999,7 @@
     </row>
     <row r="435" spans="2:34">
       <c r="B435" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C435" s="6">
         <v>35472</v>
@@ -13022,7 +13022,7 @@
     </row>
     <row r="436" spans="2:34">
       <c r="B436" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C436" s="6">
         <v>35503</v>
@@ -13045,7 +13045,7 @@
     </row>
     <row r="437" spans="2:34">
       <c r="B437" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C437" s="6">
         <v>35509</v>
@@ -13088,7 +13088,7 @@
     </row>
     <row r="438" spans="2:34">
       <c r="B438" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C438" s="6">
         <v>35516</v>
@@ -13111,7 +13111,7 @@
     </row>
     <row r="439" spans="2:34">
       <c r="B439" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C439" s="6">
         <v>35462</v>
@@ -13134,7 +13134,7 @@
     </row>
     <row r="440" spans="2:34">
       <c r="B440" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C440" s="6">
         <v>35482</v>
@@ -13160,7 +13160,7 @@
     </row>
     <row r="441" spans="2:34">
       <c r="B441" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C441" s="6">
         <v>35486</v>
@@ -13189,7 +13189,7 @@
     </row>
     <row r="442" spans="2:34">
       <c r="B442" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C442" s="6">
         <v>35487</v>
@@ -13221,7 +13221,7 @@
     </row>
     <row r="443" spans="2:34">
       <c r="B443" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C443" s="6">
         <v>35488</v>
@@ -13246,7 +13246,7 @@
     </row>
     <row r="444" spans="2:34">
       <c r="B444" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C444" s="6">
         <v>35492</v>
@@ -13269,7 +13269,7 @@
     </row>
     <row r="445" spans="2:34">
       <c r="B445" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C445" s="6">
         <v>35497</v>
@@ -13295,7 +13295,7 @@
     </row>
     <row r="446" spans="2:34">
       <c r="B446" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C446" s="6">
         <v>35499</v>
@@ -13327,7 +13327,7 @@
     </row>
     <row r="447" spans="2:34">
       <c r="B447" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C447" s="6">
         <v>35500</v>
@@ -13362,7 +13362,7 @@
     </row>
     <row r="448" spans="2:34">
       <c r="B448" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C448" s="6">
         <v>35504</v>
@@ -13388,7 +13388,7 @@
     </row>
     <row r="449" spans="2:34">
       <c r="B449" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C449" s="6">
         <v>35505</v>
@@ -13420,7 +13420,7 @@
     </row>
     <row r="450" spans="2:34">
       <c r="B450" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C450" s="6">
         <v>35506</v>
@@ -13458,7 +13458,7 @@
     </row>
     <row r="451" spans="2:34">
       <c r="B451" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C451" s="6">
         <v>35510</v>
@@ -13487,7 +13487,7 @@
     </row>
     <row r="452" spans="2:34">
       <c r="B452" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C452" s="6">
         <v>35511</v>
@@ -13510,7 +13510,7 @@
     </row>
     <row r="453" spans="2:34">
       <c r="B453" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C453" s="6">
         <v>35512</v>
@@ -13536,7 +13536,7 @@
     </row>
     <row r="454" spans="2:34">
       <c r="B454" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C454" s="6">
         <v>35519</v>
@@ -13559,7 +13559,7 @@
     </row>
     <row r="455" spans="2:34">
       <c r="B455" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C455" s="6">
         <v>35521</v>
@@ -13582,7 +13582,7 @@
     </row>
     <row r="456" spans="2:34">
       <c r="B456" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C456" s="6">
         <v>35527</v>
@@ -13617,7 +13617,7 @@
     </row>
     <row r="457" spans="2:34">
       <c r="B457" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C457" s="6">
         <v>35535</v>
@@ -13640,7 +13640,7 @@
     </row>
     <row r="458" spans="2:34">
       <c r="B458" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C458" s="6">
         <v>35500</v>
@@ -13663,7 +13663,7 @@
     </row>
     <row r="459" spans="2:34">
       <c r="B459" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C459" s="6">
         <v>35521</v>
@@ -13686,7 +13686,7 @@
     </row>
     <row r="460" spans="2:34">
       <c r="B460" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C460" s="6">
         <v>35506</v>
@@ -13709,7 +13709,7 @@
     </row>
     <row r="461" spans="2:34">
       <c r="B461" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C461" s="6">
         <v>35513</v>
@@ -13732,7 +13732,7 @@
     </row>
     <row r="462" spans="2:34">
       <c r="B462" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C462" s="6">
         <v>35478</v>
@@ -13755,7 +13755,7 @@
     </row>
     <row r="463" spans="2:34">
       <c r="B463" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C463" s="6">
         <v>35531</v>
@@ -13778,7 +13778,7 @@
     </row>
     <row r="464" spans="2:34">
       <c r="B464" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C464" s="6">
         <v>35473</v>
@@ -13801,7 +13801,7 @@
     </row>
     <row r="465" spans="2:34">
       <c r="B465" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C465" s="6">
         <v>35539</v>
@@ -13824,7 +13824,7 @@
     </row>
     <row r="466" spans="2:34">
       <c r="B466" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C466" s="6">
         <v>35545</v>
@@ -13847,7 +13847,7 @@
     </row>
     <row r="467" spans="2:34">
       <c r="B467" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C467" s="6">
         <v>35486</v>
@@ -13870,7 +13870,7 @@
     </row>
     <row r="468" spans="2:34">
       <c r="B468" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C468" s="6">
         <v>35487</v>
@@ -13905,7 +13905,7 @@
     </row>
     <row r="469" spans="2:34">
       <c r="B469" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C469" s="6">
         <v>35508</v>
@@ -13937,7 +13937,7 @@
     </row>
     <row r="470" spans="2:34">
       <c r="B470" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C470" s="6">
         <v>35509</v>
@@ -13966,7 +13966,7 @@
     </row>
     <row r="471" spans="2:34">
       <c r="B471" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C471" s="6">
         <v>35510</v>
@@ -13981,7 +13981,7 @@
     </row>
     <row r="472" spans="2:34">
       <c r="B472" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C472" s="6">
         <v>35515</v>
@@ -14007,7 +14007,7 @@
     </row>
     <row r="473" spans="2:34">
       <c r="B473" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C473" s="6">
         <v>35516</v>
@@ -14042,7 +14042,7 @@
     </row>
     <row r="474" spans="2:34">
       <c r="B474" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C474" s="6">
         <v>35526</v>
@@ -14068,7 +14068,7 @@
     </row>
     <row r="475" spans="2:34">
       <c r="B475" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C475" s="6">
         <v>35527</v>
@@ -14094,7 +14094,7 @@
     </row>
     <row r="476" spans="2:34">
       <c r="B476" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C476" s="6">
         <v>35528</v>
@@ -14121,7 +14121,7 @@
     </row>
     <row r="477" spans="2:34">
       <c r="B477" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C477" s="6">
         <v>35529</v>
@@ -14144,7 +14144,7 @@
     </row>
     <row r="478" spans="2:34">
       <c r="B478" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C478" s="6">
         <v>35533</v>
@@ -14167,7 +14167,7 @@
     </row>
     <row r="479" spans="2:34">
       <c r="B479" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C479" s="6">
         <v>35534</v>
@@ -14193,7 +14193,7 @@
     </row>
     <row r="480" spans="2:34">
       <c r="B480" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C480" s="6">
         <v>35535</v>
@@ -14222,7 +14222,7 @@
     </row>
     <row r="481" spans="2:34">
       <c r="B481" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C481" s="6">
         <v>35546</v>
@@ -14245,7 +14245,7 @@
     </row>
     <row r="482" spans="2:34">
       <c r="B482" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C482" s="6">
         <v>35547</v>
@@ -14271,7 +14271,7 @@
     </row>
     <row r="483" spans="2:34">
       <c r="B483" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C483" s="6">
         <v>35507</v>
@@ -14294,7 +14294,7 @@
     </row>
     <row r="484" spans="2:34">
       <c r="B484" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C484" s="6">
         <v>35501</v>
@@ -14317,7 +14317,7 @@
     </row>
     <row r="485" spans="2:34">
       <c r="B485" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C485" s="6">
         <v>35525</v>
@@ -14340,7 +14340,7 @@
     </row>
     <row r="486" spans="2:34">
       <c r="B486" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C486" s="6">
         <v>35521</v>
@@ -14363,7 +14363,7 @@
     </row>
     <row r="487" spans="2:34">
       <c r="B487" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C487" s="6">
         <v>35513</v>
@@ -14386,7 +14386,7 @@
     </row>
     <row r="488" spans="2:34">
       <c r="B488" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C488" s="6">
         <v>35480</v>
@@ -14409,7 +14409,7 @@
     </row>
     <row r="489" spans="2:34">
       <c r="B489" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C489" s="6">
         <v>35531</v>
@@ -14432,7 +14432,7 @@
     </row>
     <row r="490" spans="2:34">
       <c r="B490" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C490" s="6">
         <v>35539</v>
@@ -14458,7 +14458,7 @@
     </row>
     <row r="491" spans="2:34">
       <c r="B491" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C491" s="6">
         <v>35472</v>
@@ -14481,7 +14481,7 @@
     </row>
     <row r="492" spans="2:34">
       <c r="B492" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C492" s="6">
         <v>35462</v>
@@ -14516,7 +14516,7 @@
     </row>
     <row r="493" spans="2:34">
       <c r="B493" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C493" s="6">
         <v>35482</v>
@@ -14551,7 +14551,7 @@
     </row>
     <row r="494" spans="2:34">
       <c r="B494" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C494" s="6">
         <v>35486</v>
@@ -14577,7 +14577,7 @@
     </row>
     <row r="495" spans="2:34">
       <c r="B495" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C495" s="6">
         <v>35487</v>
@@ -14603,7 +14603,7 @@
     </row>
     <row r="496" spans="2:34">
       <c r="B496" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C496" s="6">
         <v>35492</v>
@@ -14638,7 +14638,7 @@
     </row>
     <row r="497" spans="2:34">
       <c r="B497" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C497" s="6">
         <v>35497</v>
@@ -14673,7 +14673,7 @@
     </row>
     <row r="498" spans="2:34">
       <c r="B498" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C498" s="6">
         <v>35504</v>
@@ -14708,7 +14708,7 @@
     </row>
     <row r="499" spans="2:34">
       <c r="B499" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C499" s="6">
         <v>35508</v>
@@ -14741,7 +14741,7 @@
     </row>
     <row r="500" spans="2:34">
       <c r="B500" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C500" s="6">
         <v>35509</v>
@@ -14764,7 +14764,7 @@
     </row>
     <row r="501" spans="2:34">
       <c r="B501" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C501" s="6">
         <v>35510</v>
@@ -14790,7 +14790,7 @@
     </row>
     <row r="502" spans="2:34">
       <c r="B502" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C502" s="6">
         <v>35512</v>
@@ -14825,7 +14825,7 @@
     </row>
     <row r="503" spans="2:34">
       <c r="B503" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C503" s="6">
         <v>35514</v>
@@ -14848,7 +14848,7 @@
     </row>
     <row r="504" spans="2:34">
       <c r="B504" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C504" s="6">
         <v>35515</v>
@@ -14874,7 +14874,7 @@
     </row>
     <row r="505" spans="2:34">
       <c r="B505" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C505" s="6">
         <v>35517</v>
@@ -14897,7 +14897,7 @@
     </row>
     <row r="506" spans="2:34">
       <c r="B506" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C506" s="6">
         <v>35519</v>
@@ -14932,7 +14932,7 @@
     </row>
     <row r="507" spans="2:34">
       <c r="B507" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C507" s="6">
         <v>35526</v>
@@ -14955,7 +14955,7 @@
     </row>
     <row r="508" spans="2:34">
       <c r="B508" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C508" s="6">
         <v>35527</v>
@@ -14993,7 +14993,7 @@
     </row>
     <row r="509" spans="2:34">
       <c r="B509" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C509" s="6">
         <v>35528</v>
@@ -15022,7 +15022,7 @@
     </row>
     <row r="510" spans="2:34">
       <c r="B510" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C510" s="6">
         <v>35534</v>
@@ -15058,7 +15058,7 @@
     </row>
     <row r="511" spans="2:34">
       <c r="B511" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C511" s="6">
         <v>35535</v>
@@ -15093,7 +15093,7 @@
     </row>
     <row r="512" spans="2:34">
       <c r="B512" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C512" s="6">
         <v>35540</v>
@@ -15120,7 +15120,7 @@
     </row>
     <row r="513" spans="2:33">
       <c r="B513" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C513" s="6">
         <v>35542</v>
@@ -15155,7 +15155,7 @@
     </row>
     <row r="514" spans="2:33">
       <c r="B514" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C514" s="6">
         <v>35508</v>
@@ -15199,7 +15199,7 @@
     </row>
     <row r="515" spans="2:33">
       <c r="B515" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C515" s="6">
         <v>35479</v>
@@ -15223,7 +15223,7 @@
     </row>
     <row r="516" spans="2:33">
       <c r="B516" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C516" s="6">
         <v>35523</v>
@@ -15246,7 +15246,7 @@
     </row>
     <row r="517" spans="2:33">
       <c r="B517" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C517" s="6">
         <v>35502</v>
@@ -15269,7 +15269,7 @@
     </row>
     <row r="518" spans="2:33">
       <c r="B518" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C518" s="6">
         <v>35515</v>
@@ -15299,7 +15299,7 @@
     </row>
     <row r="519" spans="2:33">
       <c r="B519" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C519" s="6">
         <v>35528</v>
@@ -15325,7 +15325,7 @@
     </row>
     <row r="520" spans="2:33">
       <c r="B520" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C520" s="6">
         <v>35473</v>
@@ -15349,7 +15349,7 @@
     </row>
     <row r="521" spans="2:33">
       <c r="B521" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C521" s="6">
         <v>35462</v>
@@ -15373,7 +15373,7 @@
     </row>
     <row r="522" spans="2:33">
       <c r="B522" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C522" s="6">
         <v>35482</v>
@@ -15400,7 +15400,7 @@
     </row>
     <row r="523" spans="2:33">
       <c r="B523" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C523" s="6">
         <v>35485</v>
@@ -15424,7 +15424,7 @@
     </row>
     <row r="524" spans="2:33">
       <c r="B524" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C524" s="6">
         <v>35486</v>
@@ -15451,7 +15451,7 @@
     </row>
     <row r="525" spans="2:33">
       <c r="B525" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C525" s="6">
         <v>35487</v>
@@ -15479,7 +15479,7 @@
     </row>
     <row r="526" spans="2:33">
       <c r="B526" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C526" s="6">
         <v>35492</v>
@@ -15502,7 +15502,7 @@
     </row>
     <row r="527" spans="2:33">
       <c r="B527" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C527" s="6">
         <v>35497</v>
@@ -15525,7 +15525,7 @@
     </row>
     <row r="528" spans="2:33">
       <c r="B528" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C528" s="6">
         <v>35504</v>
@@ -15551,7 +15551,7 @@
     </row>
     <row r="529" spans="2:33">
       <c r="B529" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C529" s="6">
         <v>35509</v>
@@ -15580,7 +15580,7 @@
     </row>
     <row r="530" spans="2:33">
       <c r="B530" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C530" s="6">
         <v>35510</v>
@@ -15606,7 +15606,7 @@
     </row>
     <row r="531" spans="2:33">
       <c r="B531" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C531" s="6">
         <v>35512</v>
@@ -15629,7 +15629,7 @@
     </row>
     <row r="532" spans="2:33">
       <c r="B532" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C532" s="6">
         <v>35516</v>
@@ -15658,7 +15658,7 @@
     </row>
     <row r="533" spans="2:33">
       <c r="B533" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C533" s="6">
         <v>35517</v>
@@ -15681,7 +15681,7 @@
     </row>
     <row r="534" spans="2:33">
       <c r="B534" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C534" s="6">
         <v>35519</v>
@@ -15704,7 +15704,7 @@
     </row>
     <row r="535" spans="2:33">
       <c r="B535" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C535" s="6">
         <v>35527</v>
@@ -15745,7 +15745,7 @@
     </row>
     <row r="536" spans="2:33">
       <c r="B536" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C536" s="6">
         <v>35534</v>

--- a/Prototypes/Mungbean/Exp1_2observed.xlsx
+++ b/Prototypes/Mungbean/Exp1_2observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5213AB0A-35B8-4B56-B238-C3B199A450A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2F93F6-3823-49BD-A533-A1EBE712C017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC5736B7-331A-44E7-9B2A-DE6BDB9CC19C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC5736B7-331A-44E7-9B2A-DE6BDB9CC19C}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -96,12 +96,6 @@
   </si>
   <si>
     <t>Soybean.grain.live.N</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.FloweringDAS</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.PodDAS</t>
   </si>
   <si>
     <t>Soybean.Phenology.MaturityDAS</t>
@@ -195,6 +189,12 @@
   </si>
   <si>
     <t>exp2WaterTermStressCultivarEmerald</t>
+  </si>
+  <si>
+    <t>Soybean.Phenology.StartFloweringDAS</t>
+  </si>
+  <si>
+    <t>Soybean.Phenology.StartPodDevDAS</t>
   </si>
 </sst>
 </file>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C69D9A-1FFA-4799-BC03-A6694D3363DD}">
   <dimension ref="A1:AH574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="D531" sqref="D531"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -610,13 +610,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -646,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q1" t="s">
         <v>12</v>
@@ -676,36 +676,36 @@
         <v>20</v>
       </c>
       <c r="Z1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:34">
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6">
         <v>35487</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="3" spans="1:34">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="6">
         <v>35508</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="4" spans="1:34">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6">
         <v>35516</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="5" spans="1:34">
       <c r="B5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="6">
         <v>35487</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="6" spans="1:34">
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="6">
         <v>35500</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="7" spans="1:34">
       <c r="B7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="6">
         <v>35509</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="8" spans="1:34">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="6">
         <v>35506</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="9" spans="1:34">
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="6">
         <v>35486</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="10" spans="1:34">
       <c r="B10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="6">
         <v>35505</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="11" spans="1:34">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="6">
         <v>35509</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="12" spans="1:34">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="6">
         <v>35528</v>
@@ -1070,7 +1070,7 @@
         <v>390</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G12" s="7">
         <v>90.695997595899001</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="13" spans="1:34">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="6">
         <v>35487</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="14" spans="1:34">
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="6">
         <v>35487</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="15" spans="1:34">
       <c r="B15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="6">
         <v>35500</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="16" spans="1:34">
       <c r="B16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="6">
         <v>35520</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="17" spans="2:33">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="6">
         <v>35527</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="18" spans="2:33">
       <c r="B18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="6">
         <v>35500</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="19" spans="2:33">
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="6">
         <v>35500</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="20" spans="2:33">
       <c r="B20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="6">
         <v>35506</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="21" spans="2:33">
       <c r="B21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="6">
         <v>35534</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="22" spans="2:33">
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" s="6">
         <v>35509</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="23" spans="2:33">
       <c r="B23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="6">
         <v>35506</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="24" spans="2:33">
       <c r="B24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="6">
         <v>35548</v>
@@ -1492,7 +1492,7 @@
         <v>2260</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G24" s="7">
         <v>110.518899834865</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="25" spans="2:33">
       <c r="B25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="6">
         <v>35541</v>
@@ -1555,7 +1555,7 @@
         <v>1990</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G25" s="7">
         <v>103.509256849159</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="26" spans="2:33">
       <c r="B26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" s="6">
         <v>35547</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="27" spans="2:33">
       <c r="B27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" s="6">
         <v>35509</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="28" spans="2:33">
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="6">
         <v>35534</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="29" spans="2:33">
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="6">
         <v>35509</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="30" spans="2:33">
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" s="6">
         <v>35508</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="31" spans="2:33">
       <c r="B31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" s="6">
         <v>35418</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="32" spans="2:33">
       <c r="B32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" s="6">
         <v>35424</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="33" spans="1:28">
       <c r="B33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="6">
         <v>35424</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="34" spans="1:28">
       <c r="B34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" s="6">
         <v>35424</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="35" spans="1:28">
       <c r="B35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35" s="6">
         <v>35418</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C36" s="6">
         <v>35418</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="37" spans="1:28">
       <c r="B37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C37" s="6">
         <v>35482</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="38" spans="1:28">
       <c r="B38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" s="6">
         <v>35482</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="39" spans="1:28">
       <c r="B39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C39" s="6">
         <v>35462</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="40" spans="1:28">
       <c r="B40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C40" s="6">
         <v>35462</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="41" spans="1:28">
       <c r="B41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C41" s="6">
         <v>35462</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="42" spans="1:28">
       <c r="B42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C42" s="6">
         <v>35429</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="43" spans="1:28">
       <c r="B43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" s="6">
         <v>35429</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="44" spans="1:28">
       <c r="B44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C44" s="6">
         <v>35429</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="45" spans="1:28">
       <c r="B45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C45" s="6">
         <v>35482</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="46" spans="1:28">
       <c r="B46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" s="6">
         <v>35482</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="47" spans="1:28">
       <c r="B47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C47" s="6">
         <v>35497</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="48" spans="1:28">
       <c r="B48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="6">
         <v>35497</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="49" spans="2:33">
       <c r="B49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C49" s="6">
         <v>35482</v>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="50" spans="2:33">
       <c r="B50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C50" s="6">
         <v>35442</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="51" spans="2:33">
       <c r="B51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51" s="6">
         <v>35515</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="52" spans="2:33">
       <c r="B52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C52" s="6">
         <v>35502</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="53" spans="2:33">
       <c r="B53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C53" s="6">
         <v>35515</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="54" spans="2:33">
       <c r="B54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C54" s="6">
         <v>35522</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="55" spans="2:33">
       <c r="B55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C55" s="6">
         <v>35522</v>
@@ -2684,7 +2684,7 @@
         <v>1490</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G55">
         <v>125</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="56" spans="2:33">
       <c r="B56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C56" s="6">
         <v>35502</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="57" spans="2:33">
       <c r="B57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C57" s="6">
         <v>35460</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="58" spans="2:33">
       <c r="B58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C58" s="6">
         <v>35502</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="59" spans="2:33">
       <c r="B59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C59" s="6">
         <v>35442</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="60" spans="2:33">
       <c r="B60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C60" s="6">
         <v>35442</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="61" spans="2:33">
       <c r="B61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C61" s="6">
         <v>35477</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="62" spans="2:33">
       <c r="B62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C62" s="6">
         <v>35515</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="63" spans="2:33">
       <c r="B63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C63" s="6">
         <v>35519</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="64" spans="2:33">
       <c r="B64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C64" s="6">
         <v>35477</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="65" spans="2:28">
       <c r="B65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C65" s="6">
         <v>35477</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="66" spans="2:28">
       <c r="B66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C66" s="6">
         <v>35449</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="67" spans="2:28">
       <c r="B67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C67" s="6">
         <v>35492</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="68" spans="2:28">
       <c r="B68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C68" s="6">
         <v>35492</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="69" spans="2:28">
       <c r="B69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C69" s="6">
         <v>35492</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="70" spans="2:28">
       <c r="B70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C70" s="6">
         <v>35497</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="71" spans="2:28">
       <c r="B71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C71" s="6">
         <v>35512</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="72" spans="2:28">
       <c r="B72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C72" s="6">
         <v>35497</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="73" spans="2:28">
       <c r="B73" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C73" s="6">
         <v>35497</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="74" spans="2:28">
       <c r="B74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C74" s="6">
         <v>35504</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="75" spans="2:28">
       <c r="B75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C75" s="6">
         <v>35519</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="76" spans="2:28">
       <c r="B76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C76" s="6">
         <v>35527</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="77" spans="2:28">
       <c r="B77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C77" s="6">
         <v>35535</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="78" spans="2:28">
       <c r="B78" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C78" s="6">
         <v>35460</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="79" spans="2:28">
       <c r="B79" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C79" s="6">
         <v>35460</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="80" spans="2:28">
       <c r="B80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C80" s="6">
         <v>35527</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="81" spans="2:33">
       <c r="B81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C81" s="6">
         <v>35449</v>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="82" spans="2:33">
       <c r="B82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C82" s="6">
         <v>35449</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="83" spans="2:33">
       <c r="B83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C83" s="6">
         <v>35454</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="84" spans="2:33">
       <c r="B84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C84" s="6">
         <v>35504</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="85" spans="2:33">
       <c r="B85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C85" s="6">
         <v>35512</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="86" spans="2:33">
       <c r="B86" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C86" s="6">
         <v>35519</v>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="87" spans="2:33">
       <c r="B87" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C87" s="6">
         <v>35535</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="88" spans="2:33">
       <c r="B88" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C88" s="6">
         <v>35535</v>
@@ -3900,7 +3900,7 @@
         <v>1260</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G88" s="7">
         <v>97.586412089739895</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="89" spans="2:33">
       <c r="B89" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C89" s="6">
         <v>35504</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="90" spans="2:33">
       <c r="B90" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C90" s="6">
         <v>35512</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="91" spans="2:33">
       <c r="B91" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C91" s="6">
         <v>35519</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="92" spans="2:33">
       <c r="B92" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C92" s="6">
         <v>35527</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="93" spans="2:33">
       <c r="B93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C93" s="6">
         <v>35542</v>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="94" spans="2:33">
       <c r="B94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C94" s="6">
         <v>35454</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="95" spans="2:33">
       <c r="B95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C95" s="6">
         <v>35454</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="96" spans="2:33">
       <c r="B96" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C96" s="6">
         <v>35482</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="97" spans="2:34">
       <c r="B97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C97" s="6">
         <v>35497</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="98" spans="2:34">
       <c r="B98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C98" s="6">
         <v>35482</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="99" spans="2:34">
       <c r="B99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C99" s="6">
         <v>35497</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="100" spans="2:34">
       <c r="B100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C100" s="6">
         <v>35482</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="101" spans="2:34">
       <c r="B101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C101" s="6">
         <v>35509</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="102" spans="2:34">
       <c r="B102" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C102" s="6">
         <v>35507</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="103" spans="2:34">
       <c r="B103" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C103" s="6">
         <v>35462</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="104" spans="2:34">
       <c r="B104" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C104" s="6">
         <v>35454</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="105" spans="2:34">
       <c r="B105" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C105" s="6">
         <v>35487</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="106" spans="2:34">
       <c r="B106" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C106" s="6">
         <v>35505</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="107" spans="2:34">
       <c r="B107" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C107" s="6">
         <v>35440</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="108" spans="2:34">
       <c r="B108" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C108" s="6">
         <v>35452</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="109" spans="2:34">
       <c r="B109" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C109" s="6">
         <v>35529</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="110" spans="2:34">
       <c r="B110" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C110" s="6">
         <v>35458</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="111" spans="2:34">
       <c r="B111" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C111" s="6">
         <v>35514</v>
@@ -4658,7 +4658,7 @@
         <v>3330</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G111" s="7">
         <v>117.37411881234</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="112" spans="2:34">
       <c r="B112" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C112" s="6">
         <v>35505</v>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="113" spans="2:34">
       <c r="B113" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C113" s="6">
         <v>35452</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="114" spans="2:34">
       <c r="B114" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C114" s="6">
         <v>35454</v>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="115" spans="2:34">
       <c r="B115" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C115" s="6">
         <v>35458</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="116" spans="2:34">
       <c r="B116" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C116" s="6">
         <v>35440</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="117" spans="2:34">
       <c r="B117" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C117" s="6">
         <v>35514</v>
@@ -4845,7 +4845,7 @@
         <v>3270</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G117" s="7">
         <v>116.883933633271</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="118" spans="2:34">
       <c r="B118" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C118" s="6">
         <v>35472</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="119" spans="2:34">
       <c r="B119" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C119" s="6">
         <v>35467</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="120" spans="2:34">
       <c r="B120" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C120" s="6">
         <v>35467</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="121" spans="2:34">
       <c r="B121" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C121" s="6">
         <v>35440</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="122" spans="2:34">
       <c r="B122" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C122" s="6">
         <v>35458</v>
@@ -5022,7 +5022,7 @@
     </row>
     <row r="123" spans="2:34">
       <c r="B123" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C123" s="6">
         <v>35482</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="124" spans="2:34">
       <c r="B124" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C124" s="6">
         <v>35515</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="125" spans="2:34">
       <c r="B125" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C125" s="6">
         <v>35482</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="126" spans="2:34">
       <c r="B126" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C126" s="6">
         <v>35476</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="127" spans="2:34">
       <c r="B127" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C127" s="6">
         <v>35462</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="128" spans="2:34">
       <c r="B128" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C128" s="6">
         <v>35442</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="129" spans="2:31">
       <c r="B129" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C129" s="6">
         <v>35460</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="130" spans="2:31">
       <c r="B130" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C130" s="6">
         <v>35472</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="131" spans="2:31">
       <c r="B131" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C131" s="6">
         <v>35477</v>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="132" spans="2:31">
       <c r="B132" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C132" s="6">
         <v>35467</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="133" spans="2:31">
       <c r="B133" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C133" s="6">
         <v>35535</v>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="134" spans="2:31">
       <c r="B134" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C134" s="6">
         <v>35467</v>
@@ -5358,7 +5358,7 @@
     </row>
     <row r="135" spans="2:31">
       <c r="B135" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C135" s="6">
         <v>35467</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="136" spans="2:31">
       <c r="B136" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C136" s="6">
         <v>35442</v>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="137" spans="2:31">
       <c r="B137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C137" s="6">
         <v>35458</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="138" spans="2:31">
       <c r="B138" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C138" s="6">
         <v>35467</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="139" spans="2:31">
       <c r="B139" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C139" s="6">
         <v>35442</v>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="140" spans="2:31">
       <c r="B140" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C140" s="6">
         <v>35482</v>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="141" spans="2:31">
       <c r="B141" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C141" s="6">
         <v>35482</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="142" spans="2:31">
       <c r="B142" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C142" s="6">
         <v>35482</v>
@@ -5579,7 +5579,7 @@
     </row>
     <row r="143" spans="2:31">
       <c r="B143" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C143" s="6">
         <v>35476</v>
@@ -5602,7 +5602,7 @@
     </row>
     <row r="144" spans="2:31">
       <c r="B144" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C144" s="6">
         <v>35472</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="145" spans="2:30">
       <c r="B145" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C145" s="6">
         <v>35460</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="146" spans="2:30">
       <c r="B146" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C146" s="6">
         <v>35458</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="147" spans="2:30">
       <c r="B147" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C147" s="6">
         <v>35476</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="148" spans="2:30">
       <c r="B148" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C148" s="6">
         <v>35472</v>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="149" spans="2:30">
       <c r="B149" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C149" s="6">
         <v>35472</v>
@@ -5758,7 +5758,7 @@
     </row>
     <row r="150" spans="2:30">
       <c r="B150" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C150" s="6">
         <v>35458</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="151" spans="2:30">
       <c r="B151" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C151" s="6">
         <v>35472</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="152" spans="2:30">
       <c r="B152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C152" s="6">
         <v>35477</v>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="153" spans="2:30">
       <c r="B153" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C153" s="6">
         <v>35482</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="154" spans="2:30">
       <c r="B154" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C154" s="6">
         <v>35504</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="155" spans="2:30">
       <c r="B155" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C155" s="6">
         <v>35517</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="156" spans="2:30">
       <c r="B156" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C156" s="6">
         <v>35476</v>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="157" spans="2:30">
       <c r="B157" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C157" s="6">
         <v>35482</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="158" spans="2:30">
       <c r="B158" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C158" s="6">
         <v>35497</v>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="159" spans="2:30">
       <c r="B159" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C159" s="6">
         <v>35527</v>
@@ -6045,7 +6045,7 @@
     </row>
     <row r="160" spans="2:30">
       <c r="B160" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C160" s="6">
         <v>35497</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="161" spans="2:33">
       <c r="B161" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C161" s="6">
         <v>35418</v>
@@ -6100,7 +6100,7 @@
     </row>
     <row r="162" spans="2:33">
       <c r="B162" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C162" s="6">
         <v>35418</v>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="163" spans="2:33">
       <c r="B163" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C163" s="6">
         <v>35418</v>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="164" spans="2:33">
       <c r="B164" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C164" s="6">
         <v>35418</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="165" spans="2:33">
       <c r="B165" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C165" s="6">
         <v>35528</v>
@@ -6188,7 +6188,7 @@
         <v>4400</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G165">
         <v>131</v>
@@ -6226,7 +6226,7 @@
     </row>
     <row r="166" spans="2:33">
       <c r="B166" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C166" s="6">
         <v>35418</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="167" spans="2:33">
       <c r="B167" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C167" s="6">
         <v>35418</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="168" spans="2:33">
       <c r="B168" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C168" s="6">
         <v>35515</v>
@@ -6301,7 +6301,7 @@
     </row>
     <row r="169" spans="2:33">
       <c r="B169" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C169" s="6">
         <v>35504</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="170" spans="2:33">
       <c r="B170" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C170" s="6">
         <v>35521</v>
@@ -6340,7 +6340,7 @@
         <v>2930</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G170">
         <v>124</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="171" spans="2:33">
       <c r="B171" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C171" s="6">
         <v>35504</v>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="172" spans="2:33">
       <c r="B172" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C172" s="6">
         <v>35548</v>
@@ -6429,7 +6429,7 @@
         <v>4460</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G172">
         <v>111</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="173" spans="2:33">
       <c r="B173" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C173" s="6">
         <v>35512</v>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="174" spans="2:33">
       <c r="B174" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C174" s="6">
         <v>35512</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="175" spans="2:33">
       <c r="B175" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C175" s="6">
         <v>35497</v>
@@ -6538,7 +6538,7 @@
         <v>2220</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G175">
         <v>100</v>
@@ -6576,7 +6576,7 @@
     </row>
     <row r="176" spans="2:33">
       <c r="B176" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C176" s="6">
         <v>35497</v>
@@ -6589,7 +6589,7 @@
         <v>1830</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G176" s="7">
         <v>99.745549142345993</v>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="177" spans="2:33">
       <c r="B177" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C177" s="6">
         <v>35492</v>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="178" spans="2:33">
       <c r="B178" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C178" s="6">
         <v>35519</v>
@@ -6688,7 +6688,7 @@
     </row>
     <row r="179" spans="2:33">
       <c r="B179" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C179" s="6">
         <v>35519</v>
@@ -6714,7 +6714,7 @@
     </row>
     <row r="180" spans="2:33">
       <c r="B180" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C180" s="6">
         <v>35519</v>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="181" spans="2:33">
       <c r="B181" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C181" s="6">
         <v>35527</v>
@@ -6775,7 +6775,7 @@
     </row>
     <row r="182" spans="2:33">
       <c r="B182" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C182" s="6">
         <v>35535</v>
@@ -6788,7 +6788,7 @@
         <v>450</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G182" s="7">
         <v>97.5183097511417</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="183" spans="2:33">
       <c r="B183" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C183" s="6">
         <v>35501</v>
@@ -6858,7 +6858,7 @@
     </row>
     <row r="184" spans="2:33">
       <c r="B184" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C184" s="6">
         <v>35507</v>
@@ -6881,7 +6881,7 @@
     </row>
     <row r="185" spans="2:33">
       <c r="B185" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C185" s="6">
         <v>35500</v>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="186" spans="2:33">
       <c r="B186" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C186" s="6">
         <v>35478</v>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="187" spans="2:33">
       <c r="B187" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C187" s="6">
         <v>35478</v>
@@ -6950,7 +6950,7 @@
     </row>
     <row r="188" spans="2:33">
       <c r="B188" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C188" s="6">
         <v>35521</v>
@@ -6973,7 +6973,7 @@
     </row>
     <row r="189" spans="2:33">
       <c r="B189" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C189" s="6">
         <v>35524</v>
@@ -6996,7 +6996,7 @@
     </row>
     <row r="190" spans="2:33">
       <c r="B190" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C190" s="6">
         <v>35506</v>
@@ -7019,7 +7019,7 @@
     </row>
     <row r="191" spans="2:33">
       <c r="B191" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C191" s="6">
         <v>35513</v>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="192" spans="2:33">
       <c r="B192" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C192" s="6">
         <v>35478</v>
@@ -7065,7 +7065,7 @@
     </row>
     <row r="193" spans="2:28">
       <c r="B193" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C193" s="6">
         <v>35477</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="194" spans="2:28">
       <c r="B194" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C194" s="6">
         <v>35507</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="195" spans="2:28">
       <c r="B195" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C195" s="6">
         <v>35521</v>
@@ -7137,7 +7137,7 @@
     </row>
     <row r="196" spans="2:28">
       <c r="B196" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C196" s="6">
         <v>35505</v>
@@ -7160,7 +7160,7 @@
     </row>
     <row r="197" spans="2:28">
       <c r="B197" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C197" s="6">
         <v>35478</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="198" spans="2:28">
       <c r="B198" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C198" s="6">
         <v>35479</v>
@@ -7206,7 +7206,7 @@
     </row>
     <row r="199" spans="2:28">
       <c r="B199" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C199" s="6">
         <v>35501</v>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="200" spans="2:28">
       <c r="B200" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C200" s="6">
         <v>35456</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="201" spans="2:28">
       <c r="B201" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C201" s="6">
         <v>35479</v>
@@ -7275,7 +7275,7 @@
     </row>
     <row r="202" spans="2:28">
       <c r="B202" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C202" s="6">
         <v>35457</v>
@@ -7298,7 +7298,7 @@
     </row>
     <row r="203" spans="2:28">
       <c r="B203" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C203" s="6">
         <v>35498</v>
@@ -7321,7 +7321,7 @@
     </row>
     <row r="204" spans="2:28">
       <c r="B204" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C204" s="6">
         <v>35471</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="205" spans="2:28">
       <c r="B205" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C205" s="6">
         <v>35498</v>
@@ -7367,7 +7367,7 @@
     </row>
     <row r="206" spans="2:28">
       <c r="B206" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C206" s="6">
         <v>35525</v>
@@ -7390,7 +7390,7 @@
     </row>
     <row r="207" spans="2:28">
       <c r="B207" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C207" s="6">
         <v>35521</v>
@@ -7413,7 +7413,7 @@
     </row>
     <row r="208" spans="2:28">
       <c r="B208" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C208" s="6">
         <v>35513</v>
@@ -7436,7 +7436,7 @@
     </row>
     <row r="209" spans="2:28">
       <c r="B209" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C209" s="6">
         <v>35507</v>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="210" spans="2:28">
       <c r="B210" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C210" s="6">
         <v>35500</v>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="211" spans="2:28">
       <c r="B211" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C211" s="6">
         <v>35513</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="212" spans="2:28">
       <c r="B212" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C212" s="6">
         <v>35446</v>
@@ -7528,7 +7528,7 @@
     </row>
     <row r="213" spans="2:28">
       <c r="B213" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C213" s="6">
         <v>35453</v>
@@ -7551,7 +7551,7 @@
     </row>
     <row r="214" spans="2:28">
       <c r="B214" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C214" s="6">
         <v>35438</v>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="215" spans="2:28">
       <c r="B215" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C215" s="6">
         <v>35433</v>
@@ -7597,7 +7597,7 @@
     </row>
     <row r="216" spans="2:28">
       <c r="B216" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C216" s="6">
         <v>35472</v>
@@ -7620,7 +7620,7 @@
     </row>
     <row r="217" spans="2:28">
       <c r="B217" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C217" s="6">
         <v>35505</v>
@@ -7643,7 +7643,7 @@
     </row>
     <row r="218" spans="2:28">
       <c r="B218" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C218" s="6">
         <v>35525</v>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="219" spans="2:28">
       <c r="B219" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C219" s="6">
         <v>35478</v>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="220" spans="2:28">
       <c r="B220" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C220" s="6">
         <v>35478</v>
@@ -7712,7 +7712,7 @@
     </row>
     <row r="221" spans="2:28">
       <c r="B221" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C221" s="6">
         <v>35501</v>
@@ -7735,7 +7735,7 @@
     </row>
     <row r="222" spans="2:28">
       <c r="B222" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C222" s="6">
         <v>35522</v>
@@ -7758,7 +7758,7 @@
     </row>
     <row r="223" spans="2:28">
       <c r="B223" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C223" s="6">
         <v>35531</v>
@@ -7781,7 +7781,7 @@
     </row>
     <row r="224" spans="2:28">
       <c r="B224" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C224" s="6">
         <v>35531</v>
@@ -7804,7 +7804,7 @@
     </row>
     <row r="225" spans="2:30">
       <c r="B225" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C225" s="6">
         <v>35506</v>
@@ -7830,7 +7830,7 @@
     </row>
     <row r="226" spans="2:30">
       <c r="B226" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C226" s="6">
         <v>35480</v>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="227" spans="2:30">
       <c r="B227" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C227" s="6">
         <v>35445</v>
@@ -7876,7 +7876,7 @@
     </row>
     <row r="228" spans="2:30">
       <c r="B228" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C228" s="6">
         <v>35438</v>
@@ -7899,7 +7899,7 @@
     </row>
     <row r="229" spans="2:30">
       <c r="B229" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C229" s="6">
         <v>35433</v>
@@ -7922,7 +7922,7 @@
     </row>
     <row r="230" spans="2:30">
       <c r="B230" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C230" s="6">
         <v>35445</v>
@@ -7945,7 +7945,7 @@
     </row>
     <row r="231" spans="2:30">
       <c r="B231" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C231" s="6">
         <v>35433</v>
@@ -7968,7 +7968,7 @@
     </row>
     <row r="232" spans="2:30">
       <c r="B232" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C232" s="6">
         <v>35511</v>
@@ -7991,7 +7991,7 @@
     </row>
     <row r="233" spans="2:30">
       <c r="B233" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C233" s="6">
         <v>35531</v>
@@ -8014,7 +8014,7 @@
     </row>
     <row r="234" spans="2:30">
       <c r="B234" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C234" s="6">
         <v>35471</v>
@@ -8040,7 +8040,7 @@
     </row>
     <row r="235" spans="2:30">
       <c r="B235" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C235" s="6">
         <v>35457</v>
@@ -8066,7 +8066,7 @@
     </row>
     <row r="236" spans="2:30">
       <c r="B236" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C236" s="6">
         <v>35472</v>
@@ -8089,7 +8089,7 @@
     </row>
     <row r="237" spans="2:30">
       <c r="B237" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C237" s="6">
         <v>35501</v>
@@ -8115,7 +8115,7 @@
     </row>
     <row r="238" spans="2:30">
       <c r="B238" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C238" s="6">
         <v>35522</v>
@@ -8138,7 +8138,7 @@
     </row>
     <row r="239" spans="2:30">
       <c r="B239" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C239" s="6">
         <v>35514</v>
@@ -8161,7 +8161,7 @@
     </row>
     <row r="240" spans="2:30">
       <c r="B240" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C240" s="6">
         <v>35453</v>
@@ -8184,7 +8184,7 @@
     </row>
     <row r="241" spans="2:30">
       <c r="B241" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C241" s="6">
         <v>35531</v>
@@ -8207,7 +8207,7 @@
     </row>
     <row r="242" spans="2:30">
       <c r="B242" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C242" s="6">
         <v>35471</v>
@@ -8230,7 +8230,7 @@
     </row>
     <row r="243" spans="2:30">
       <c r="B243" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C243" s="6">
         <v>35457</v>
@@ -8256,7 +8256,7 @@
     </row>
     <row r="244" spans="2:30">
       <c r="B244" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C244" s="6">
         <v>35457</v>
@@ -8279,7 +8279,7 @@
     </row>
     <row r="245" spans="2:30">
       <c r="B245" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C245" s="6">
         <v>35433</v>
@@ -8302,7 +8302,7 @@
     </row>
     <row r="246" spans="2:30">
       <c r="B246" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C246" s="6">
         <v>35538</v>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="247" spans="2:30">
       <c r="B247" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C247" s="6">
         <v>35457</v>
@@ -8354,7 +8354,7 @@
     </row>
     <row r="248" spans="2:30">
       <c r="B248" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C248" s="6">
         <v>35438</v>
@@ -8377,7 +8377,7 @@
     </row>
     <row r="249" spans="2:30">
       <c r="B249" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C249" s="6">
         <v>35473</v>
@@ -8400,7 +8400,7 @@
     </row>
     <row r="250" spans="2:30">
       <c r="B250" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C250" s="6">
         <v>35507</v>
@@ -8423,7 +8423,7 @@
     </row>
     <row r="251" spans="2:30">
       <c r="B251" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C251" s="6">
         <v>35439</v>
@@ -8446,7 +8446,7 @@
     </row>
     <row r="252" spans="2:30">
       <c r="B252" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C252" s="6">
         <v>35470</v>
@@ -8472,7 +8472,7 @@
     </row>
     <row r="253" spans="2:30">
       <c r="B253" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C253" s="6">
         <v>35500</v>
@@ -8495,7 +8495,7 @@
     </row>
     <row r="254" spans="2:30">
       <c r="B254" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C254" s="6">
         <v>35478</v>
@@ -8518,7 +8518,7 @@
     </row>
     <row r="255" spans="2:30">
       <c r="B255" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C255" s="6">
         <v>35472</v>
@@ -8541,7 +8541,7 @@
     </row>
     <row r="256" spans="2:30">
       <c r="B256" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C256" s="6">
         <v>35433</v>
@@ -8564,7 +8564,7 @@
     </row>
     <row r="257" spans="2:30">
       <c r="B257" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C257" s="6">
         <v>35539</v>
@@ -8587,7 +8587,7 @@
     </row>
     <row r="258" spans="2:30">
       <c r="B258" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C258" s="6">
         <v>35457</v>
@@ -8616,7 +8616,7 @@
     </row>
     <row r="259" spans="2:30">
       <c r="B259" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C259" s="6">
         <v>35433</v>
@@ -8639,7 +8639,7 @@
     </row>
     <row r="260" spans="2:30">
       <c r="B260" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C260" s="6">
         <v>35507</v>
@@ -8662,7 +8662,7 @@
     </row>
     <row r="261" spans="2:30">
       <c r="B261" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C261" s="6">
         <v>35545</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="262" spans="2:30">
       <c r="B262" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C262" s="6">
         <v>35478</v>
@@ -8708,7 +8708,7 @@
     </row>
     <row r="263" spans="2:30">
       <c r="B263" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C263" s="6">
         <v>35433</v>
@@ -8731,7 +8731,7 @@
     </row>
     <row r="264" spans="2:30">
       <c r="B264" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C264" s="6">
         <v>35513</v>
@@ -8754,7 +8754,7 @@
     </row>
     <row r="265" spans="2:30">
       <c r="B265" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C265" s="6">
         <v>35453</v>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="266" spans="2:30">
       <c r="B266" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C266" s="6">
         <v>35438</v>
@@ -8800,7 +8800,7 @@
     </row>
     <row r="267" spans="2:30">
       <c r="B267" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C267" s="6">
         <v>35545</v>
@@ -8823,7 +8823,7 @@
     </row>
     <row r="268" spans="2:30">
       <c r="B268" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C268" s="6">
         <v>35513</v>
@@ -8846,7 +8846,7 @@
     </row>
     <row r="269" spans="2:30">
       <c r="B269" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C269" s="6">
         <v>35473</v>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="270" spans="2:30">
       <c r="B270" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C270" s="6">
         <v>35471</v>
@@ -8904,7 +8904,7 @@
     </row>
     <row r="271" spans="2:30">
       <c r="B271" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C271" s="6">
         <v>35507</v>
@@ -8927,7 +8927,7 @@
     </row>
     <row r="272" spans="2:30">
       <c r="B272" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C272" s="6">
         <v>35446</v>
@@ -8950,7 +8950,7 @@
     </row>
     <row r="273" spans="2:28">
       <c r="B273" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C273" s="6">
         <v>35472</v>
@@ -8973,7 +8973,7 @@
     </row>
     <row r="274" spans="2:28">
       <c r="B274" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C274" s="6">
         <v>35478</v>
@@ -8996,7 +8996,7 @@
     </row>
     <row r="275" spans="2:28">
       <c r="B275" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C275" s="6">
         <v>35457</v>
@@ -9019,7 +9019,7 @@
     </row>
     <row r="276" spans="2:28">
       <c r="B276" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C276" s="6">
         <v>35539</v>
@@ -9045,7 +9045,7 @@
     </row>
     <row r="277" spans="2:28">
       <c r="B277" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C277" s="6">
         <v>35433</v>
@@ -9068,7 +9068,7 @@
     </row>
     <row r="278" spans="2:28">
       <c r="B278" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C278" s="6">
         <v>35447</v>
@@ -9091,7 +9091,7 @@
     </row>
     <row r="279" spans="2:28">
       <c r="B279" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C279" s="6">
         <v>35479</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="280" spans="2:28">
       <c r="B280" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C280" s="6">
         <v>35515</v>
@@ -9137,7 +9137,7 @@
     </row>
     <row r="281" spans="2:28">
       <c r="B281" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C281" s="6">
         <v>35539</v>
@@ -9160,7 +9160,7 @@
     </row>
     <row r="282" spans="2:28">
       <c r="B282" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C282" s="6">
         <v>35501</v>
@@ -9183,7 +9183,7 @@
     </row>
     <row r="283" spans="2:28">
       <c r="B283" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C283" s="6">
         <v>35439</v>
@@ -9206,7 +9206,7 @@
     </row>
     <row r="284" spans="2:28">
       <c r="B284" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C284" s="6">
         <v>35501</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="285" spans="2:28">
       <c r="B285" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C285" s="6">
         <v>35423</v>
@@ -9252,7 +9252,7 @@
     </row>
     <row r="286" spans="2:28">
       <c r="B286" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C286" s="6">
         <v>35446</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="287" spans="2:28">
       <c r="B287" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C287" s="6">
         <v>35514</v>
@@ -9298,7 +9298,7 @@
     </row>
     <row r="288" spans="2:28">
       <c r="B288" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C288" s="6">
         <v>35433</v>
@@ -9321,7 +9321,7 @@
     </row>
     <row r="289" spans="2:28">
       <c r="B289" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C289" s="6">
         <v>35446</v>
@@ -9344,7 +9344,7 @@
     </row>
     <row r="290" spans="2:28">
       <c r="B290" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C290" s="6">
         <v>35439</v>
@@ -9367,7 +9367,7 @@
     </row>
     <row r="291" spans="2:28">
       <c r="B291" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C291" s="6">
         <v>35472</v>
@@ -9390,7 +9390,7 @@
     </row>
     <row r="292" spans="2:28">
       <c r="B292" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C292" s="6">
         <v>35506</v>
@@ -9413,7 +9413,7 @@
     </row>
     <row r="293" spans="2:28">
       <c r="B293" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C293" s="6">
         <v>35446</v>
@@ -9436,7 +9436,7 @@
     </row>
     <row r="294" spans="2:28">
       <c r="B294" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C294" s="6">
         <v>35424</v>
@@ -9462,7 +9462,7 @@
     </row>
     <row r="295" spans="2:28">
       <c r="B295" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C295" s="6">
         <v>35523</v>
@@ -9485,7 +9485,7 @@
     </row>
     <row r="296" spans="2:28">
       <c r="B296" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C296" s="6">
         <v>35480</v>
@@ -9508,7 +9508,7 @@
     </row>
     <row r="297" spans="2:28">
       <c r="B297" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C297" s="6">
         <v>35423</v>
@@ -9531,7 +9531,7 @@
     </row>
     <row r="298" spans="2:28">
       <c r="B298" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C298" s="6">
         <v>35439</v>
@@ -9557,7 +9557,7 @@
     </row>
     <row r="299" spans="2:28">
       <c r="B299" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C299" s="6">
         <v>35524</v>
@@ -9580,7 +9580,7 @@
     </row>
     <row r="300" spans="2:28">
       <c r="B300" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C300" s="6">
         <v>35422</v>
@@ -9603,7 +9603,7 @@
     </row>
     <row r="301" spans="2:28">
       <c r="B301" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C301" s="6">
         <v>35479</v>
@@ -9627,7 +9627,7 @@
     </row>
     <row r="302" spans="2:28">
       <c r="B302" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C302" s="6">
         <v>35514</v>
@@ -9650,7 +9650,7 @@
     </row>
     <row r="303" spans="2:28">
       <c r="B303" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C303" s="6">
         <v>35533</v>
@@ -9673,7 +9673,7 @@
     </row>
     <row r="304" spans="2:28">
       <c r="B304" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C304" s="6">
         <v>35523</v>
@@ -9696,7 +9696,7 @@
     </row>
     <row r="305" spans="2:28">
       <c r="B305" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C305" s="6">
         <v>35502</v>
@@ -9719,7 +9719,7 @@
     </row>
     <row r="306" spans="2:28">
       <c r="B306" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C306" s="6">
         <v>35480</v>
@@ -9742,7 +9742,7 @@
     </row>
     <row r="307" spans="2:28">
       <c r="B307" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C307" s="6">
         <v>35502</v>
@@ -9765,7 +9765,7 @@
     </row>
     <row r="308" spans="2:28">
       <c r="B308" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C308" s="6">
         <v>35514</v>
@@ -9788,7 +9788,7 @@
     </row>
     <row r="309" spans="2:28">
       <c r="B309" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C309" s="6">
         <v>35472</v>
@@ -9811,7 +9811,7 @@
     </row>
     <row r="310" spans="2:28">
       <c r="B310" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C310" s="6">
         <v>35528</v>
@@ -9834,7 +9834,7 @@
     </row>
     <row r="311" spans="2:28">
       <c r="B311" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C311" s="6">
         <v>35455</v>
@@ -9857,7 +9857,7 @@
     </row>
     <row r="312" spans="2:28">
       <c r="B312" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C312" s="6">
         <v>35508</v>
@@ -9880,7 +9880,7 @@
     </row>
     <row r="313" spans="2:28">
       <c r="B313" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C313" s="6">
         <v>35473</v>
@@ -9903,7 +9903,7 @@
     </row>
     <row r="314" spans="2:28">
       <c r="B314" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C314" s="6">
         <v>35439</v>
@@ -9926,7 +9926,7 @@
     </row>
     <row r="315" spans="2:28">
       <c r="B315" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C315" s="6">
         <v>35447</v>
@@ -9949,7 +9949,7 @@
     </row>
     <row r="316" spans="2:28">
       <c r="B316" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C316" s="6">
         <v>35508</v>
@@ -9972,7 +9972,7 @@
     </row>
     <row r="317" spans="2:28">
       <c r="B317" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C317" s="6">
         <v>35424</v>
@@ -9998,7 +9998,7 @@
     </row>
     <row r="318" spans="2:28">
       <c r="B318" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C318" s="6">
         <v>35423</v>
@@ -10021,7 +10021,7 @@
     </row>
     <row r="319" spans="2:28">
       <c r="B319" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C319" s="6">
         <v>35423</v>
@@ -10044,7 +10044,7 @@
     </row>
     <row r="320" spans="2:28">
       <c r="B320" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C320" s="6">
         <v>35515</v>
@@ -10074,7 +10074,7 @@
     </row>
     <row r="321" spans="2:30">
       <c r="B321" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C321" s="6">
         <v>35503</v>
@@ -10097,7 +10097,7 @@
     </row>
     <row r="322" spans="2:30">
       <c r="B322" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C322" s="6">
         <v>35419</v>
@@ -10126,7 +10126,7 @@
     </row>
     <row r="323" spans="2:30">
       <c r="B323" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C323" s="6">
         <v>35419</v>
@@ -10158,7 +10158,7 @@
     </row>
     <row r="324" spans="2:30">
       <c r="B324" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C324" s="6">
         <v>35473</v>
@@ -10181,7 +10181,7 @@
     </row>
     <row r="325" spans="2:30">
       <c r="B325" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C325" s="6">
         <v>35419</v>
@@ -10207,7 +10207,7 @@
     </row>
     <row r="326" spans="2:30">
       <c r="B326" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C326" s="6">
         <v>35528</v>
@@ -10233,7 +10233,7 @@
     </row>
     <row r="327" spans="2:30">
       <c r="B327" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C327" s="6">
         <v>35473</v>
@@ -10257,7 +10257,7 @@
     </row>
     <row r="328" spans="2:30">
       <c r="B328" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C328" s="6">
         <v>35419</v>
@@ -10286,7 +10286,7 @@
     </row>
     <row r="329" spans="2:30">
       <c r="B329" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C329" s="6">
         <v>35419</v>
@@ -10312,7 +10312,7 @@
     </row>
     <row r="330" spans="2:30">
       <c r="B330" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C330" s="6">
         <v>35516</v>
@@ -10335,7 +10335,7 @@
     </row>
     <row r="331" spans="2:30">
       <c r="B331" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C331" s="6">
         <v>35419</v>
@@ -10364,7 +10364,7 @@
     </row>
     <row r="332" spans="2:30">
       <c r="B332" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C332" s="6">
         <v>35525</v>
@@ -10387,7 +10387,7 @@
     </row>
     <row r="333" spans="2:30">
       <c r="B333" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C333" s="6">
         <v>35516</v>
@@ -10410,7 +10410,7 @@
     </row>
     <row r="334" spans="2:30">
       <c r="B334" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C334" s="6">
         <v>35419</v>
@@ -10433,7 +10433,7 @@
     </row>
     <row r="335" spans="2:30">
       <c r="B335" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C335" s="6">
         <v>35441</v>
@@ -10462,7 +10462,7 @@
     </row>
     <row r="336" spans="2:30">
       <c r="B336" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C336" s="6">
         <v>35459</v>
@@ -10485,7 +10485,7 @@
     </row>
     <row r="337" spans="2:34">
       <c r="B337" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C337" s="6">
         <v>35466</v>
@@ -10508,7 +10508,7 @@
     </row>
     <row r="338" spans="2:34">
       <c r="B338" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C338" s="6">
         <v>35471</v>
@@ -10531,7 +10531,7 @@
     </row>
     <row r="339" spans="2:34">
       <c r="B339" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C339" s="6">
         <v>35475</v>
@@ -10554,7 +10554,7 @@
     </row>
     <row r="340" spans="2:34">
       <c r="B340" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C340" s="6">
         <v>35483</v>
@@ -10589,7 +10589,7 @@
     </row>
     <row r="341" spans="2:34">
       <c r="B341" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C341" s="6">
         <v>35495</v>
@@ -10612,7 +10612,7 @@
     </row>
     <row r="342" spans="2:34">
       <c r="B342" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C342" s="6">
         <v>35496</v>
@@ -10635,7 +10635,7 @@
     </row>
     <row r="343" spans="2:34">
       <c r="B343" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C343" s="6">
         <v>35419</v>
@@ -10664,7 +10664,7 @@
     </row>
     <row r="344" spans="2:34">
       <c r="B344" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C344" s="6">
         <v>35424</v>
@@ -10687,7 +10687,7 @@
     </row>
     <row r="345" spans="2:34">
       <c r="B345" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C345" s="6">
         <v>35429</v>
@@ -10710,7 +10710,7 @@
     </row>
     <row r="346" spans="2:34">
       <c r="B346" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C346" s="6">
         <v>35440</v>
@@ -10739,7 +10739,7 @@
     </row>
     <row r="347" spans="2:34">
       <c r="B347" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C347" s="6">
         <v>35441</v>
@@ -10765,7 +10765,7 @@
     </row>
     <row r="348" spans="2:34">
       <c r="B348" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C348" s="6">
         <v>35449</v>
@@ -10788,7 +10788,7 @@
     </row>
     <row r="349" spans="2:34">
       <c r="B349" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C349" s="6">
         <v>35451</v>
@@ -10811,7 +10811,7 @@
     </row>
     <row r="350" spans="2:34">
       <c r="B350" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C350" s="6">
         <v>35452</v>
@@ -10843,7 +10843,7 @@
     </row>
     <row r="351" spans="2:34">
       <c r="B351" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C351" s="6">
         <v>35461</v>
@@ -10866,7 +10866,7 @@
     </row>
     <row r="352" spans="2:34">
       <c r="B352" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C352" s="6">
         <v>35462</v>
@@ -10904,7 +10904,7 @@
     </row>
     <row r="353" spans="2:34">
       <c r="B353" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C353" s="6">
         <v>35466</v>
@@ -10927,7 +10927,7 @@
     </row>
     <row r="354" spans="2:34">
       <c r="B354" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C354" s="6">
         <v>35471</v>
@@ -10956,7 +10956,7 @@
     </row>
     <row r="355" spans="2:34">
       <c r="B355" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C355" s="6">
         <v>35475</v>
@@ -10979,7 +10979,7 @@
     </row>
     <row r="356" spans="2:34">
       <c r="B356" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C356" s="6">
         <v>35483</v>
@@ -11014,7 +11014,7 @@
     </row>
     <row r="357" spans="2:34">
       <c r="B357" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C357" s="6">
         <v>35492</v>
@@ -11037,7 +11037,7 @@
     </row>
     <row r="358" spans="2:34">
       <c r="B358" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C358" s="6">
         <v>35495</v>
@@ -11060,7 +11060,7 @@
     </row>
     <row r="359" spans="2:34">
       <c r="B359" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C359" s="6">
         <v>35496</v>
@@ -11084,7 +11084,7 @@
     </row>
     <row r="360" spans="2:34">
       <c r="B360" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C360" s="6">
         <v>35490</v>
@@ -11097,7 +11097,7 @@
         <v>1340</v>
       </c>
       <c r="F360" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G360" s="7">
         <v>92.588561039988406</v>
@@ -11135,7 +11135,7 @@
     </row>
     <row r="361" spans="2:34">
       <c r="B361" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C361" s="6">
         <v>35420</v>
@@ -11158,7 +11158,7 @@
     </row>
     <row r="362" spans="2:34">
       <c r="B362" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C362" s="6">
         <v>35441</v>
@@ -11187,7 +11187,7 @@
     </row>
     <row r="363" spans="2:34">
       <c r="B363" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C363" s="6">
         <v>35451</v>
@@ -11211,7 +11211,7 @@
     </row>
     <row r="364" spans="2:34">
       <c r="B364" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C364" s="6">
         <v>35452</v>
@@ -11243,7 +11243,7 @@
     </row>
     <row r="365" spans="2:34">
       <c r="B365" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C365" s="6">
         <v>35461</v>
@@ -11269,7 +11269,7 @@
     </row>
     <row r="366" spans="2:34">
       <c r="B366" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C366" s="6">
         <v>35462</v>
@@ -11302,7 +11302,7 @@
     </row>
     <row r="367" spans="2:34">
       <c r="B367" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C367" s="6">
         <v>35471</v>
@@ -11334,7 +11334,7 @@
     </row>
     <row r="368" spans="2:34">
       <c r="B368" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C368" s="6">
         <v>35475</v>
@@ -11357,7 +11357,7 @@
     </row>
     <row r="369" spans="2:34">
       <c r="B369" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C369" s="6">
         <v>35481</v>
@@ -11380,7 +11380,7 @@
     </row>
     <row r="370" spans="2:34">
       <c r="B370" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C370" s="6">
         <v>35483</v>
@@ -11415,7 +11415,7 @@
     </row>
     <row r="371" spans="2:34">
       <c r="B371" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C371" s="6">
         <v>35488</v>
@@ -11438,7 +11438,7 @@
     </row>
     <row r="372" spans="2:34">
       <c r="B372" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C372" s="6">
         <v>35489</v>
@@ -11465,7 +11465,7 @@
     </row>
     <row r="373" spans="2:34">
       <c r="B373" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C373" s="6">
         <v>35441</v>
@@ -11494,7 +11494,7 @@
     </row>
     <row r="374" spans="2:34">
       <c r="B374" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C374" s="6">
         <v>35461</v>
@@ -11517,7 +11517,7 @@
     </row>
     <row r="375" spans="2:34">
       <c r="B375" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C375" s="6">
         <v>35466</v>
@@ -11540,7 +11540,7 @@
     </row>
     <row r="376" spans="2:34">
       <c r="B376" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C376" s="6">
         <v>35475</v>
@@ -11563,7 +11563,7 @@
     </row>
     <row r="377" spans="2:34">
       <c r="B377" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C377" s="6">
         <v>35481</v>
@@ -11586,7 +11586,7 @@
     </row>
     <row r="378" spans="2:34">
       <c r="B378" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C378" s="6">
         <v>35483</v>
@@ -11621,7 +11621,7 @@
     </row>
     <row r="379" spans="2:34">
       <c r="B379" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C379" s="6">
         <v>35518</v>
@@ -11644,7 +11644,7 @@
     </row>
     <row r="380" spans="2:34">
       <c r="B380" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C380" s="6">
         <v>35520</v>
@@ -11667,7 +11667,7 @@
     </row>
     <row r="381" spans="2:34">
       <c r="B381" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C381" s="6">
         <v>35521</v>
@@ -11680,7 +11680,7 @@
         <v>2810</v>
       </c>
       <c r="F381" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G381" s="7">
         <v>123.746387700844</v>
@@ -11724,7 +11724,7 @@
     </row>
     <row r="382" spans="2:34">
       <c r="B382" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C382" s="6">
         <v>35429</v>
@@ -11747,7 +11747,7 @@
     </row>
     <row r="383" spans="2:34">
       <c r="B383" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C383" s="6">
         <v>35440</v>
@@ -11770,7 +11770,7 @@
     </row>
     <row r="384" spans="2:34">
       <c r="B384" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C384" s="6">
         <v>35441</v>
@@ -11796,7 +11796,7 @@
     </row>
     <row r="385" spans="2:34">
       <c r="B385" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C385" s="6">
         <v>35449</v>
@@ -11819,7 +11819,7 @@
     </row>
     <row r="386" spans="2:34">
       <c r="B386" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C386" s="6">
         <v>35451</v>
@@ -11851,7 +11851,7 @@
     </row>
     <row r="387" spans="2:34">
       <c r="B387" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C387" s="6">
         <v>35452</v>
@@ -11874,7 +11874,7 @@
     </row>
     <row r="388" spans="2:34">
       <c r="B388" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C388" s="6">
         <v>35461</v>
@@ -11906,7 +11906,7 @@
     </row>
     <row r="389" spans="2:34">
       <c r="B389" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C389" s="6">
         <v>35462</v>
@@ -11932,7 +11932,7 @@
     </row>
     <row r="390" spans="2:34">
       <c r="B390" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C390" s="6">
         <v>35466</v>
@@ -11955,7 +11955,7 @@
     </row>
     <row r="391" spans="2:34">
       <c r="B391" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C391" s="6">
         <v>35481</v>
@@ -11979,7 +11979,7 @@
     </row>
     <row r="392" spans="2:34">
       <c r="B392" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C392" s="6">
         <v>35483</v>
@@ -12014,7 +12014,7 @@
     </row>
     <row r="393" spans="2:34">
       <c r="B393" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C393" s="6">
         <v>35497</v>
@@ -12037,7 +12037,7 @@
     </row>
     <row r="394" spans="2:34">
       <c r="B394" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C394" s="6">
         <v>35502</v>
@@ -12060,7 +12060,7 @@
     </row>
     <row r="395" spans="2:34">
       <c r="B395" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C395" s="6">
         <v>35515</v>
@@ -12083,7 +12083,7 @@
     </row>
     <row r="396" spans="2:34">
       <c r="B396" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C396" s="6">
         <v>35517</v>
@@ -12106,7 +12106,7 @@
     </row>
     <row r="397" spans="2:34">
       <c r="B397" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C397" s="6">
         <v>35520</v>
@@ -12129,7 +12129,7 @@
     </row>
     <row r="398" spans="2:34">
       <c r="B398" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C398" s="6">
         <v>35514</v>
@@ -12155,7 +12155,7 @@
     </row>
     <row r="399" spans="2:34">
       <c r="B399" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C399" s="6">
         <v>35419</v>
@@ -12184,7 +12184,7 @@
     </row>
     <row r="400" spans="2:34">
       <c r="B400" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C400" s="6">
         <v>35440</v>
@@ -12207,7 +12207,7 @@
     </row>
     <row r="401" spans="2:34">
       <c r="B401" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C401" s="6">
         <v>35441</v>
@@ -12233,7 +12233,7 @@
     </row>
     <row r="402" spans="2:34">
       <c r="B402" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C402" s="6">
         <v>35451</v>
@@ -12256,7 +12256,7 @@
     </row>
     <row r="403" spans="2:34">
       <c r="B403" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C403" s="6">
         <v>35452</v>
@@ -12289,7 +12289,7 @@
     </row>
     <row r="404" spans="2:34">
       <c r="B404" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C404" s="6">
         <v>35461</v>
@@ -12318,7 +12318,7 @@
     </row>
     <row r="405" spans="2:34">
       <c r="B405" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C405" s="6">
         <v>35462</v>
@@ -12347,7 +12347,7 @@
     </row>
     <row r="406" spans="2:34">
       <c r="B406" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C406" s="6">
         <v>35466</v>
@@ -12370,7 +12370,7 @@
     </row>
     <row r="407" spans="2:34">
       <c r="B407" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C407" s="6">
         <v>35471</v>
@@ -12399,7 +12399,7 @@
     </row>
     <row r="408" spans="2:34">
       <c r="B408" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C408" s="6">
         <v>35475</v>
@@ -12422,7 +12422,7 @@
     </row>
     <row r="409" spans="2:34">
       <c r="B409" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C409" s="6">
         <v>35483</v>
@@ -12457,7 +12457,7 @@
     </row>
     <row r="410" spans="2:34">
       <c r="B410" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C410" s="6">
         <v>35492</v>
@@ -12477,7 +12477,7 @@
     </row>
     <row r="411" spans="2:34">
       <c r="B411" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C411" s="6">
         <v>35510</v>
@@ -12500,7 +12500,7 @@
     </row>
     <row r="412" spans="2:34">
       <c r="B412" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C412" s="6">
         <v>35513</v>
@@ -12527,7 +12527,7 @@
     </row>
     <row r="413" spans="2:34">
       <c r="B413" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C413" s="6">
         <v>35441</v>
@@ -12550,7 +12550,7 @@
     </row>
     <row r="414" spans="2:34">
       <c r="B414" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C414" s="6">
         <v>35451</v>
@@ -12573,7 +12573,7 @@
     </row>
     <row r="415" spans="2:34">
       <c r="B415" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C415" s="6">
         <v>35483</v>
@@ -12599,7 +12599,7 @@
     </row>
     <row r="416" spans="2:34">
       <c r="B416" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C416" s="6">
         <v>35494</v>
@@ -12622,7 +12622,7 @@
     </row>
     <row r="417" spans="2:34">
       <c r="B417" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C417" s="6">
         <v>35496</v>
@@ -12645,7 +12645,7 @@
     </row>
     <row r="418" spans="2:34">
       <c r="B418" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C418" s="6">
         <v>35504</v>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="419" spans="2:34">
       <c r="B419" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C419" s="6">
         <v>35513</v>
@@ -12697,7 +12697,7 @@
     </row>
     <row r="420" spans="2:34">
       <c r="B420" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C420" s="6">
         <v>35524</v>
@@ -12720,7 +12720,7 @@
     </row>
     <row r="421" spans="2:34">
       <c r="B421" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C421" s="6">
         <v>35526</v>
@@ -12743,7 +12743,7 @@
     </row>
     <row r="422" spans="2:34">
       <c r="B422" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C422" s="6">
         <v>35420</v>
@@ -12766,7 +12766,7 @@
     </row>
     <row r="423" spans="2:34">
       <c r="B423" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C423" s="6">
         <v>35429</v>
@@ -12789,7 +12789,7 @@
     </row>
     <row r="424" spans="2:34">
       <c r="B424" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C424" s="6">
         <v>35440</v>
@@ -12815,7 +12815,7 @@
     </row>
     <row r="425" spans="2:34">
       <c r="B425" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C425" s="6">
         <v>35449</v>
@@ -12838,7 +12838,7 @@
     </row>
     <row r="426" spans="2:34">
       <c r="B426" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C426" s="6">
         <v>35454</v>
@@ -12861,7 +12861,7 @@
     </row>
     <row r="427" spans="2:34">
       <c r="B427" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C427" s="6">
         <v>35460</v>
@@ -12884,7 +12884,7 @@
     </row>
     <row r="428" spans="2:34">
       <c r="B428" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C428" s="6">
         <v>35481</v>
@@ -12910,7 +12910,7 @@
     </row>
     <row r="429" spans="2:34">
       <c r="B429" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C429" s="6">
         <v>35483</v>
@@ -12939,7 +12939,7 @@
     </row>
     <row r="430" spans="2:34">
       <c r="B430" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C430" s="6">
         <v>35494</v>
@@ -12968,7 +12968,7 @@
     </row>
     <row r="431" spans="2:34">
       <c r="B431" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C431" s="6">
         <v>35495</v>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="432" spans="2:34">
       <c r="B432" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C432" s="6">
         <v>35496</v>
@@ -13014,7 +13014,7 @@
     </row>
     <row r="433" spans="2:34">
       <c r="B433" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C433" s="6">
         <v>35497</v>
@@ -13037,7 +13037,7 @@
     </row>
     <row r="434" spans="2:34">
       <c r="B434" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C434" s="6">
         <v>35502</v>
@@ -13060,7 +13060,7 @@
     </row>
     <row r="435" spans="2:34">
       <c r="B435" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C435" s="6">
         <v>35503</v>
@@ -13084,7 +13084,7 @@
     </row>
     <row r="436" spans="2:34">
       <c r="B436" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C436" s="6">
         <v>35504</v>
@@ -13110,7 +13110,7 @@
     </row>
     <row r="437" spans="2:34">
       <c r="B437" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C437" s="6">
         <v>35506</v>
@@ -13133,7 +13133,7 @@
     </row>
     <row r="438" spans="2:34">
       <c r="B438" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C438" s="6">
         <v>35512</v>
@@ -13159,7 +13159,7 @@
     </row>
     <row r="439" spans="2:34">
       <c r="B439" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C439" s="6">
         <v>35517</v>
@@ -13183,7 +13183,7 @@
     </row>
     <row r="440" spans="2:34">
       <c r="B440" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C440" s="6">
         <v>35518</v>
@@ -13206,7 +13206,7 @@
     </row>
     <row r="441" spans="2:34">
       <c r="B441" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C441" s="6">
         <v>35520</v>
@@ -13229,7 +13229,7 @@
     </row>
     <row r="442" spans="2:34">
       <c r="B442" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C442" s="6">
         <v>35521</v>
@@ -13255,7 +13255,7 @@
     </row>
     <row r="443" spans="2:34">
       <c r="B443" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C443" s="6">
         <v>35440</v>
@@ -13281,7 +13281,7 @@
     </row>
     <row r="444" spans="2:34">
       <c r="B444" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C444" s="6">
         <v>35441</v>
@@ -13304,7 +13304,7 @@
     </row>
     <row r="445" spans="2:34">
       <c r="B445" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C445" s="6">
         <v>35481</v>
@@ -13327,7 +13327,7 @@
     </row>
     <row r="446" spans="2:34">
       <c r="B446" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C446" s="6">
         <v>35483</v>
@@ -13356,7 +13356,7 @@
     </row>
     <row r="447" spans="2:34">
       <c r="B447" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C447" s="6">
         <v>35494</v>
@@ -13380,7 +13380,7 @@
     </row>
     <row r="448" spans="2:34">
       <c r="B448" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C448" s="6">
         <v>35495</v>
@@ -13412,7 +13412,7 @@
     </row>
     <row r="449" spans="2:34">
       <c r="B449" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C449" s="6">
         <v>35504</v>
@@ -13439,7 +13439,7 @@
     </row>
     <row r="450" spans="2:34">
       <c r="B450" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C450" s="6">
         <v>35505</v>
@@ -13465,7 +13465,7 @@
     </row>
     <row r="451" spans="2:34">
       <c r="B451" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C451" s="6">
         <v>35507</v>
@@ -13485,7 +13485,7 @@
     </row>
     <row r="452" spans="2:34">
       <c r="B452" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C452" s="6">
         <v>35511</v>
@@ -13509,7 +13509,7 @@
     </row>
     <row r="453" spans="2:34">
       <c r="B453" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C453" s="6">
         <v>35512</v>
@@ -13532,7 +13532,7 @@
     </row>
     <row r="454" spans="2:34">
       <c r="B454" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C454" s="6">
         <v>35518</v>
@@ -13559,7 +13559,7 @@
     </row>
     <row r="455" spans="2:34">
       <c r="B455" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C455" s="6">
         <v>35520</v>
@@ -13582,7 +13582,7 @@
     </row>
     <row r="456" spans="2:34">
       <c r="B456" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C456" s="6">
         <v>35521</v>
@@ -13605,7 +13605,7 @@
     </row>
     <row r="457" spans="2:34">
       <c r="B457" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C457" s="6">
         <v>35499</v>
@@ -13634,7 +13634,7 @@
     </row>
     <row r="458" spans="2:34">
       <c r="B458" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C458" s="6">
         <v>35508</v>
@@ -13654,7 +13654,7 @@
     </row>
     <row r="459" spans="2:34">
       <c r="B459" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C459" s="6">
         <v>35510</v>
@@ -13680,7 +13680,7 @@
     </row>
     <row r="460" spans="2:34">
       <c r="B460" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C460" s="6">
         <v>35540</v>
@@ -13709,7 +13709,7 @@
     </row>
     <row r="461" spans="2:34">
       <c r="B461" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C461" s="6">
         <v>35528</v>
@@ -13722,7 +13722,7 @@
         <v>970</v>
       </c>
       <c r="F461" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G461" s="7">
         <v>90.556590397287493</v>
@@ -13763,7 +13763,7 @@
     </row>
     <row r="462" spans="2:34">
       <c r="B462" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C462" s="6">
         <v>35486</v>
@@ -13790,7 +13790,7 @@
     </row>
     <row r="463" spans="2:34">
       <c r="B463" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C463" s="6">
         <v>35487</v>
@@ -13825,7 +13825,7 @@
     </row>
     <row r="464" spans="2:34">
       <c r="B464" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C464" s="6">
         <v>35499</v>
@@ -13851,7 +13851,7 @@
     </row>
     <row r="465" spans="2:34">
       <c r="B465" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C465" s="6">
         <v>35500</v>
@@ -13877,7 +13877,7 @@
     </row>
     <row r="466" spans="2:34">
       <c r="B466" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C466" s="6">
         <v>35505</v>
@@ -13900,7 +13900,7 @@
     </row>
     <row r="467" spans="2:34">
       <c r="B467" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C467" s="6">
         <v>35506</v>
@@ -13930,7 +13930,7 @@
     </row>
     <row r="468" spans="2:34">
       <c r="B468" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C468" s="6">
         <v>35508</v>
@@ -13953,7 +13953,7 @@
     </row>
     <row r="469" spans="2:34">
       <c r="B469" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C469" s="6">
         <v>35509</v>
@@ -13976,7 +13976,7 @@
     </row>
     <row r="470" spans="2:34">
       <c r="B470" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C470" s="6">
         <v>35510</v>
@@ -14011,7 +14011,7 @@
     </row>
     <row r="471" spans="2:34">
       <c r="B471" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C471" s="6">
         <v>35521</v>
@@ -14024,7 +14024,7 @@
         <v>470</v>
       </c>
       <c r="F471" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G471" s="7">
         <v>83.633614868270897</v>
@@ -14071,7 +14071,7 @@
     </row>
     <row r="472" spans="2:34">
       <c r="B472" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C472" s="6">
         <v>35462</v>
@@ -14094,7 +14094,7 @@
     </row>
     <row r="473" spans="2:34">
       <c r="B473" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C473" s="6">
         <v>35485</v>
@@ -14117,7 +14117,7 @@
     </row>
     <row r="474" spans="2:34">
       <c r="B474" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C474" s="6">
         <v>35486</v>
@@ -14146,7 +14146,7 @@
     </row>
     <row r="475" spans="2:34">
       <c r="B475" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C475" s="6">
         <v>35492</v>
@@ -14169,7 +14169,7 @@
     </row>
     <row r="476" spans="2:34">
       <c r="B476" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C476" s="6">
         <v>35498</v>
@@ -14192,7 +14192,7 @@
     </row>
     <row r="477" spans="2:34">
       <c r="B477" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C477" s="6">
         <v>35499</v>
@@ -14221,7 +14221,7 @@
     </row>
     <row r="478" spans="2:34">
       <c r="B478" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C478" s="6">
         <v>35505</v>
@@ -14244,7 +14244,7 @@
     </row>
     <row r="479" spans="2:34">
       <c r="B479" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C479" s="6">
         <v>35510</v>
@@ -14277,7 +14277,7 @@
     </row>
     <row r="480" spans="2:34">
       <c r="B480" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C480" s="6">
         <v>35486</v>
@@ -14300,7 +14300,7 @@
     </row>
     <row r="481" spans="2:34">
       <c r="B481" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C481" s="6">
         <v>35498</v>
@@ -14323,7 +14323,7 @@
     </row>
     <row r="482" spans="2:34">
       <c r="B482" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C482" s="6">
         <v>35508</v>
@@ -14346,7 +14346,7 @@
     </row>
     <row r="483" spans="2:34">
       <c r="B483" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C483" s="6">
         <v>35510</v>
@@ -14375,7 +14375,7 @@
     </row>
     <row r="484" spans="2:34">
       <c r="B484" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C484" s="6">
         <v>35546</v>
@@ -14398,7 +14398,7 @@
     </row>
     <row r="485" spans="2:34">
       <c r="B485" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C485" s="6">
         <v>35547</v>
@@ -14427,7 +14427,7 @@
     </row>
     <row r="486" spans="2:34">
       <c r="B486" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C486" s="6">
         <v>35486</v>
@@ -14459,7 +14459,7 @@
     </row>
     <row r="487" spans="2:34">
       <c r="B487" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C487" s="6">
         <v>35487</v>
@@ -14488,7 +14488,7 @@
     </row>
     <row r="488" spans="2:34">
       <c r="B488" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C488" s="6">
         <v>35499</v>
@@ -14517,7 +14517,7 @@
     </row>
     <row r="489" spans="2:34">
       <c r="B489" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C489" s="6">
         <v>35500</v>
@@ -14540,7 +14540,7 @@
     </row>
     <row r="490" spans="2:34">
       <c r="B490" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C490" s="6">
         <v>35505</v>
@@ -14572,7 +14572,7 @@
     </row>
     <row r="491" spans="2:34">
       <c r="B491" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C491" s="6">
         <v>35506</v>
@@ -14595,7 +14595,7 @@
     </row>
     <row r="492" spans="2:34">
       <c r="B492" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C492" s="6">
         <v>35508</v>
@@ -14618,7 +14618,7 @@
     </row>
     <row r="493" spans="2:34">
       <c r="B493" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C493" s="6">
         <v>35509</v>
@@ -14644,7 +14644,7 @@
     </row>
     <row r="494" spans="2:34">
       <c r="B494" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C494" s="6">
         <v>35510</v>
@@ -14676,7 +14676,7 @@
     </row>
     <row r="495" spans="2:34">
       <c r="B495" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C495" s="6">
         <v>35534</v>
@@ -14708,7 +14708,7 @@
     </row>
     <row r="496" spans="2:34">
       <c r="B496" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C496" s="6">
         <v>35462</v>
@@ -14731,7 +14731,7 @@
     </row>
     <row r="497" spans="2:34">
       <c r="B497" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C497" s="6">
         <v>35486</v>
@@ -14760,7 +14760,7 @@
     </row>
     <row r="498" spans="2:34">
       <c r="B498" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C498" s="6">
         <v>35488</v>
@@ -14785,7 +14785,7 @@
     </row>
     <row r="499" spans="2:34">
       <c r="B499" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C499" s="6">
         <v>35492</v>
@@ -14808,7 +14808,7 @@
     </row>
     <row r="500" spans="2:34">
       <c r="B500" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C500" s="6">
         <v>35499</v>
@@ -14840,7 +14840,7 @@
     </row>
     <row r="501" spans="2:34">
       <c r="B501" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C501" s="6">
         <v>35506</v>
@@ -14878,7 +14878,7 @@
     </row>
     <row r="502" spans="2:34">
       <c r="B502" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C502" s="6">
         <v>35510</v>
@@ -14907,7 +14907,7 @@
     </row>
     <row r="503" spans="2:34">
       <c r="B503" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C503" s="6">
         <v>35511</v>
@@ -14930,7 +14930,7 @@
     </row>
     <row r="504" spans="2:34">
       <c r="B504" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C504" s="6">
         <v>35519</v>
@@ -14953,7 +14953,7 @@
     </row>
     <row r="505" spans="2:34">
       <c r="B505" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C505" s="6">
         <v>35521</v>
@@ -14976,7 +14976,7 @@
     </row>
     <row r="506" spans="2:34">
       <c r="B506" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C506" s="6">
         <v>35535</v>
@@ -14999,7 +14999,7 @@
     </row>
     <row r="507" spans="2:34">
       <c r="B507" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C507" s="6">
         <v>35486</v>
@@ -15022,7 +15022,7 @@
     </row>
     <row r="508" spans="2:34">
       <c r="B508" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C508" s="6">
         <v>35510</v>
@@ -15037,7 +15037,7 @@
     </row>
     <row r="509" spans="2:34">
       <c r="B509" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C509" s="6">
         <v>35515</v>
@@ -15063,7 +15063,7 @@
     </row>
     <row r="510" spans="2:34">
       <c r="B510" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C510" s="6">
         <v>35526</v>
@@ -15089,7 +15089,7 @@
     </row>
     <row r="511" spans="2:34">
       <c r="B511" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C511" s="6">
         <v>35528</v>
@@ -15116,7 +15116,7 @@
     </row>
     <row r="512" spans="2:34">
       <c r="B512" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C512" s="6">
         <v>35533</v>
@@ -15139,7 +15139,7 @@
     </row>
     <row r="513" spans="2:34">
       <c r="B513" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C513" s="6">
         <v>35546</v>
@@ -15162,7 +15162,7 @@
     </row>
     <row r="514" spans="2:34">
       <c r="B514" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C514" s="6">
         <v>35541</v>
@@ -15175,7 +15175,7 @@
         <v>2740</v>
       </c>
       <c r="F514" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G514" s="7">
         <v>103.860280177097</v>
@@ -15216,7 +15216,7 @@
     </row>
     <row r="515" spans="2:34">
       <c r="B515" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C515" s="6">
         <v>35486</v>
@@ -15242,7 +15242,7 @@
     </row>
     <row r="516" spans="2:34">
       <c r="B516" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C516" s="6">
         <v>35487</v>
@@ -15268,7 +15268,7 @@
     </row>
     <row r="517" spans="2:34">
       <c r="B517" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C517" s="6">
         <v>35508</v>
@@ -15301,7 +15301,7 @@
     </row>
     <row r="518" spans="2:34">
       <c r="B518" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C518" s="6">
         <v>35509</v>
@@ -15324,7 +15324,7 @@
     </row>
     <row r="519" spans="2:34">
       <c r="B519" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C519" s="6">
         <v>35510</v>
@@ -15350,7 +15350,7 @@
     </row>
     <row r="520" spans="2:34">
       <c r="B520" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C520" s="6">
         <v>35514</v>
@@ -15373,7 +15373,7 @@
     </row>
     <row r="521" spans="2:34">
       <c r="B521" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C521" s="6">
         <v>35515</v>
@@ -15399,7 +15399,7 @@
     </row>
     <row r="522" spans="2:34">
       <c r="B522" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C522" s="6">
         <v>35517</v>
@@ -15422,7 +15422,7 @@
     </row>
     <row r="523" spans="2:34">
       <c r="B523" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C523" s="6">
         <v>35526</v>
@@ -15445,7 +15445,7 @@
     </row>
     <row r="524" spans="2:34">
       <c r="B524" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C524" s="6">
         <v>35528</v>
@@ -15474,7 +15474,7 @@
     </row>
     <row r="525" spans="2:34">
       <c r="B525" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C525" s="6">
         <v>35534</v>
@@ -15510,7 +15510,7 @@
     </row>
     <row r="526" spans="2:34">
       <c r="B526" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C526" s="6">
         <v>35540</v>
@@ -15537,7 +15537,7 @@
     </row>
     <row r="527" spans="2:34">
       <c r="B527" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C527" s="6">
         <v>35462</v>
@@ -15561,7 +15561,7 @@
     </row>
     <row r="528" spans="2:34">
       <c r="B528" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C528" s="6">
         <v>35485</v>
@@ -15585,7 +15585,7 @@
     </row>
     <row r="529" spans="2:33">
       <c r="B529" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C529" s="6">
         <v>35486</v>
@@ -15612,7 +15612,7 @@
     </row>
     <row r="530" spans="2:33">
       <c r="B530" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C530" s="6">
         <v>35487</v>
@@ -15640,7 +15640,7 @@
     </row>
     <row r="531" spans="2:33">
       <c r="B531" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C531" s="6">
         <v>35492</v>
@@ -15663,7 +15663,7 @@
     </row>
     <row r="532" spans="2:33">
       <c r="B532" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C532" s="6">
         <v>35497</v>
@@ -15686,7 +15686,7 @@
     </row>
     <row r="533" spans="2:33">
       <c r="B533" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C533" s="6">
         <v>35510</v>
@@ -15712,7 +15712,7 @@
     </row>
     <row r="534" spans="2:33">
       <c r="B534" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C534" s="6">
         <v>35512</v>
@@ -15735,7 +15735,7 @@
     </row>
     <row r="535" spans="2:33">
       <c r="B535" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C535" s="6">
         <v>35516</v>
@@ -15764,7 +15764,7 @@
     </row>
     <row r="536" spans="2:33">
       <c r="B536" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C536" s="6">
         <v>35519</v>

--- a/Prototypes/Mungbean/Exp1_2observed.xlsx
+++ b/Prototypes/Mungbean/Exp1_2observed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A21068-49E0-4A01-9430-5255A5C313C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DB1535-1E8F-46D1-AE22-5BE2BC3CE4F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC5736B7-331A-44E7-9B2A-DE6BDB9CC19C}"/>
   </bookViews>
@@ -597,7 +597,7 @@
   <dimension ref="A1:AI574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="F550" sqref="F549:F550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -838,7 +838,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" hidden="1">
       <c r="B6" t="s">
         <v>51</v>
       </c>
@@ -873,7 +873,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" hidden="1">
       <c r="B7" t="s">
         <v>51</v>
       </c>
@@ -962,7 +962,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" hidden="1">
       <c r="B10" t="s">
         <v>51</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" hidden="1">
       <c r="B12" t="s">
         <v>51</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" hidden="1">
       <c r="B14" t="s">
         <v>51</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>1.2211347114483</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="X35">
         <v>0.910796518395528</v>
@@ -2415,7 +2415,7 @@
         <v>6.2934654591232597</v>
       </c>
       <c r="W56">
-        <v>1.47576189158542</v>
+        <v>1.44</v>
       </c>
       <c r="AA56">
         <v>41</v>
@@ -3714,7 +3714,7 @@
         <v>5.6774560370382101</v>
       </c>
       <c r="W95">
-        <v>1.3717302985031801</v>
+        <v>1.56</v>
       </c>
       <c r="Z95">
         <v>0.39576820682952901</v>
@@ -4082,7 +4082,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="2:34" hidden="1">
+    <row r="107" spans="2:34">
       <c r="B107" t="s">
         <v>43</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="2:34" hidden="1">
+    <row r="125" spans="2:34">
       <c r="B125" t="s">
         <v>43</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>10.941659688160399</v>
       </c>
       <c r="W125">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="X125">
         <v>8.43</v>
@@ -5040,7 +5040,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="2:31">
+    <row r="141" spans="2:31" hidden="1">
       <c r="B141" t="s">
         <v>51</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>63.925992558050403</v>
       </c>
       <c r="W150">
-        <v>0.85430709461809295</v>
+        <v>1.05</v>
       </c>
       <c r="X150">
         <v>3.2913906189906301</v>
@@ -5587,7 +5587,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="160" spans="2:35">
+    <row r="160" spans="2:35" hidden="1">
       <c r="B160" t="s">
         <v>51</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="2:34" hidden="1">
+    <row r="163" spans="2:34">
       <c r="B163" t="s">
         <v>43</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>11.762332017386401</v>
       </c>
       <c r="W163">
-        <v>2.0099999999999998</v>
+        <v>2.08</v>
       </c>
       <c r="X163">
         <v>7.65</v>
@@ -5873,7 +5873,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:34">
+    <row r="169" spans="2:34" hidden="1">
       <c r="B169" t="s">
         <v>51</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="174" spans="2:34">
+    <row r="174" spans="2:34" hidden="1">
       <c r="B174" t="s">
         <v>51</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="181" spans="2:34">
+    <row r="181" spans="2:34" hidden="1">
       <c r="B181" t="s">
         <v>51</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="2:35" hidden="1">
+    <row r="213" spans="2:35">
       <c r="B213" t="s">
         <v>43</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>15.409020217729299</v>
       </c>
       <c r="W213">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="X213">
         <v>5.04</v>
@@ -7621,7 +7621,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="234" spans="2:35" hidden="1">
+    <row r="234" spans="2:35">
       <c r="B234" t="s">
         <v>43</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="2:32">
+    <row r="279" spans="2:32" hidden="1">
       <c r="B279" t="s">
         <v>51</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>0.20835214446952199</v>
       </c>
       <c r="W283">
-        <v>1.2316725694789299</v>
+        <v>1.43</v>
       </c>
       <c r="X283">
         <v>3.5894638174648099</v>
@@ -9582,7 +9582,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="309" spans="2:29">
+    <row r="309" spans="2:29" hidden="1">
       <c r="B309" t="s">
         <v>51</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="321" spans="2:32">
+    <row r="321" spans="2:32" hidden="1">
       <c r="B321" t="s">
         <v>51</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="333" spans="2:32">
+    <row r="333" spans="2:32" hidden="1">
       <c r="B333" t="s">
         <v>51</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="374" spans="2:35" hidden="1">
+    <row r="374" spans="2:35">
       <c r="B374" t="s">
         <v>43</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>16.3</v>
       </c>
       <c r="W374">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="X374">
         <v>4.25</v>
@@ -11553,7 +11553,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="379" spans="2:35" hidden="1">
+    <row r="379" spans="2:35">
       <c r="B379" t="s">
         <v>43</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>15.2560513618056</v>
       </c>
       <c r="W379">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="X379">
         <v>0.38</v>
@@ -12217,7 +12217,7 @@
         <v>0.26027088036117002</v>
       </c>
       <c r="W401">
-        <v>0.96717528708234102</v>
+        <v>1.19</v>
       </c>
       <c r="X401">
         <v>3.1607385726717299</v>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="I409" s="7"/>
       <c r="W409">
-        <v>0.72778880632850396</v>
+        <v>0.83</v>
       </c>
       <c r="Z409">
         <v>7.0658989925840796</v>
@@ -14923,7 +14923,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="496" spans="2:35">
+    <row r="496" spans="2:35" hidden="1">
       <c r="B496" t="s">
         <v>51</v>
       </c>
@@ -14946,7 +14946,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="497" spans="2:35">
+    <row r="497" spans="2:35" hidden="1">
       <c r="B497" t="s">
         <v>51</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="498" spans="2:35">
+    <row r="498" spans="2:35" hidden="1">
       <c r="B498" t="s">
         <v>51</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="499" spans="2:35">
+    <row r="499" spans="2:35" hidden="1">
       <c r="B499" t="s">
         <v>51</v>
       </c>
@@ -15023,7 +15023,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="500" spans="2:35">
+    <row r="500" spans="2:35" hidden="1">
       <c r="B500" t="s">
         <v>51</v>
       </c>
@@ -15055,7 +15055,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="501" spans="2:35">
+    <row r="501" spans="2:35" hidden="1">
       <c r="B501" t="s">
         <v>51</v>
       </c>
@@ -15093,7 +15093,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="502" spans="2:35">
+    <row r="502" spans="2:35" hidden="1">
       <c r="B502" t="s">
         <v>51</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="503" spans="2:35">
+    <row r="503" spans="2:35" hidden="1">
       <c r="B503" t="s">
         <v>51</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="504" spans="2:35">
+    <row r="504" spans="2:35" hidden="1">
       <c r="B504" t="s">
         <v>51</v>
       </c>
@@ -15168,7 +15168,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="505" spans="2:35">
+    <row r="505" spans="2:35" hidden="1">
       <c r="B505" t="s">
         <v>51</v>
       </c>
@@ -15191,7 +15191,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="506" spans="2:35">
+    <row r="506" spans="2:35" hidden="1">
       <c r="B506" t="s">
         <v>51</v>
       </c>
@@ -16123,8 +16123,13 @@
   <autoFilter ref="A1:AI536" xr:uid="{C6959FE3-A6F8-4DED-9137-41C71F649D59}">
     <filterColumn colId="1">
       <filters>
-        <filter val="exp2WaterTermStressCultivarEmerald"/>
+        <filter val="exp1WaterIrrCultivarEmerald"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="22">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AI485">
       <sortCondition ref="G2:G536"/>

--- a/Prototypes/Mungbean/Exp1_2observed.xlsx
+++ b/Prototypes/Mungbean/Exp1_2observed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F173318B-512C-4231-BB99-AFD4F245D03A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473CC3B3-A87F-4C66-95E0-DADC7B0EE94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC5736B7-331A-44E7-9B2A-DE6BDB9CC19C}"/>
+    <workbookView xWindow="32640" yWindow="6315" windowWidth="20775" windowHeight="11835" xr2:uid="{EC5736B7-331A-44E7-9B2A-DE6BDB9CC19C}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Clock.Today</t>
   </si>
   <si>
-    <t>Soybean.DaysAfterSowing</t>
-  </si>
-  <si>
     <t>TotSW160</t>
   </si>
   <si>
@@ -65,43 +62,7 @@
     <t>SW150</t>
   </si>
   <si>
-    <t>Soybean.Leaf.LAI</t>
-  </si>
-  <si>
-    <t>Soybean.AboveGround.Wt</t>
-  </si>
-  <si>
     <t>RadiationIntercepted</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.Nconc</t>
-  </si>
-  <si>
-    <t>Soybean.leaf.Live.Nconc</t>
-  </si>
-  <si>
-    <t>Soybean.shell.live.nconc</t>
-  </si>
-  <si>
-    <t>Soybean.Stem.Nconc</t>
-  </si>
-  <si>
-    <t>Soybean.shell.nconc</t>
-  </si>
-  <si>
-    <t>Soybean.AboveGround.N</t>
-  </si>
-  <si>
-    <t>Soybean.Stem.N</t>
-  </si>
-  <si>
-    <t>Soybean.leaf.Live.N</t>
-  </si>
-  <si>
-    <t>Soybean.grain.live.N</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.MaturityDAS</t>
   </si>
   <si>
     <t>Flower Number</t>
@@ -113,16 +74,10 @@
     <t>Black Pod Number</t>
   </si>
   <si>
-    <t>Soybean.Grain.Wt</t>
-  </si>
-  <si>
     <t>100GrainWeight</t>
   </si>
   <si>
     <t>NHI</t>
-  </si>
-  <si>
-    <t>Soybean.Nodule.Nfixed</t>
   </si>
   <si>
     <t>exp1SowSoybeanPodIrr</t>
@@ -146,16 +101,10 @@
     <t>Gatton</t>
   </si>
   <si>
-    <t>Soybean.Phenology.CurrentStageName</t>
-  </si>
-  <si>
     <t>HarvestRipe</t>
   </si>
   <si>
     <t>Yield</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.HarvestIndex</t>
   </si>
   <si>
     <t>exp2WaterIrrCultivarBerken</t>
@@ -174,12 +123,6 @@
   </si>
   <si>
     <t>exp2WaterTermStressCultivarEmerald</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.StartFloweringDAS</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.StartPodDevDAS</t>
   </si>
   <si>
     <t>Pod.N</t>
@@ -201,6 +144,63 @@
   </si>
   <si>
     <t>exp1EmeraldWaterRF</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.CurrentStageName</t>
+  </si>
+  <si>
+    <t>Mungbean.DaysAfterSowing</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.LAI</t>
+  </si>
+  <si>
+    <t>Mungbean.AboveGround.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.HarvestIndex</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.Nconc</t>
+  </si>
+  <si>
+    <t>Mungbean.leaf.Live.Nconc</t>
+  </si>
+  <si>
+    <t>Mungbean.shell.live.nconc</t>
+  </si>
+  <si>
+    <t>Mungbean.Stem.Nconc</t>
+  </si>
+  <si>
+    <t>Mungbean.shell.nconc</t>
+  </si>
+  <si>
+    <t>Mungbean.AboveGround.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Stem.N</t>
+  </si>
+  <si>
+    <t>Mungbean.leaf.Live.N</t>
+  </si>
+  <si>
+    <t>Mungbean.grain.live.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.StartFloweringDAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.StartPodDevDAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.MaturityDAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Nodule.Nfixed</t>
   </si>
 </sst>
 </file>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C69D9A-1FFA-4799-BC03-A6694D3363DD}">
   <dimension ref="A1:AI574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C387" sqref="C387"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -616,105 +616,105 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="AF1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="AI1" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6">
         <v>35487</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6">
         <v>35508</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6">
         <v>35516</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6">
         <v>35472</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="B6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C6" s="6">
         <v>35500</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6">
         <v>35509</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C8" s="6">
         <v>35462</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6">
         <v>35472</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="B10" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6">
         <v>35505</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6">
         <v>35473</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="B12" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C12" s="6">
         <v>35528</v>
@@ -1031,7 +1031,7 @@
         <v>390</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7">
         <v>90.695997595899001</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C13" s="6">
         <v>35480</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="B14" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C14" s="6">
         <v>35487</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C15" s="6">
         <v>35482</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C16" s="6">
         <v>35485</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="17" spans="2:35">
       <c r="B17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C17" s="6">
         <v>35527</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="18" spans="2:35">
       <c r="B18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6">
         <v>35478</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="19" spans="2:35">
       <c r="B19" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C19" s="6">
         <v>35478</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="20" spans="2:35">
       <c r="B20" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C20" s="6">
         <v>35486</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="21" spans="2:35">
       <c r="B21" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C21" s="6">
         <v>35534</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="22" spans="2:35">
       <c r="B22" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C22" s="6">
         <v>35487</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="23" spans="2:35">
       <c r="B23" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C23" s="6">
         <v>35486</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="24" spans="2:35">
       <c r="B24" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C24" s="6">
         <v>35498</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="25" spans="2:35">
       <c r="B25" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C25" s="6">
         <v>35487</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="26" spans="2:35">
       <c r="B26" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C26" s="6">
         <v>35547</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="27" spans="2:35">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C27" s="6">
         <v>35499</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="28" spans="2:35">
       <c r="B28" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C28" s="6">
         <v>35534</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="29" spans="2:35">
       <c r="B29" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C29" s="6">
         <v>35509</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="30" spans="2:35">
       <c r="B30" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C30" s="6">
         <v>35508</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="31" spans="2:35">
       <c r="B31" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C31" s="6">
         <v>35418</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="32" spans="2:35">
       <c r="B32" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C32" s="6">
         <v>35418</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="33" spans="2:31">
       <c r="B33" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C33" s="6">
         <v>35419</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="34" spans="2:31">
       <c r="B34" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C34" s="6">
         <v>35424</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="35" spans="2:31">
       <c r="B35" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C35" s="6">
         <v>35423</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="36" spans="2:31">
       <c r="B36" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C36" s="6">
         <v>35433</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="37" spans="2:31">
       <c r="B37" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C37" s="6">
         <v>35438</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="38" spans="2:31">
       <c r="B38" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C38" s="6">
         <v>35440</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="39" spans="2:31">
       <c r="B39" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C39" s="6">
         <v>35462</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="40" spans="2:31">
       <c r="B40" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C40" s="6">
         <v>35462</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="41" spans="2:31">
       <c r="B41" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C41" s="6">
         <v>35462</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="42" spans="2:31">
       <c r="B42" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C42" s="6">
         <v>35429</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="43" spans="2:31">
       <c r="B43" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C43" s="6">
         <v>35441</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="44" spans="2:31">
       <c r="B44" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C44" s="6">
         <v>35445</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="45" spans="2:31">
       <c r="B45" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C45" s="6">
         <v>35472</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="46" spans="2:31">
       <c r="B46" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C46" s="6">
         <v>35472</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="47" spans="2:31">
       <c r="B47" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C47" s="6">
         <v>35452</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="48" spans="2:31">
       <c r="B48" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C48" s="6">
         <v>35453</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="49" spans="2:35">
       <c r="B49" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C49" s="6">
         <v>35482</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="50" spans="2:35">
       <c r="B50" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C50" s="6">
         <v>35442</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="51" spans="2:35">
       <c r="B51" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C51" s="6">
         <v>35457</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="52" spans="2:35">
       <c r="B52" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C52" s="6">
         <v>35458</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="53" spans="2:35">
       <c r="B53" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C53" s="6">
         <v>35459</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="54" spans="2:35">
       <c r="B54" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C54" s="6">
         <v>35462</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="55" spans="2:35">
       <c r="B55" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C55" s="6">
         <v>35466</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="56" spans="2:35">
       <c r="B56" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C56" s="6">
         <v>35467</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="57" spans="2:35">
       <c r="B57" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C57" s="6">
         <v>35460</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="58" spans="2:35">
       <c r="B58" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C58" s="6">
         <v>35502</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="59" spans="2:35">
       <c r="B59" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C59" s="6">
         <v>35471</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="60" spans="2:35">
       <c r="B60" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C60" s="6">
         <v>35472</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="61" spans="2:35">
       <c r="B61" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C61" s="6">
         <v>35477</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="62" spans="2:35">
       <c r="B62" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C62" s="6">
         <v>35515</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="63" spans="2:35">
       <c r="B63" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C63" s="6">
         <v>35519</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="64" spans="2:35">
       <c r="B64" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C64" s="6">
         <v>35475</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="65" spans="2:29">
       <c r="B65" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C65" s="6">
         <v>35476</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="66" spans="2:29">
       <c r="B66" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C66" s="6">
         <v>35449</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="67" spans="2:29">
       <c r="B67" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C67" s="6">
         <v>35479</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="68" spans="2:29">
       <c r="B68" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C68" s="6">
         <v>35479</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="69" spans="2:29">
       <c r="B69" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C69" s="6">
         <v>35492</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="70" spans="2:29">
       <c r="B70" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C70" s="6">
         <v>35497</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="71" spans="2:29">
       <c r="B71" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C71" s="6">
         <v>35512</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="72" spans="2:29">
       <c r="B72" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C72" s="6">
         <v>35482</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="73" spans="2:29">
       <c r="B73" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C73" s="6">
         <v>35482</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="74" spans="2:29">
       <c r="B74" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C74" s="6">
         <v>35504</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="75" spans="2:29">
       <c r="B75" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C75" s="6">
         <v>35519</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="76" spans="2:29">
       <c r="B76" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C76" s="6">
         <v>35527</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="77" spans="2:29">
       <c r="B77" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C77" s="6">
         <v>35535</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="78" spans="2:29">
       <c r="B78" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C78" s="6">
         <v>35478</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="79" spans="2:29">
       <c r="B79" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C79" s="6">
         <v>35482</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="80" spans="2:29">
       <c r="B80" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C80" s="6">
         <v>35486</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="81" spans="2:35">
       <c r="B81" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C81" s="6">
         <v>35483</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="82" spans="2:35">
       <c r="B82" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C82" s="6">
         <v>35495</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="83" spans="2:35">
       <c r="B83" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C83" s="6">
         <v>35454</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="84" spans="2:35">
       <c r="B84" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C84" s="6">
         <v>35487</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="85" spans="2:35">
       <c r="B85" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C85" s="6">
         <v>35492</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="86" spans="2:35">
       <c r="B86" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C86" s="6">
         <v>35497</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="87" spans="2:35">
       <c r="B87" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C87" s="6">
         <v>35499</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="88" spans="2:35">
       <c r="B88" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C88" s="6">
         <v>35486</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="89" spans="2:35">
       <c r="B89" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C89" s="6">
         <v>35487</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="90" spans="2:35">
       <c r="B90" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C90" s="6">
         <v>35492</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="91" spans="2:35">
       <c r="B91" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C91" s="6">
         <v>35497</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="92" spans="2:35">
       <c r="B92" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C92" s="6">
         <v>35499</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="93" spans="2:35">
       <c r="B93" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C93" s="6">
         <v>35542</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="94" spans="2:35">
       <c r="B94" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C94" s="6">
         <v>35496</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="95" spans="2:35">
       <c r="B95" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C95" s="6">
         <v>35497</v>
@@ -3619,7 +3619,7 @@
         <v>2220</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G95">
         <v>100</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="96" spans="2:35">
       <c r="B96" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C96" s="6">
         <v>35482</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="97" spans="2:34">
       <c r="B97" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C97" s="6">
         <v>35497</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="98" spans="2:34">
       <c r="B98" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C98" s="6">
         <v>35482</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="99" spans="2:34">
       <c r="B99" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C99" s="6">
         <v>35497</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="100" spans="2:34">
       <c r="B100" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C100" s="6">
         <v>35482</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="101" spans="2:34">
       <c r="B101" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C101" s="6">
         <v>35509</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="102" spans="2:34">
       <c r="B102" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C102" s="6">
         <v>35507</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="103" spans="2:34">
       <c r="B103" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C103" s="6">
         <v>35418</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="104" spans="2:34">
       <c r="B104" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C104" s="6">
         <v>35419</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="105" spans="2:34">
       <c r="B105" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C105" s="6">
         <v>35500</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="106" spans="2:34">
       <c r="B106" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C106" s="6">
         <v>35500</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="107" spans="2:34">
       <c r="B107" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C107" s="6">
         <v>35423</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="108" spans="2:34">
       <c r="B108" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C108" s="6">
         <v>35433</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="109" spans="2:34">
       <c r="B109" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C109" s="6">
         <v>35529</v>
@@ -4091,7 +4091,7 @@
     </row>
     <row r="110" spans="2:34">
       <c r="B110" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C110" s="6">
         <v>35438</v>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="111" spans="2:34">
       <c r="B111" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C111" s="6">
         <v>35514</v>
@@ -4127,7 +4127,7 @@
         <v>3330</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G111" s="7">
         <v>117.37411881234</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="112" spans="2:34">
       <c r="B112" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C112" s="6">
         <v>35501</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="113" spans="2:35">
       <c r="B113" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C113" s="6">
         <v>35440</v>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="114" spans="2:35">
       <c r="B114" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C114" s="6">
         <v>35441</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="115" spans="2:35">
       <c r="B115" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C115" s="6">
         <v>35446</v>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="116" spans="2:35">
       <c r="B116" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C116" s="6">
         <v>35440</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="117" spans="2:35">
       <c r="B117" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C117" s="6">
         <v>35514</v>
@@ -4314,7 +4314,7 @@
         <v>3270</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G117" s="7">
         <v>116.883933633271</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="118" spans="2:35">
       <c r="B118" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C118" s="6">
         <v>35452</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="119" spans="2:35">
       <c r="B119" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C119" s="6">
         <v>35453</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="120" spans="2:35">
       <c r="B120" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C120" s="6">
         <v>35456</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="121" spans="2:35">
       <c r="B121" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C121" s="6">
         <v>35458</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="122" spans="2:35">
       <c r="B122" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C122" s="6">
         <v>35461</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="123" spans="2:35">
       <c r="B123" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C123" s="6">
         <v>35462</v>
@@ -4532,7 +4532,7 @@
     </row>
     <row r="124" spans="2:35">
       <c r="B124" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C124" s="6">
         <v>35515</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="125" spans="2:35">
       <c r="B125" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C125" s="6">
         <v>35466</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="126" spans="2:35">
       <c r="B126" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C126" s="6">
         <v>35467</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="127" spans="2:35">
       <c r="B127" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C127" s="6">
         <v>35471</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="128" spans="2:35">
       <c r="B128" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C128" s="6">
         <v>35472</v>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="129" spans="2:35">
       <c r="B129" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C129" s="6">
         <v>35475</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="130" spans="2:35">
       <c r="B130" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C130" s="6">
         <v>35476</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="131" spans="2:35">
       <c r="B131" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C131" s="6">
         <v>35478</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="132" spans="2:35">
       <c r="B132" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C132" s="6">
         <v>35481</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="133" spans="2:35">
       <c r="B133" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C133" s="6">
         <v>35535</v>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="134" spans="2:35">
       <c r="B134" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C134" s="6">
         <v>35482</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="135" spans="2:35">
       <c r="B135" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C135" s="6">
         <v>35483</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="136" spans="2:35">
       <c r="B136" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C136" s="6">
         <v>35500</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="137" spans="2:35">
       <c r="B137" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C137" s="6">
         <v>35507</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="138" spans="2:35">
       <c r="B138" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C138" s="6">
         <v>35514</v>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="139" spans="2:35">
       <c r="B139" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C139" s="6">
         <v>35442</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="140" spans="2:35">
       <c r="B140" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C140" s="6">
         <v>35486</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="141" spans="2:35">
       <c r="B141" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C141" s="6">
         <v>35482</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="142" spans="2:35">
       <c r="B142" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C142" s="6">
         <v>35482</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="143" spans="2:35">
       <c r="B143" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C143" s="6">
         <v>35518</v>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="144" spans="2:35">
       <c r="B144" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C144" s="6">
         <v>35520</v>
@@ -5088,7 +5088,7 @@
     </row>
     <row r="145" spans="2:35">
       <c r="B145" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C145" s="6">
         <v>35521</v>
@@ -5101,7 +5101,7 @@
         <v>2930</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G145">
         <v>124</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="146" spans="2:35">
       <c r="B146" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C146" s="6">
         <v>35418</v>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="147" spans="2:35">
       <c r="B147" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C147" s="6">
         <v>35419</v>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="148" spans="2:35">
       <c r="B148" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C148" s="6">
         <v>35422</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="149" spans="2:35">
       <c r="B149" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C149" s="6">
         <v>35424</v>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="150" spans="2:35">
       <c r="B150" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C150" s="6">
         <v>35429</v>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="151" spans="2:35">
       <c r="B151" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C151" s="6">
         <v>35433</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="152" spans="2:35">
       <c r="B152" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C152" s="6">
         <v>35438</v>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="153" spans="2:35">
       <c r="B153" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C153" s="6">
         <v>35440</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="154" spans="2:35">
       <c r="B154" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C154" s="6">
         <v>35504</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="155" spans="2:35">
       <c r="B155" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C155" s="6">
         <v>35517</v>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="156" spans="2:35">
       <c r="B156" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C156" s="6">
         <v>35441</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="157" spans="2:35">
       <c r="B157" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C157" s="6">
         <v>35442</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="158" spans="2:35">
       <c r="B158" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C158" s="6">
         <v>35487</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="159" spans="2:35">
       <c r="B159" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C159" s="6">
         <v>35527</v>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="160" spans="2:35">
       <c r="B160" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C160" s="6">
         <v>35497</v>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="161" spans="2:34">
       <c r="B161" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C161" s="6">
         <v>35447</v>
@@ -5571,7 +5571,7 @@
     </row>
     <row r="162" spans="2:34">
       <c r="B162" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C162" s="6">
         <v>35449</v>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="163" spans="2:34">
       <c r="B163" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C163" s="6">
         <v>35451</v>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="164" spans="2:34">
       <c r="B164" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C164" s="6">
         <v>35452</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="165" spans="2:34">
       <c r="B165" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C165" s="6">
         <v>35528</v>
@@ -5662,7 +5662,7 @@
         <v>4400</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G165">
         <v>131</v>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="166" spans="2:34">
       <c r="B166" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C166" s="6">
         <v>35418</v>
@@ -5723,7 +5723,7 @@
     </row>
     <row r="167" spans="2:34">
       <c r="B167" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C167" s="6">
         <v>35418</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="168" spans="2:34">
       <c r="B168" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C168" s="6">
         <v>35515</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="169" spans="2:34">
       <c r="B169" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C169" s="6">
         <v>35504</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="170" spans="2:34">
       <c r="B170" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C170" s="6">
         <v>35454</v>
@@ -5830,7 +5830,7 @@
     </row>
     <row r="171" spans="2:34">
       <c r="B171" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C171" s="6">
         <v>35492</v>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="172" spans="2:34">
       <c r="B172" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C172" s="6">
         <v>35548</v>
@@ -5866,7 +5866,7 @@
         <v>4460</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G172">
         <v>111</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="173" spans="2:34">
       <c r="B173" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C173" s="6">
         <v>35497</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="174" spans="2:34">
       <c r="B174" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C174" s="6">
         <v>35512</v>
@@ -5962,7 +5962,7 @@
     </row>
     <row r="175" spans="2:34">
       <c r="B175" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C175" s="6">
         <v>35457</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="176" spans="2:34">
       <c r="B176" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C176" s="6">
         <v>35458</v>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="177" spans="2:34">
       <c r="B177" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C177" s="6">
         <v>35460</v>
@@ -6043,7 +6043,7 @@
     </row>
     <row r="178" spans="2:34">
       <c r="B178" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C178" s="6">
         <v>35461</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="179" spans="2:34">
       <c r="B179" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C179" s="6">
         <v>35519</v>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="180" spans="2:34">
       <c r="B180" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C180" s="6">
         <v>35498</v>
@@ -6115,7 +6115,7 @@
     </row>
     <row r="181" spans="2:34">
       <c r="B181" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C181" s="6">
         <v>35527</v>
@@ -6150,7 +6150,7 @@
     </row>
     <row r="182" spans="2:34">
       <c r="B182" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C182" s="6">
         <v>35535</v>
@@ -6163,7 +6163,7 @@
         <v>450</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G182" s="7">
         <v>97.5183097511417</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="183" spans="2:34">
       <c r="B183" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C183" s="6">
         <v>35505</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="184" spans="2:34">
       <c r="B184" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C184" s="6">
         <v>35505</v>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="185" spans="2:34">
       <c r="B185" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C185" s="6">
         <v>35500</v>
@@ -6282,7 +6282,7 @@
     </row>
     <row r="186" spans="2:34">
       <c r="B186" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C186" s="6">
         <v>35506</v>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="187" spans="2:34">
       <c r="B187" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C187" s="6">
         <v>35506</v>
@@ -6366,7 +6366,7 @@
     </row>
     <row r="188" spans="2:34">
       <c r="B188" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C188" s="6">
         <v>35521</v>
@@ -6389,7 +6389,7 @@
     </row>
     <row r="189" spans="2:34">
       <c r="B189" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C189" s="6">
         <v>35507</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="190" spans="2:34">
       <c r="B190" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C190" s="6">
         <v>35506</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="191" spans="2:34">
       <c r="B191" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C191" s="6">
         <v>35513</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="192" spans="2:34">
       <c r="B192" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C192" s="6">
         <v>35478</v>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="193" spans="2:35">
       <c r="B193" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C193" s="6">
         <v>35477</v>
@@ -6513,7 +6513,7 @@
     </row>
     <row r="194" spans="2:35">
       <c r="B194" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C194" s="6">
         <v>35507</v>
@@ -6536,7 +6536,7 @@
     </row>
     <row r="195" spans="2:35">
       <c r="B195" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C195" s="6">
         <v>35508</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="196" spans="2:35">
       <c r="B196" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C196" s="6">
         <v>35505</v>
@@ -6582,7 +6582,7 @@
     </row>
     <row r="197" spans="2:35">
       <c r="B197" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C197" s="6">
         <v>35478</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="198" spans="2:35">
       <c r="B198" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C198" s="6">
         <v>35500</v>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="199" spans="2:35">
       <c r="B199" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C199" s="6">
         <v>35501</v>
@@ -6651,7 +6651,7 @@
     </row>
     <row r="200" spans="2:35">
       <c r="B200" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C200" s="6">
         <v>35462</v>
@@ -6689,7 +6689,7 @@
     </row>
     <row r="201" spans="2:35">
       <c r="B201" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C201" s="6">
         <v>35500</v>
@@ -6715,7 +6715,7 @@
     </row>
     <row r="202" spans="2:35">
       <c r="B202" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C202" s="6">
         <v>35457</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="203" spans="2:35">
       <c r="B203" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C203" s="6">
         <v>35498</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="204" spans="2:35">
       <c r="B204" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C204" s="6">
         <v>35471</v>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="205" spans="2:35">
       <c r="B205" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C205" s="6">
         <v>35498</v>
@@ -6807,7 +6807,7 @@
     </row>
     <row r="206" spans="2:35">
       <c r="B206" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C206" s="6">
         <v>35525</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="207" spans="2:35">
       <c r="B207" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C207" s="6">
         <v>35521</v>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="208" spans="2:35">
       <c r="B208" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C208" s="6">
         <v>35513</v>
@@ -6876,7 +6876,7 @@
     </row>
     <row r="209" spans="2:35">
       <c r="B209" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C209" s="6">
         <v>35507</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="210" spans="2:35">
       <c r="B210" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C210" s="6">
         <v>35500</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="211" spans="2:35">
       <c r="B211" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C211" s="6">
         <v>35509</v>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="212" spans="2:35">
       <c r="B212" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C212" s="6">
         <v>35466</v>
@@ -6989,7 +6989,7 @@
     </row>
     <row r="213" spans="2:35">
       <c r="B213" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C213" s="6">
         <v>35467</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="214" spans="2:35">
       <c r="B214" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C214" s="6">
         <v>35470</v>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="215" spans="2:35">
       <c r="B215" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C215" s="6">
         <v>35471</v>
@@ -7076,7 +7076,7 @@
     </row>
     <row r="216" spans="2:35">
       <c r="B216" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C216" s="6">
         <v>35510</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="217" spans="2:35">
       <c r="B217" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C217" s="6">
         <v>35505</v>
@@ -7137,7 +7137,7 @@
     </row>
     <row r="218" spans="2:35">
       <c r="B218" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C218" s="6">
         <v>35508</v>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="219" spans="2:35">
       <c r="B219" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C219" s="6">
         <v>35472</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="220" spans="2:35">
       <c r="B220" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C220" s="6">
         <v>35475</v>
@@ -7206,7 +7206,7 @@
     </row>
     <row r="221" spans="2:35">
       <c r="B221" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C221" s="6">
         <v>35501</v>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="222" spans="2:35">
       <c r="B222" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C222" s="6">
         <v>35509</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="223" spans="2:35">
       <c r="B223" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C223" s="6">
         <v>35513</v>
@@ -7296,7 +7296,7 @@
     </row>
     <row r="224" spans="2:35">
       <c r="B224" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C224" s="6">
         <v>35531</v>
@@ -7319,7 +7319,7 @@
     </row>
     <row r="225" spans="2:35">
       <c r="B225" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C225" s="6">
         <v>35506</v>
@@ -7345,7 +7345,7 @@
     </row>
     <row r="226" spans="2:35">
       <c r="B226" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C226" s="6">
         <v>35480</v>
@@ -7368,7 +7368,7 @@
     </row>
     <row r="227" spans="2:35">
       <c r="B227" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C227" s="6">
         <v>35445</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="228" spans="2:35">
       <c r="B228" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C228" s="6">
         <v>35477</v>
@@ -7417,7 +7417,7 @@
     </row>
     <row r="229" spans="2:35">
       <c r="B229" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C229" s="6">
         <v>35478</v>
@@ -7440,7 +7440,7 @@
     </row>
     <row r="230" spans="2:35">
       <c r="B230" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C230" s="6">
         <v>35482</v>
@@ -7475,7 +7475,7 @@
     </row>
     <row r="231" spans="2:35">
       <c r="B231" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C231" s="6">
         <v>35483</v>
@@ -7510,7 +7510,7 @@
     </row>
     <row r="232" spans="2:35">
       <c r="B232" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C232" s="6">
         <v>35511</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="233" spans="2:35">
       <c r="B233" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C233" s="6">
         <v>35531</v>
@@ -7556,7 +7556,7 @@
     </row>
     <row r="234" spans="2:35">
       <c r="B234" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C234" s="6">
         <v>35492</v>
@@ -7579,7 +7579,7 @@
     </row>
     <row r="235" spans="2:35">
       <c r="B235" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C235" s="6">
         <v>35495</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="236" spans="2:35">
       <c r="B236" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C236" s="6">
         <v>35510</v>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="237" spans="2:35">
       <c r="B237" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C237" s="6">
         <v>35501</v>
@@ -7657,7 +7657,7 @@
     </row>
     <row r="238" spans="2:35">
       <c r="B238" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C238" s="6">
         <v>35522</v>
@@ -7680,7 +7680,7 @@
     </row>
     <row r="239" spans="2:35">
       <c r="B239" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C239" s="6">
         <v>35514</v>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="240" spans="2:35">
       <c r="B240" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C240" s="6">
         <v>35496</v>
@@ -7727,7 +7727,7 @@
     </row>
     <row r="241" spans="2:34">
       <c r="B241" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C241" s="6">
         <v>35522</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="242" spans="2:34">
       <c r="B242" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C242" s="6">
         <v>35471</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="243" spans="2:34">
       <c r="B243" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C243" s="6">
         <v>35497</v>
@@ -7786,7 +7786,7 @@
         <v>1830</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G243" s="7">
         <v>99.745549142345993</v>
@@ -7827,7 +7827,7 @@
     </row>
     <row r="244" spans="2:34">
       <c r="B244" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C244" s="6">
         <v>35457</v>
@@ -7850,7 +7850,7 @@
     </row>
     <row r="245" spans="2:34">
       <c r="B245" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C245" s="6">
         <v>35418</v>
@@ -7876,7 +7876,7 @@
     </row>
     <row r="246" spans="2:34">
       <c r="B246" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C246" s="6">
         <v>35521</v>
@@ -7899,7 +7899,7 @@
     </row>
     <row r="247" spans="2:34">
       <c r="B247" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C247" s="6">
         <v>35419</v>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="248" spans="2:34">
       <c r="B248" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C248" s="6">
         <v>35438</v>
@@ -7954,7 +7954,7 @@
     </row>
     <row r="249" spans="2:34">
       <c r="B249" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C249" s="6">
         <v>35473</v>
@@ -7977,7 +7977,7 @@
     </row>
     <row r="250" spans="2:34">
       <c r="B250" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C250" s="6">
         <v>35504</v>
@@ -8015,7 +8015,7 @@
     </row>
     <row r="251" spans="2:34">
       <c r="B251" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C251" s="6">
         <v>35424</v>
@@ -8041,7 +8041,7 @@
     </row>
     <row r="252" spans="2:34">
       <c r="B252" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C252" s="6">
         <v>35429</v>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="253" spans="2:34">
       <c r="B253" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C253" s="6">
         <v>35433</v>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="254" spans="2:34">
       <c r="B254" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C254" s="6">
         <v>35439</v>
@@ -8110,7 +8110,7 @@
     </row>
     <row r="255" spans="2:34">
       <c r="B255" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C255" s="6">
         <v>35505</v>
@@ -8142,7 +8142,7 @@
     </row>
     <row r="256" spans="2:34">
       <c r="B256" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C256" s="6">
         <v>35433</v>
@@ -8165,7 +8165,7 @@
     </row>
     <row r="257" spans="2:31">
       <c r="B257" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C257" s="6">
         <v>35539</v>
@@ -8188,7 +8188,7 @@
     </row>
     <row r="258" spans="2:31">
       <c r="B258" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C258" s="6">
         <v>35440</v>
@@ -8211,7 +8211,7 @@
     </row>
     <row r="259" spans="2:31">
       <c r="B259" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C259" s="6">
         <v>35441</v>
@@ -8237,7 +8237,7 @@
     </row>
     <row r="260" spans="2:31">
       <c r="B260" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C260" s="6">
         <v>35442</v>
@@ -8269,7 +8269,7 @@
     </row>
     <row r="261" spans="2:31">
       <c r="B261" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C261" s="6">
         <v>35545</v>
@@ -8292,7 +8292,7 @@
     </row>
     <row r="262" spans="2:31">
       <c r="B262" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C262" s="6">
         <v>35446</v>
@@ -8315,7 +8315,7 @@
     </row>
     <row r="263" spans="2:31">
       <c r="B263" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C263" s="6">
         <v>35449</v>
@@ -8338,7 +8338,7 @@
     </row>
     <row r="264" spans="2:31">
       <c r="B264" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C264" s="6">
         <v>35513</v>
@@ -8361,7 +8361,7 @@
     </row>
     <row r="265" spans="2:31">
       <c r="B265" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C265" s="6">
         <v>35451</v>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="266" spans="2:31">
       <c r="B266" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C266" s="6">
         <v>35452</v>
@@ -8416,7 +8416,7 @@
     </row>
     <row r="267" spans="2:31">
       <c r="B267" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C267" s="6">
         <v>35524</v>
@@ -8439,7 +8439,7 @@
     </row>
     <row r="268" spans="2:31">
       <c r="B268" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C268" s="6">
         <v>35513</v>
@@ -8462,7 +8462,7 @@
     </row>
     <row r="269" spans="2:31">
       <c r="B269" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C269" s="6">
         <v>35473</v>
@@ -8485,7 +8485,7 @@
     </row>
     <row r="270" spans="2:31">
       <c r="B270" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C270" s="6">
         <v>35453</v>
@@ -8508,7 +8508,7 @@
     </row>
     <row r="271" spans="2:31">
       <c r="B271" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C271" s="6">
         <v>35504</v>
@@ -8546,7 +8546,7 @@
     </row>
     <row r="272" spans="2:31">
       <c r="B272" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C272" s="6">
         <v>35454</v>
@@ -8572,7 +8572,7 @@
     </row>
     <row r="273" spans="2:35">
       <c r="B273" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C273" s="6">
         <v>35505</v>
@@ -8595,7 +8595,7 @@
     </row>
     <row r="274" spans="2:35">
       <c r="B274" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C274" s="6">
         <v>35457</v>
@@ -8621,7 +8621,7 @@
     </row>
     <row r="275" spans="2:35">
       <c r="B275" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C275" s="6">
         <v>35457</v>
@@ -8644,7 +8644,7 @@
     </row>
     <row r="276" spans="2:35">
       <c r="B276" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C276" s="6">
         <v>35539</v>
@@ -8670,7 +8670,7 @@
     </row>
     <row r="277" spans="2:35">
       <c r="B277" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C277" s="6">
         <v>35433</v>
@@ -8693,7 +8693,7 @@
     </row>
     <row r="278" spans="2:35">
       <c r="B278" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C278" s="6">
         <v>35458</v>
@@ -8719,7 +8719,7 @@
     </row>
     <row r="279" spans="2:35">
       <c r="B279" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C279" s="6">
         <v>35479</v>
@@ -8742,7 +8742,7 @@
     </row>
     <row r="280" spans="2:35">
       <c r="B280" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C280" s="6">
         <v>35506</v>
@@ -8772,7 +8772,7 @@
     </row>
     <row r="281" spans="2:35">
       <c r="B281" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C281" s="6">
         <v>35525</v>
@@ -8795,7 +8795,7 @@
     </row>
     <row r="282" spans="2:35">
       <c r="B282" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C282" s="6">
         <v>35460</v>
@@ -8821,7 +8821,7 @@
     </row>
     <row r="283" spans="2:35">
       <c r="B283" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C283" s="6">
         <v>35461</v>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="284" spans="2:35">
       <c r="B284" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C284" s="6">
         <v>35462</v>
@@ -8879,7 +8879,7 @@
     </row>
     <row r="285" spans="2:35">
       <c r="B285" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C285" s="6">
         <v>35466</v>
@@ -8902,7 +8902,7 @@
     </row>
     <row r="286" spans="2:35">
       <c r="B286" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C286" s="6">
         <v>35467</v>
@@ -8931,7 +8931,7 @@
     </row>
     <row r="287" spans="2:35">
       <c r="B287" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C287" s="6">
         <v>35471</v>
@@ -8966,7 +8966,7 @@
     </row>
     <row r="288" spans="2:35">
       <c r="B288" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C288" s="6">
         <v>35433</v>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="289" spans="2:35">
       <c r="B289" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C289" s="6">
         <v>35446</v>
@@ -9012,7 +9012,7 @@
     </row>
     <row r="290" spans="2:35">
       <c r="B290" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C290" s="6">
         <v>35472</v>
@@ -9038,7 +9038,7 @@
     </row>
     <row r="291" spans="2:35">
       <c r="B291" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C291" s="6">
         <v>35472</v>
@@ -9061,7 +9061,7 @@
     </row>
     <row r="292" spans="2:35">
       <c r="B292" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C292" s="6">
         <v>35477</v>
@@ -9087,7 +9087,7 @@
     </row>
     <row r="293" spans="2:35">
       <c r="B293" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C293" s="6">
         <v>35478</v>
@@ -9110,7 +9110,7 @@
     </row>
     <row r="294" spans="2:35">
       <c r="B294" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C294" s="6">
         <v>35481</v>
@@ -9134,7 +9134,7 @@
     </row>
     <row r="295" spans="2:35">
       <c r="B295" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C295" s="6">
         <v>35507</v>
@@ -9157,7 +9157,7 @@
     </row>
     <row r="296" spans="2:35">
       <c r="B296" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C296" s="6">
         <v>35482</v>
@@ -9186,7 +9186,7 @@
     </row>
     <row r="297" spans="2:35">
       <c r="B297" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C297" s="6">
         <v>35483</v>
@@ -9221,7 +9221,7 @@
     </row>
     <row r="298" spans="2:35">
       <c r="B298" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C298" s="6">
         <v>35439</v>
@@ -9247,7 +9247,7 @@
     </row>
     <row r="299" spans="2:35">
       <c r="B299" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C299" s="6">
         <v>35506</v>
@@ -9270,7 +9270,7 @@
     </row>
     <row r="300" spans="2:35">
       <c r="B300" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C300" s="6">
         <v>35497</v>
@@ -9293,7 +9293,7 @@
     </row>
     <row r="301" spans="2:35">
       <c r="B301" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C301" s="6">
         <v>35479</v>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="302" spans="2:35">
       <c r="B302" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C302" s="6">
         <v>35507</v>
@@ -9340,7 +9340,7 @@
     </row>
     <row r="303" spans="2:35">
       <c r="B303" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C303" s="6">
         <v>35508</v>
@@ -9366,7 +9366,7 @@
     </row>
     <row r="304" spans="2:35">
       <c r="B304" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C304" s="6">
         <v>35523</v>
@@ -9389,7 +9389,7 @@
     </row>
     <row r="305" spans="2:29">
       <c r="B305" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C305" s="6">
         <v>35502</v>
@@ -9412,7 +9412,7 @@
     </row>
     <row r="306" spans="2:29">
       <c r="B306" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C306" s="6">
         <v>35499</v>
@@ -9441,7 +9441,7 @@
     </row>
     <row r="307" spans="2:29">
       <c r="B307" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C307" s="6">
         <v>35500</v>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="308" spans="2:29">
       <c r="B308" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C308" s="6">
         <v>35501</v>
@@ -9501,7 +9501,7 @@
     </row>
     <row r="309" spans="2:29">
       <c r="B309" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C309" s="6">
         <v>35472</v>
@@ -9524,7 +9524,7 @@
     </row>
     <row r="310" spans="2:29">
       <c r="B310" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C310" s="6">
         <v>35509</v>
@@ -9550,7 +9550,7 @@
     </row>
     <row r="311" spans="2:29">
       <c r="B311" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C311" s="6">
         <v>35455</v>
@@ -9573,7 +9573,7 @@
     </row>
     <row r="312" spans="2:29">
       <c r="B312" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C312" s="6">
         <v>35502</v>
@@ -9596,7 +9596,7 @@
     </row>
     <row r="313" spans="2:29">
       <c r="B313" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C313" s="6">
         <v>35506</v>
@@ -9619,7 +9619,7 @@
     </row>
     <row r="314" spans="2:29">
       <c r="B314" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C314" s="6">
         <v>35439</v>
@@ -9642,7 +9642,7 @@
     </row>
     <row r="315" spans="2:29">
       <c r="B315" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C315" s="6">
         <v>35447</v>
@@ -9665,7 +9665,7 @@
     </row>
     <row r="316" spans="2:29">
       <c r="B316" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C316" s="6">
         <v>35502</v>
@@ -9688,7 +9688,7 @@
     </row>
     <row r="317" spans="2:29">
       <c r="B317" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C317" s="6">
         <v>35424</v>
@@ -9714,7 +9714,7 @@
     </row>
     <row r="318" spans="2:29">
       <c r="B318" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C318" s="6">
         <v>35423</v>
@@ -9737,7 +9737,7 @@
     </row>
     <row r="319" spans="2:29">
       <c r="B319" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C319" s="6">
         <v>35423</v>
@@ -9760,7 +9760,7 @@
     </row>
     <row r="320" spans="2:29">
       <c r="B320" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C320" s="6">
         <v>35515</v>
@@ -9790,7 +9790,7 @@
     </row>
     <row r="321" spans="2:34">
       <c r="B321" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C321" s="6">
         <v>35503</v>
@@ -9813,7 +9813,7 @@
     </row>
     <row r="322" spans="2:34">
       <c r="B322" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C322" s="6">
         <v>35514</v>
@@ -9836,7 +9836,7 @@
     </row>
     <row r="323" spans="2:34">
       <c r="B323" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C323" s="6">
         <v>35515</v>
@@ -9859,7 +9859,7 @@
     </row>
     <row r="324" spans="2:34">
       <c r="B324" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C324" s="6">
         <v>35504</v>
@@ -9888,7 +9888,7 @@
     </row>
     <row r="325" spans="2:34">
       <c r="B325" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C325" s="6">
         <v>35517</v>
@@ -9911,7 +9911,7 @@
     </row>
     <row r="326" spans="2:34">
       <c r="B326" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C326" s="6">
         <v>35528</v>
@@ -9937,7 +9937,7 @@
     </row>
     <row r="327" spans="2:34">
       <c r="B327" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C327" s="6">
         <v>35473</v>
@@ -9961,7 +9961,7 @@
     </row>
     <row r="328" spans="2:34">
       <c r="B328" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C328" s="6">
         <v>35419</v>
@@ -9990,7 +9990,7 @@
     </row>
     <row r="329" spans="2:34">
       <c r="B329" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C329" s="6">
         <v>35419</v>
@@ -10016,7 +10016,7 @@
     </row>
     <row r="330" spans="2:34">
       <c r="B330" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C330" s="6">
         <v>35505</v>
@@ -10039,7 +10039,7 @@
     </row>
     <row r="331" spans="2:34">
       <c r="B331" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C331" s="6">
         <v>35419</v>
@@ -10068,7 +10068,7 @@
     </row>
     <row r="332" spans="2:34">
       <c r="B332" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C332" s="6">
         <v>35506</v>
@@ -10106,7 +10106,7 @@
     </row>
     <row r="333" spans="2:34">
       <c r="B333" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C333" s="6">
         <v>35516</v>
@@ -10129,7 +10129,7 @@
     </row>
     <row r="334" spans="2:34">
       <c r="B334" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C334" s="6">
         <v>35519</v>
@@ -10158,7 +10158,7 @@
     </row>
     <row r="335" spans="2:34">
       <c r="B335" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C335" s="6">
         <v>35520</v>
@@ -10181,7 +10181,7 @@
     </row>
     <row r="336" spans="2:34">
       <c r="B336" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C336" s="6">
         <v>35521</v>
@@ -10194,7 +10194,7 @@
         <v>2810</v>
       </c>
       <c r="F336" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G336" s="7">
         <v>123.746387700844</v>
@@ -10238,10 +10238,10 @@
     </row>
     <row r="337" spans="1:31">
       <c r="A337" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B337" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C337" s="6">
         <v>35418</v>
@@ -10279,7 +10279,7 @@
     </row>
     <row r="338" spans="1:31">
       <c r="B338" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C338" s="6">
         <v>35419</v>
@@ -10308,7 +10308,7 @@
     </row>
     <row r="339" spans="1:31">
       <c r="B339" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C339" s="6">
         <v>35420</v>
@@ -10331,7 +10331,7 @@
     </row>
     <row r="340" spans="1:31">
       <c r="B340" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C340" s="6">
         <v>35424</v>
@@ -10369,7 +10369,7 @@
     </row>
     <row r="341" spans="1:31">
       <c r="B341" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C341" s="6">
         <v>35429</v>
@@ -10404,7 +10404,7 @@
     </row>
     <row r="342" spans="1:31">
       <c r="B342" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C342" s="6">
         <v>35433</v>
@@ -10427,7 +10427,7 @@
     </row>
     <row r="343" spans="1:31">
       <c r="B343" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C343" s="6">
         <v>35439</v>
@@ -10453,7 +10453,7 @@
     </row>
     <row r="344" spans="1:31">
       <c r="B344" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C344" s="6">
         <v>35441</v>
@@ -10482,7 +10482,7 @@
     </row>
     <row r="345" spans="1:31">
       <c r="B345" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C345" s="6">
         <v>35442</v>
@@ -10523,7 +10523,7 @@
     </row>
     <row r="346" spans="1:31">
       <c r="B346" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C346" s="6">
         <v>35446</v>
@@ -10546,7 +10546,7 @@
     </row>
     <row r="347" spans="1:31">
       <c r="B347" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C347" s="6">
         <v>35449</v>
@@ -10584,7 +10584,7 @@
     </row>
     <row r="348" spans="1:31">
       <c r="B348" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C348" s="6">
         <v>35451</v>
@@ -10608,7 +10608,7 @@
     </row>
     <row r="349" spans="1:31">
       <c r="B349" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C349" s="6">
         <v>35452</v>
@@ -10640,7 +10640,7 @@
     </row>
     <row r="350" spans="1:31">
       <c r="B350" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C350" s="6">
         <v>35454</v>
@@ -10678,7 +10678,7 @@
     </row>
     <row r="351" spans="1:31">
       <c r="B351" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C351" s="6">
         <v>35457</v>
@@ -10710,7 +10710,7 @@
     </row>
     <row r="352" spans="1:31">
       <c r="B352" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C352" s="6">
         <v>35458</v>
@@ -10733,7 +10733,7 @@
     </row>
     <row r="353" spans="2:35">
       <c r="B353" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C353" s="6">
         <v>35460</v>
@@ -10768,7 +10768,7 @@
     </row>
     <row r="354" spans="2:35">
       <c r="B354" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C354" s="6">
         <v>35461</v>
@@ -10797,7 +10797,7 @@
     </row>
     <row r="355" spans="2:35">
       <c r="B355" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C355" s="6">
         <v>35462</v>
@@ -10830,7 +10830,7 @@
     </row>
     <row r="356" spans="2:35">
       <c r="B356" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C356" s="6">
         <v>35467</v>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="357" spans="2:35">
       <c r="B357" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C357" s="6">
         <v>35471</v>
@@ -10900,7 +10900,7 @@
     </row>
     <row r="358" spans="2:35">
       <c r="B358" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C358" s="6">
         <v>35472</v>
@@ -10923,7 +10923,7 @@
     </row>
     <row r="359" spans="2:35">
       <c r="B359" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C359" s="6">
         <v>35473</v>
@@ -10946,7 +10946,7 @@
     </row>
     <row r="360" spans="2:35">
       <c r="B360" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C360" s="6">
         <v>35475</v>
@@ -10972,7 +10972,7 @@
     </row>
     <row r="361" spans="2:35">
       <c r="B361" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C361" s="6">
         <v>35476</v>
@@ -10992,7 +10992,7 @@
     </row>
     <row r="362" spans="2:35">
       <c r="B362" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C362" s="6">
         <v>35477</v>
@@ -11027,7 +11027,7 @@
     </row>
     <row r="363" spans="2:35">
       <c r="B363" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C363" s="6">
         <v>35480</v>
@@ -11050,7 +11050,7 @@
     </row>
     <row r="364" spans="2:35">
       <c r="B364" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C364" s="6">
         <v>35481</v>
@@ -11073,7 +11073,7 @@
     </row>
     <row r="365" spans="2:35">
       <c r="B365" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C365" s="6">
         <v>35482</v>
@@ -11120,7 +11120,7 @@
     </row>
     <row r="366" spans="2:35">
       <c r="B366" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C366" s="6">
         <v>35483</v>
@@ -11155,7 +11155,7 @@
     </row>
     <row r="367" spans="2:35">
       <c r="B367" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C367" s="6">
         <v>35488</v>
@@ -11175,7 +11175,7 @@
     </row>
     <row r="368" spans="2:35">
       <c r="B368" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C368" s="6">
         <v>35489</v>
@@ -11205,7 +11205,7 @@
     </row>
     <row r="369" spans="2:34">
       <c r="B369" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C369" s="6">
         <v>35490</v>
@@ -11218,7 +11218,7 @@
         <v>1340</v>
       </c>
       <c r="F369" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G369" s="7">
         <v>92.588561039988406</v>
@@ -11256,7 +11256,7 @@
     </row>
     <row r="370" spans="2:34">
       <c r="B370" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C370" s="6">
         <v>35492</v>
@@ -11279,7 +11279,7 @@
     </row>
     <row r="371" spans="2:34">
       <c r="B371" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C371" s="6">
         <v>35497</v>
@@ -11311,7 +11311,7 @@
     </row>
     <row r="372" spans="2:34">
       <c r="B372" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C372" s="6">
         <v>35502</v>
@@ -11343,7 +11343,7 @@
     </row>
     <row r="373" spans="2:34">
       <c r="B373" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C373" s="6">
         <v>35515</v>
@@ -11375,7 +11375,7 @@
     </row>
     <row r="374" spans="2:34">
       <c r="B374" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C374" s="6">
         <v>35522</v>
@@ -11407,7 +11407,7 @@
     </row>
     <row r="375" spans="2:34">
       <c r="B375" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C375" s="6">
         <v>35418</v>
@@ -11448,7 +11448,7 @@
     </row>
     <row r="376" spans="2:34">
       <c r="B376" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C376" s="6">
         <v>35419</v>
@@ -11477,7 +11477,7 @@
     </row>
     <row r="377" spans="2:34">
       <c r="B377" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C377" s="6">
         <v>35424</v>
@@ -11515,7 +11515,7 @@
     </row>
     <row r="378" spans="2:34">
       <c r="B378" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C378" s="6">
         <v>35429</v>
@@ -11550,7 +11550,7 @@
     </row>
     <row r="379" spans="2:34">
       <c r="B379" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C379" s="6">
         <v>35433</v>
@@ -11573,7 +11573,7 @@
     </row>
     <row r="380" spans="2:34">
       <c r="B380" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C380" s="6">
         <v>35439</v>
@@ -11596,7 +11596,7 @@
     </row>
     <row r="381" spans="2:34">
       <c r="B381" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C381" s="6">
         <v>35440</v>
@@ -11619,7 +11619,7 @@
     </row>
     <row r="382" spans="2:34">
       <c r="B382" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C382" s="6">
         <v>35441</v>
@@ -11645,7 +11645,7 @@
     </row>
     <row r="383" spans="2:34">
       <c r="B383" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C383" s="6">
         <v>35442</v>
@@ -11689,7 +11689,7 @@
     </row>
     <row r="384" spans="2:34">
       <c r="B384" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C384" s="6">
         <v>35446</v>
@@ -11712,7 +11712,7 @@
     </row>
     <row r="385" spans="2:35">
       <c r="B385" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C385" s="6">
         <v>35449</v>
@@ -11747,7 +11747,7 @@
     </row>
     <row r="386" spans="2:35">
       <c r="B386" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C386" s="6">
         <v>35451</v>
@@ -11770,7 +11770,7 @@
     </row>
     <row r="387" spans="2:35">
       <c r="B387" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C387" s="6">
         <v>35452</v>
@@ -11803,7 +11803,7 @@
     </row>
     <row r="388" spans="2:35">
       <c r="B388" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C388" s="6">
         <v>35454</v>
@@ -11844,7 +11844,7 @@
     </row>
     <row r="389" spans="2:35">
       <c r="B389" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C389" s="6">
         <v>35458</v>
@@ -11876,7 +11876,7 @@
     </row>
     <row r="390" spans="2:35">
       <c r="B390" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C390" s="6">
         <v>35460</v>
@@ -11914,7 +11914,7 @@
     </row>
     <row r="391" spans="2:35">
       <c r="B391" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C391" s="6">
         <v>35461</v>
@@ -11943,7 +11943,7 @@
     </row>
     <row r="392" spans="2:35">
       <c r="B392" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C392" s="6">
         <v>35462</v>
@@ -11972,7 +11972,7 @@
     </row>
     <row r="393" spans="2:35">
       <c r="B393" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C393" s="6">
         <v>35466</v>
@@ -11995,7 +11995,7 @@
     </row>
     <row r="394" spans="2:35">
       <c r="B394" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C394" s="6">
         <v>35467</v>
@@ -12027,7 +12027,7 @@
     </row>
     <row r="395" spans="2:35">
       <c r="B395" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C395" s="6">
         <v>35471</v>
@@ -12056,7 +12056,7 @@
     </row>
     <row r="396" spans="2:35">
       <c r="B396" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C396" s="6">
         <v>35472</v>
@@ -12085,7 +12085,7 @@
     </row>
     <row r="397" spans="2:35">
       <c r="B397" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C397" s="6">
         <v>35475</v>
@@ -12108,7 +12108,7 @@
     </row>
     <row r="398" spans="2:35">
       <c r="B398" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C398" s="6">
         <v>35476</v>
@@ -12131,7 +12131,7 @@
     </row>
     <row r="399" spans="2:35">
       <c r="B399" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C399" s="6">
         <v>35477</v>
@@ -12166,7 +12166,7 @@
     </row>
     <row r="400" spans="2:35">
       <c r="B400" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C400" s="6">
         <v>35478</v>
@@ -12189,7 +12189,7 @@
     </row>
     <row r="401" spans="2:35">
       <c r="B401" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C401" s="6">
         <v>35482</v>
@@ -12236,7 +12236,7 @@
     </row>
     <row r="402" spans="2:35">
       <c r="B402" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C402" s="6">
         <v>35483</v>
@@ -12271,7 +12271,7 @@
     </row>
     <row r="403" spans="2:35">
       <c r="B403" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C403" s="6">
         <v>35492</v>
@@ -12291,7 +12291,7 @@
     </row>
     <row r="404" spans="2:35">
       <c r="B404" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C404" s="6">
         <v>35497</v>
@@ -12326,7 +12326,7 @@
     </row>
     <row r="405" spans="2:35">
       <c r="B405" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C405" s="6">
         <v>35501</v>
@@ -12349,7 +12349,7 @@
     </row>
     <row r="406" spans="2:35">
       <c r="B406" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C406" s="6">
         <v>35502</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="407" spans="2:35">
       <c r="B407" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C407" s="6">
         <v>35508</v>
@@ -12407,7 +12407,7 @@
     </row>
     <row r="408" spans="2:35">
       <c r="B408" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C408" s="6">
         <v>35510</v>
@@ -12430,7 +12430,7 @@
     </row>
     <row r="409" spans="2:35">
       <c r="B409" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C409" s="6">
         <v>35513</v>
@@ -12457,7 +12457,7 @@
     </row>
     <row r="410" spans="2:35">
       <c r="B410" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C410" s="6">
         <v>35514</v>
@@ -12483,7 +12483,7 @@
     </row>
     <row r="411" spans="2:35">
       <c r="B411" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C411" s="6">
         <v>35515</v>
@@ -12524,7 +12524,7 @@
     </row>
     <row r="412" spans="2:35">
       <c r="B412" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C412" s="6">
         <v>35522</v>
@@ -12537,7 +12537,7 @@
         <v>1490</v>
       </c>
       <c r="F412" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G412">
         <v>125</v>
@@ -12584,7 +12584,7 @@
     </row>
     <row r="413" spans="2:35">
       <c r="B413" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C413" s="6">
         <v>35441</v>
@@ -12607,7 +12607,7 @@
     </row>
     <row r="414" spans="2:35">
       <c r="B414" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C414" s="6">
         <v>35451</v>
@@ -12630,7 +12630,7 @@
     </row>
     <row r="415" spans="2:35">
       <c r="B415" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C415" s="6">
         <v>35483</v>
@@ -12656,7 +12656,7 @@
     </row>
     <row r="416" spans="2:35">
       <c r="B416" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C416" s="6">
         <v>35494</v>
@@ -12679,7 +12679,7 @@
     </row>
     <row r="417" spans="2:35">
       <c r="B417" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C417" s="6">
         <v>35496</v>
@@ -12702,7 +12702,7 @@
     </row>
     <row r="418" spans="2:35">
       <c r="B418" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C418" s="6">
         <v>35504</v>
@@ -12728,7 +12728,7 @@
     </row>
     <row r="419" spans="2:35">
       <c r="B419" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C419" s="6">
         <v>35513</v>
@@ -12754,7 +12754,7 @@
     </row>
     <row r="420" spans="2:35">
       <c r="B420" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C420" s="6">
         <v>35524</v>
@@ -12777,7 +12777,7 @@
     </row>
     <row r="421" spans="2:35">
       <c r="B421" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C421" s="6">
         <v>35526</v>
@@ -12800,7 +12800,7 @@
     </row>
     <row r="422" spans="2:35">
       <c r="B422" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C422" s="6">
         <v>35420</v>
@@ -12823,7 +12823,7 @@
     </row>
     <row r="423" spans="2:35">
       <c r="B423" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C423" s="6">
         <v>35429</v>
@@ -12846,7 +12846,7 @@
     </row>
     <row r="424" spans="2:35">
       <c r="B424" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C424" s="6">
         <v>35440</v>
@@ -12872,7 +12872,7 @@
     </row>
     <row r="425" spans="2:35">
       <c r="B425" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C425" s="6">
         <v>35449</v>
@@ -12895,7 +12895,7 @@
     </row>
     <row r="426" spans="2:35">
       <c r="B426" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C426" s="6">
         <v>35454</v>
@@ -12918,7 +12918,7 @@
     </row>
     <row r="427" spans="2:35">
       <c r="B427" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C427" s="6">
         <v>35460</v>
@@ -12941,7 +12941,7 @@
     </row>
     <row r="428" spans="2:35">
       <c r="B428" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C428" s="6">
         <v>35481</v>
@@ -12967,7 +12967,7 @@
     </row>
     <row r="429" spans="2:35">
       <c r="B429" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C429" s="6">
         <v>35483</v>
@@ -12996,7 +12996,7 @@
     </row>
     <row r="430" spans="2:35">
       <c r="B430" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C430" s="6">
         <v>35494</v>
@@ -13025,7 +13025,7 @@
     </row>
     <row r="431" spans="2:35">
       <c r="B431" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C431" s="6">
         <v>35495</v>
@@ -13048,7 +13048,7 @@
     </row>
     <row r="432" spans="2:35">
       <c r="B432" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C432" s="6">
         <v>35496</v>
@@ -13071,7 +13071,7 @@
     </row>
     <row r="433" spans="2:35">
       <c r="B433" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C433" s="6">
         <v>35497</v>
@@ -13094,7 +13094,7 @@
     </row>
     <row r="434" spans="2:35">
       <c r="B434" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C434" s="6">
         <v>35502</v>
@@ -13117,7 +13117,7 @@
     </row>
     <row r="435" spans="2:35">
       <c r="B435" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C435" s="6">
         <v>35503</v>
@@ -13141,7 +13141,7 @@
     </row>
     <row r="436" spans="2:35">
       <c r="B436" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C436" s="6">
         <v>35504</v>
@@ -13167,7 +13167,7 @@
     </row>
     <row r="437" spans="2:35">
       <c r="B437" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C437" s="6">
         <v>35506</v>
@@ -13190,7 +13190,7 @@
     </row>
     <row r="438" spans="2:35">
       <c r="B438" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C438" s="6">
         <v>35512</v>
@@ -13216,7 +13216,7 @@
     </row>
     <row r="439" spans="2:35">
       <c r="B439" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C439" s="6">
         <v>35517</v>
@@ -13240,7 +13240,7 @@
     </row>
     <row r="440" spans="2:35">
       <c r="B440" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C440" s="6">
         <v>35518</v>
@@ -13263,7 +13263,7 @@
     </row>
     <row r="441" spans="2:35">
       <c r="B441" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C441" s="6">
         <v>35520</v>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="442" spans="2:35">
       <c r="B442" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C442" s="6">
         <v>35521</v>
@@ -13312,7 +13312,7 @@
     </row>
     <row r="443" spans="2:35">
       <c r="B443" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C443" s="6">
         <v>35440</v>
@@ -13338,7 +13338,7 @@
     </row>
     <row r="444" spans="2:35">
       <c r="B444" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C444" s="6">
         <v>35441</v>
@@ -13361,7 +13361,7 @@
     </row>
     <row r="445" spans="2:35">
       <c r="B445" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C445" s="6">
         <v>35481</v>
@@ -13384,7 +13384,7 @@
     </row>
     <row r="446" spans="2:35">
       <c r="B446" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C446" s="6">
         <v>35483</v>
@@ -13413,7 +13413,7 @@
     </row>
     <row r="447" spans="2:35">
       <c r="B447" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C447" s="6">
         <v>35494</v>
@@ -13437,7 +13437,7 @@
     </row>
     <row r="448" spans="2:35">
       <c r="B448" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C448" s="6">
         <v>35495</v>
@@ -13469,7 +13469,7 @@
     </row>
     <row r="449" spans="2:35">
       <c r="B449" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C449" s="6">
         <v>35504</v>
@@ -13496,7 +13496,7 @@
     </row>
     <row r="450" spans="2:35">
       <c r="B450" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C450" s="6">
         <v>35505</v>
@@ -13522,7 +13522,7 @@
     </row>
     <row r="451" spans="2:35">
       <c r="B451" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C451" s="6">
         <v>35507</v>
@@ -13542,7 +13542,7 @@
     </row>
     <row r="452" spans="2:35">
       <c r="B452" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C452" s="6">
         <v>35511</v>
@@ -13566,7 +13566,7 @@
     </row>
     <row r="453" spans="2:35">
       <c r="B453" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C453" s="6">
         <v>35512</v>
@@ -13589,7 +13589,7 @@
     </row>
     <row r="454" spans="2:35">
       <c r="B454" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C454" s="6">
         <v>35518</v>
@@ -13616,7 +13616,7 @@
     </row>
     <row r="455" spans="2:35">
       <c r="B455" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C455" s="6">
         <v>35520</v>
@@ -13639,7 +13639,7 @@
     </row>
     <row r="456" spans="2:35">
       <c r="B456" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C456" s="6">
         <v>35521</v>
@@ -13662,7 +13662,7 @@
     </row>
     <row r="457" spans="2:35">
       <c r="B457" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C457" s="6">
         <v>35531</v>
@@ -13685,7 +13685,7 @@
     </row>
     <row r="458" spans="2:35">
       <c r="B458" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C458" s="6">
         <v>35539</v>
@@ -13708,7 +13708,7 @@
     </row>
     <row r="459" spans="2:35">
       <c r="B459" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C459" s="6">
         <v>35540</v>
@@ -13737,7 +13737,7 @@
     </row>
     <row r="460" spans="2:35">
       <c r="B460" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C460" s="6">
         <v>35541</v>
@@ -13750,7 +13750,7 @@
         <v>1990</v>
       </c>
       <c r="F460" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G460" s="7">
         <v>103.509256849159</v>
@@ -13806,7 +13806,7 @@
     </row>
     <row r="461" spans="2:35">
       <c r="B461" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C461" s="6">
         <v>35508</v>
@@ -13832,7 +13832,7 @@
     </row>
     <row r="462" spans="2:35">
       <c r="B462" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C462" s="6">
         <v>35509</v>
@@ -13855,7 +13855,7 @@
     </row>
     <row r="463" spans="2:35">
       <c r="B463" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C463" s="6">
         <v>35510</v>
@@ -13890,7 +13890,7 @@
     </row>
     <row r="464" spans="2:35">
       <c r="B464" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C464" s="6">
         <v>35512</v>
@@ -13925,7 +13925,7 @@
     </row>
     <row r="465" spans="2:35">
       <c r="B465" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C465" s="6">
         <v>35515</v>
@@ -13948,7 +13948,7 @@
     </row>
     <row r="466" spans="2:35">
       <c r="B466" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C466" s="6">
         <v>35519</v>
@@ -13983,7 +13983,7 @@
     </row>
     <row r="467" spans="2:35">
       <c r="B467" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C467" s="6">
         <v>35523</v>
@@ -14006,7 +14006,7 @@
     </row>
     <row r="468" spans="2:35">
       <c r="B468" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C468" s="6">
         <v>35527</v>
@@ -14044,7 +14044,7 @@
     </row>
     <row r="469" spans="2:35">
       <c r="B469" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C469" s="6">
         <v>35528</v>
@@ -14057,7 +14057,7 @@
         <v>970</v>
       </c>
       <c r="F469" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G469" s="7">
         <v>90.556590397287493</v>
@@ -14101,7 +14101,7 @@
     </row>
     <row r="470" spans="2:35">
       <c r="B470" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C470" s="6">
         <v>35535</v>
@@ -14130,7 +14130,7 @@
     </row>
     <row r="471" spans="2:35">
       <c r="B471" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C471" s="6">
         <v>35508</v>
@@ -14153,7 +14153,7 @@
     </row>
     <row r="472" spans="2:35">
       <c r="B472" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C472" s="6">
         <v>35509</v>
@@ -14193,7 +14193,7 @@
     </row>
     <row r="473" spans="2:35">
       <c r="B473" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C473" s="6">
         <v>35510</v>
@@ -14226,7 +14226,7 @@
     </row>
     <row r="474" spans="2:35">
       <c r="B474" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C474" s="6">
         <v>35512</v>
@@ -14252,7 +14252,7 @@
     </row>
     <row r="475" spans="2:35">
       <c r="B475" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C475" s="6">
         <v>35516</v>
@@ -14275,7 +14275,7 @@
     </row>
     <row r="476" spans="2:35">
       <c r="B476" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C476" s="6">
         <v>35519</v>
@@ -14304,7 +14304,7 @@
     </row>
     <row r="477" spans="2:35">
       <c r="B477" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C477" s="6">
         <v>35520</v>
@@ -14330,7 +14330,7 @@
     </row>
     <row r="478" spans="2:35">
       <c r="B478" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C478" s="6">
         <v>35521</v>
@@ -14343,7 +14343,7 @@
         <v>470</v>
       </c>
       <c r="F478" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G478" s="7">
         <v>83.633614868270897</v>
@@ -14390,7 +14390,7 @@
     </row>
     <row r="479" spans="2:35">
       <c r="B479" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C479" s="6">
         <v>35525</v>
@@ -14413,7 +14413,7 @@
     </row>
     <row r="480" spans="2:35">
       <c r="B480" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C480" s="6">
         <v>35531</v>
@@ -14436,7 +14436,7 @@
     </row>
     <row r="481" spans="2:35">
       <c r="B481" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C481" s="6">
         <v>35538</v>
@@ -14459,7 +14459,7 @@
     </row>
     <row r="482" spans="2:35">
       <c r="B482" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C482" s="6">
         <v>35545</v>
@@ -14482,7 +14482,7 @@
     </row>
     <row r="483" spans="2:35">
       <c r="B483" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C483" s="6">
         <v>35546</v>
@@ -14502,7 +14502,7 @@
     </row>
     <row r="484" spans="2:35">
       <c r="B484" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C484" s="6">
         <v>35547</v>
@@ -14531,7 +14531,7 @@
     </row>
     <row r="485" spans="2:35">
       <c r="B485" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C485" s="6">
         <v>35548</v>
@@ -14544,7 +14544,7 @@
         <v>2260</v>
       </c>
       <c r="F485" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G485" s="7">
         <v>110.518899834865</v>
@@ -14600,7 +14600,7 @@
     </row>
     <row r="486" spans="2:35">
       <c r="B486" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C486" s="6">
         <v>35510</v>
@@ -14632,7 +14632,7 @@
     </row>
     <row r="487" spans="2:35">
       <c r="B487" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C487" s="6">
         <v>35512</v>
@@ -14667,7 +14667,7 @@
     </row>
     <row r="488" spans="2:35">
       <c r="B488" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C488" s="6">
         <v>35514</v>
@@ -14690,7 +14690,7 @@
     </row>
     <row r="489" spans="2:35">
       <c r="B489" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C489" s="6">
         <v>35519</v>
@@ -14725,7 +14725,7 @@
     </row>
     <row r="490" spans="2:35">
       <c r="B490" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C490" s="6">
         <v>35524</v>
@@ -14748,7 +14748,7 @@
     </row>
     <row r="491" spans="2:35">
       <c r="B491" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C491" s="6">
         <v>35527</v>
@@ -14783,7 +14783,7 @@
     </row>
     <row r="492" spans="2:35">
       <c r="B492" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C492" s="6">
         <v>35528</v>
@@ -14806,7 +14806,7 @@
     </row>
     <row r="493" spans="2:35">
       <c r="B493" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C493" s="6">
         <v>35533</v>
@@ -14829,7 +14829,7 @@
     </row>
     <row r="494" spans="2:35">
       <c r="B494" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C494" s="6">
         <v>35534</v>
@@ -14861,7 +14861,7 @@
     </row>
     <row r="495" spans="2:35">
       <c r="B495" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C495" s="6">
         <v>35535</v>
@@ -14874,7 +14874,7 @@
         <v>1260</v>
       </c>
       <c r="F495" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G495" s="7">
         <v>97.586412089739895</v>
@@ -14924,7 +14924,7 @@
     </row>
     <row r="496" spans="2:35">
       <c r="B496" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C496" s="6">
         <v>35462</v>
@@ -14947,7 +14947,7 @@
     </row>
     <row r="497" spans="2:35">
       <c r="B497" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C497" s="6">
         <v>35486</v>
@@ -14976,7 +14976,7 @@
     </row>
     <row r="498" spans="2:35">
       <c r="B498" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C498" s="6">
         <v>35488</v>
@@ -15001,7 +15001,7 @@
     </row>
     <row r="499" spans="2:35">
       <c r="B499" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C499" s="6">
         <v>35492</v>
@@ -15024,7 +15024,7 @@
     </row>
     <row r="500" spans="2:35">
       <c r="B500" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C500" s="6">
         <v>35499</v>
@@ -15056,7 +15056,7 @@
     </row>
     <row r="501" spans="2:35">
       <c r="B501" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C501" s="6">
         <v>35506</v>
@@ -15094,7 +15094,7 @@
     </row>
     <row r="502" spans="2:35">
       <c r="B502" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C502" s="6">
         <v>35510</v>
@@ -15123,7 +15123,7 @@
     </row>
     <row r="503" spans="2:35">
       <c r="B503" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C503" s="6">
         <v>35511</v>
@@ -15146,7 +15146,7 @@
     </row>
     <row r="504" spans="2:35">
       <c r="B504" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C504" s="6">
         <v>35519</v>
@@ -15169,7 +15169,7 @@
     </row>
     <row r="505" spans="2:35">
       <c r="B505" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C505" s="6">
         <v>35521</v>
@@ -15192,7 +15192,7 @@
     </row>
     <row r="506" spans="2:35">
       <c r="B506" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C506" s="6">
         <v>35535</v>
@@ -15215,7 +15215,7 @@
     </row>
     <row r="507" spans="2:35">
       <c r="B507" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C507" s="6">
         <v>35486</v>
@@ -15238,7 +15238,7 @@
     </row>
     <row r="508" spans="2:35">
       <c r="B508" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C508" s="6">
         <v>35510</v>
@@ -15253,7 +15253,7 @@
     </row>
     <row r="509" spans="2:35">
       <c r="B509" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C509" s="6">
         <v>35515</v>
@@ -15279,7 +15279,7 @@
     </row>
     <row r="510" spans="2:35">
       <c r="B510" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C510" s="6">
         <v>35526</v>
@@ -15305,7 +15305,7 @@
     </row>
     <row r="511" spans="2:35">
       <c r="B511" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C511" s="6">
         <v>35528</v>
@@ -15332,7 +15332,7 @@
     </row>
     <row r="512" spans="2:35">
       <c r="B512" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C512" s="6">
         <v>35533</v>
@@ -15355,7 +15355,7 @@
     </row>
     <row r="513" spans="2:35">
       <c r="B513" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C513" s="6">
         <v>35546</v>
@@ -15378,7 +15378,7 @@
     </row>
     <row r="514" spans="2:35">
       <c r="B514" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C514" s="6">
         <v>35541</v>
@@ -15391,7 +15391,7 @@
         <v>2740</v>
       </c>
       <c r="F514" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G514" s="7">
         <v>103.860280177097</v>
@@ -15432,7 +15432,7 @@
     </row>
     <row r="515" spans="2:35">
       <c r="B515" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C515" s="6">
         <v>35486</v>
@@ -15458,7 +15458,7 @@
     </row>
     <row r="516" spans="2:35">
       <c r="B516" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C516" s="6">
         <v>35487</v>
@@ -15484,7 +15484,7 @@
     </row>
     <row r="517" spans="2:35">
       <c r="B517" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C517" s="6">
         <v>35508</v>
@@ -15517,7 +15517,7 @@
     </row>
     <row r="518" spans="2:35">
       <c r="B518" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C518" s="6">
         <v>35509</v>
@@ -15540,7 +15540,7 @@
     </row>
     <row r="519" spans="2:35">
       <c r="B519" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C519" s="6">
         <v>35510</v>
@@ -15566,7 +15566,7 @@
     </row>
     <row r="520" spans="2:35">
       <c r="B520" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C520" s="6">
         <v>35514</v>
@@ -15589,7 +15589,7 @@
     </row>
     <row r="521" spans="2:35">
       <c r="B521" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C521" s="6">
         <v>35515</v>
@@ -15615,7 +15615,7 @@
     </row>
     <row r="522" spans="2:35">
       <c r="B522" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C522" s="6">
         <v>35517</v>
@@ -15638,7 +15638,7 @@
     </row>
     <row r="523" spans="2:35">
       <c r="B523" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C523" s="6">
         <v>35526</v>
@@ -15661,7 +15661,7 @@
     </row>
     <row r="524" spans="2:35">
       <c r="B524" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C524" s="6">
         <v>35528</v>
@@ -15690,7 +15690,7 @@
     </row>
     <row r="525" spans="2:35">
       <c r="B525" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C525" s="6">
         <v>35534</v>
@@ -15726,7 +15726,7 @@
     </row>
     <row r="526" spans="2:35">
       <c r="B526" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C526" s="6">
         <v>35540</v>
@@ -15753,7 +15753,7 @@
     </row>
     <row r="527" spans="2:35">
       <c r="B527" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C527" s="6">
         <v>35462</v>
@@ -15777,7 +15777,7 @@
     </row>
     <row r="528" spans="2:35">
       <c r="B528" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C528" s="6">
         <v>35485</v>
@@ -15801,7 +15801,7 @@
     </row>
     <row r="529" spans="2:34">
       <c r="B529" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C529" s="6">
         <v>35486</v>
@@ -15828,7 +15828,7 @@
     </row>
     <row r="530" spans="2:34">
       <c r="B530" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C530" s="6">
         <v>35487</v>
@@ -15856,7 +15856,7 @@
     </row>
     <row r="531" spans="2:34">
       <c r="B531" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C531" s="6">
         <v>35492</v>
@@ -15879,7 +15879,7 @@
     </row>
     <row r="532" spans="2:34">
       <c r="B532" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C532" s="6">
         <v>35497</v>
@@ -15902,7 +15902,7 @@
     </row>
     <row r="533" spans="2:34">
       <c r="B533" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C533" s="6">
         <v>35510</v>
@@ -15928,7 +15928,7 @@
     </row>
     <row r="534" spans="2:34">
       <c r="B534" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C534" s="6">
         <v>35512</v>
@@ -15951,7 +15951,7 @@
     </row>
     <row r="535" spans="2:34">
       <c r="B535" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C535" s="6">
         <v>35516</v>
@@ -15980,7 +15980,7 @@
     </row>
     <row r="536" spans="2:34">
       <c r="B536" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C536" s="6">
         <v>35519</v>

--- a/Prototypes/Mungbean/Exp1_2observed.xlsx
+++ b/Prototypes/Mungbean/Exp1_2observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473CC3B3-A87F-4C66-95E0-DADC7B0EE94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD200AC-46CE-4CEA-B771-1C18EF84FC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32640" yWindow="6315" windowWidth="20775" windowHeight="11835" xr2:uid="{EC5736B7-331A-44E7-9B2A-DE6BDB9CC19C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{EC5736B7-331A-44E7-9B2A-DE6BDB9CC19C}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -593,10 +593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C69D9A-1FFA-4799-BC03-A6694D3363DD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AI574"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N103" sqref="N103:N104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -712,7 +713,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" hidden="1">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -747,7 +748,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" hidden="1">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -779,7 +780,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" hidden="1">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -833,9 +834,6 @@
       <c r="AB5">
         <v>49</v>
       </c>
-      <c r="AC5">
-        <v>111</v>
-      </c>
     </row>
     <row r="6" spans="1:35">
       <c r="B6" t="s">
@@ -867,9 +865,6 @@
       </c>
       <c r="AB6">
         <v>49</v>
-      </c>
-      <c r="AC6">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -911,11 +906,8 @@
       <c r="AB7">
         <v>49</v>
       </c>
-      <c r="AC7">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35">
+    </row>
+    <row r="8" spans="1:35" hidden="1">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -938,7 +930,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" hidden="1">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -989,11 +981,8 @@
       <c r="AB10">
         <v>49</v>
       </c>
-      <c r="AC10">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35">
+    </row>
+    <row r="11" spans="1:35" hidden="1">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -1064,9 +1053,6 @@
       <c r="AB12">
         <v>49</v>
       </c>
-      <c r="AC12">
-        <v>91</v>
-      </c>
       <c r="AG12">
         <v>7.2</v>
       </c>
@@ -1074,7 +1060,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" hidden="1">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1122,14 +1108,11 @@
       <c r="AB14">
         <v>49</v>
       </c>
-      <c r="AC14">
-        <v>91</v>
-      </c>
       <c r="AI14">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" hidden="1">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -1155,7 +1138,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" hidden="1">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -1178,7 +1161,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:35">
+    <row r="17" spans="2:35" hidden="1">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1204,7 +1187,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="2:35">
+    <row r="18" spans="2:35" hidden="1">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -1246,9 +1229,6 @@
       <c r="AB19">
         <v>49</v>
       </c>
-      <c r="AC19">
-        <v>111</v>
-      </c>
     </row>
     <row r="20" spans="2:35">
       <c r="B20" t="s">
@@ -1275,11 +1255,8 @@
       <c r="AB20">
         <v>49</v>
       </c>
-      <c r="AC20">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="2:35">
+    </row>
+    <row r="21" spans="2:35" hidden="1">
       <c r="B21" t="s">
         <v>15</v>
       </c>
@@ -1339,14 +1316,11 @@
       <c r="AB22">
         <v>49</v>
       </c>
-      <c r="AC22">
-        <v>111</v>
-      </c>
       <c r="AI22">
         <v>8.9</v>
       </c>
     </row>
-    <row r="23" spans="2:35">
+    <row r="23" spans="2:35" hidden="1">
       <c r="B23" t="s">
         <v>23</v>
       </c>
@@ -1392,11 +1366,8 @@
       <c r="AB24">
         <v>49</v>
       </c>
-      <c r="AC24">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="2:35">
+    </row>
+    <row r="25" spans="2:35" hidden="1">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -1440,7 +1411,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="26" spans="2:35">
+    <row r="26" spans="2:35" hidden="1">
       <c r="B26" t="s">
         <v>15</v>
       </c>
@@ -1466,7 +1437,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="2:35">
+    <row r="27" spans="2:35" hidden="1">
       <c r="B27" t="s">
         <v>23</v>
       </c>
@@ -1495,7 +1466,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="2:35">
+    <row r="28" spans="2:35" hidden="1">
       <c r="B28" t="s">
         <v>19</v>
       </c>
@@ -1536,7 +1507,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="2:35">
+    <row r="29" spans="2:35" hidden="1">
       <c r="B29" t="s">
         <v>19</v>
       </c>
@@ -1565,7 +1536,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="2:35">
+    <row r="30" spans="2:35" hidden="1">
       <c r="B30" t="s">
         <v>19</v>
       </c>
@@ -1609,7 +1580,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="2:35">
+    <row r="31" spans="2:35" hidden="1">
       <c r="B31" t="s">
         <v>18</v>
       </c>
@@ -1650,7 +1621,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="2:35">
+    <row r="32" spans="2:35" hidden="1">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -1676,7 +1647,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:31">
+    <row r="33" spans="2:31" hidden="1">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -1705,7 +1676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:31">
+    <row r="34" spans="2:31" hidden="1">
       <c r="B34" t="s">
         <v>18</v>
       </c>
@@ -1740,7 +1711,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="2:31">
+    <row r="35" spans="2:31" hidden="1">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -1763,7 +1734,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="2:31">
+    <row r="36" spans="2:31" hidden="1">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -1786,7 +1757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:31">
+    <row r="37" spans="2:31" hidden="1">
       <c r="B37" t="s">
         <v>30</v>
       </c>
@@ -1809,7 +1780,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="2:31">
+    <row r="38" spans="2:31" hidden="1">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -1838,7 +1809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="2:31">
+    <row r="39" spans="2:31" hidden="1">
       <c r="B39" t="s">
         <v>24</v>
       </c>
@@ -1904,11 +1875,8 @@
       <c r="AB40">
         <v>49</v>
       </c>
-      <c r="AC40">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="2:31">
+    </row>
+    <row r="41" spans="2:31" hidden="1">
       <c r="B41" t="s">
         <v>16</v>
       </c>
@@ -1943,7 +1911,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="2:31">
+    <row r="42" spans="2:31" hidden="1">
       <c r="B42" t="s">
         <v>18</v>
       </c>
@@ -1978,7 +1946,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="2:31">
+    <row r="43" spans="2:31" hidden="1">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -2007,7 +1975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:31">
+    <row r="44" spans="2:31" hidden="1">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -2030,7 +1998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:31">
+    <row r="45" spans="2:31" hidden="1">
       <c r="B45" t="s">
         <v>24</v>
       </c>
@@ -2072,11 +2040,8 @@
       <c r="AB46">
         <v>49</v>
       </c>
-      <c r="AC46">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31">
+    </row>
+    <row r="47" spans="2:31" hidden="1">
       <c r="B47" t="s">
         <v>30</v>
       </c>
@@ -2114,7 +2079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:31">
+    <row r="48" spans="2:31" hidden="1">
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -2137,7 +2102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="2:35">
+    <row r="49" spans="2:35" hidden="1">
       <c r="B49" t="s">
         <v>16</v>
       </c>
@@ -2172,7 +2137,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="2:35">
+    <row r="50" spans="2:35" hidden="1">
       <c r="B50" t="s">
         <v>18</v>
       </c>
@@ -2210,7 +2175,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="2:35">
+    <row r="51" spans="2:35" hidden="1">
       <c r="B51" t="s">
         <v>30</v>
       </c>
@@ -2236,7 +2201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:35">
+    <row r="52" spans="2:35" hidden="1">
       <c r="B52" t="s">
         <v>30</v>
       </c>
@@ -2259,7 +2224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="2:35">
+    <row r="53" spans="2:35" hidden="1">
       <c r="B53" t="s">
         <v>30</v>
       </c>
@@ -2282,7 +2247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="2:35">
+    <row r="54" spans="2:35" hidden="1">
       <c r="B54" t="s">
         <v>30</v>
       </c>
@@ -2323,7 +2288,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="55" spans="2:35">
+    <row r="55" spans="2:35" hidden="1">
       <c r="B55" t="s">
         <v>30</v>
       </c>
@@ -2346,7 +2311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="2:35">
+    <row r="56" spans="2:35" hidden="1">
       <c r="B56" t="s">
         <v>30</v>
       </c>
@@ -2378,7 +2343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="2:35">
+    <row r="57" spans="2:35" hidden="1">
       <c r="B57" t="s">
         <v>18</v>
       </c>
@@ -2413,7 +2378,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="2:35">
+    <row r="58" spans="2:35" hidden="1">
       <c r="B58" t="s">
         <v>18</v>
       </c>
@@ -2448,7 +2413,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="2:35">
+    <row r="59" spans="2:35" hidden="1">
       <c r="B59" t="s">
         <v>30</v>
       </c>
@@ -2471,7 +2436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="2:35">
+    <row r="60" spans="2:35" hidden="1">
       <c r="B60" t="s">
         <v>30</v>
       </c>
@@ -2509,7 +2474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="2:35">
+    <row r="61" spans="2:35" hidden="1">
       <c r="B61" t="s">
         <v>18</v>
       </c>
@@ -2547,7 +2512,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="2:35">
+    <row r="62" spans="2:35" hidden="1">
       <c r="B62" t="s">
         <v>18</v>
       </c>
@@ -2585,7 +2550,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="2:35">
+    <row r="63" spans="2:35" hidden="1">
       <c r="B63" t="s">
         <v>18</v>
       </c>
@@ -2626,7 +2591,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="2:35">
+    <row r="64" spans="2:35" hidden="1">
       <c r="B64" t="s">
         <v>30</v>
       </c>
@@ -2649,7 +2614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="2:29">
+    <row r="65" spans="2:29" hidden="1">
       <c r="B65" t="s">
         <v>30</v>
       </c>
@@ -2672,7 +2637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="2:29">
+    <row r="66" spans="2:29" hidden="1">
       <c r="B66" t="s">
         <v>18</v>
       </c>
@@ -2707,7 +2672,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="2:29">
+    <row r="67" spans="2:29" hidden="1">
       <c r="B67" t="s">
         <v>24</v>
       </c>
@@ -2749,11 +2714,8 @@
       <c r="AB68">
         <v>49</v>
       </c>
-      <c r="AC68">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="2:29">
+    </row>
+    <row r="69" spans="2:29" hidden="1">
       <c r="B69" t="s">
         <v>16</v>
       </c>
@@ -2788,7 +2750,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="2:29">
+    <row r="70" spans="2:29" hidden="1">
       <c r="B70" t="s">
         <v>16</v>
       </c>
@@ -2823,7 +2785,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="2:29">
+    <row r="71" spans="2:29" hidden="1">
       <c r="B71" t="s">
         <v>16</v>
       </c>
@@ -2858,7 +2820,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="2:29">
+    <row r="72" spans="2:29" hidden="1">
       <c r="B72" t="s">
         <v>24</v>
       </c>
@@ -2930,11 +2892,8 @@
       <c r="AB73">
         <v>49</v>
       </c>
-      <c r="AC73">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="2:29">
+    </row>
+    <row r="74" spans="2:29" hidden="1">
       <c r="B74" t="s">
         <v>16</v>
       </c>
@@ -2969,7 +2928,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="2:29">
+    <row r="75" spans="2:29" hidden="1">
       <c r="B75" t="s">
         <v>16</v>
       </c>
@@ -3004,7 +2963,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="2:29">
+    <row r="76" spans="2:29" hidden="1">
       <c r="B76" t="s">
         <v>16</v>
       </c>
@@ -3042,7 +3001,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="2:29">
+    <row r="77" spans="2:29" hidden="1">
       <c r="B77" t="s">
         <v>16</v>
       </c>
@@ -3077,7 +3036,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="2:29">
+    <row r="78" spans="2:29" hidden="1">
       <c r="B78" t="s">
         <v>30</v>
       </c>
@@ -3100,7 +3059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="2:29">
+    <row r="79" spans="2:29" hidden="1">
       <c r="B79" t="s">
         <v>30</v>
       </c>
@@ -3126,7 +3085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="2:29">
+    <row r="80" spans="2:29" hidden="1">
       <c r="B80" t="s">
         <v>24</v>
       </c>
@@ -3153,7 +3112,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="2:35">
+    <row r="81" spans="2:35" hidden="1">
       <c r="B81" t="s">
         <v>30</v>
       </c>
@@ -3191,7 +3150,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="82" spans="2:35">
+    <row r="82" spans="2:35" hidden="1">
       <c r="B82" t="s">
         <v>30</v>
       </c>
@@ -3214,7 +3173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="2:35">
+    <row r="83" spans="2:35" hidden="1">
       <c r="B83" t="s">
         <v>18</v>
       </c>
@@ -3249,7 +3208,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="2:35">
+    <row r="84" spans="2:35" hidden="1">
       <c r="B84" t="s">
         <v>24</v>
       </c>
@@ -3284,7 +3243,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="85" spans="2:35">
+    <row r="85" spans="2:35" hidden="1">
       <c r="B85" t="s">
         <v>24</v>
       </c>
@@ -3319,7 +3278,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="2:35">
+    <row r="86" spans="2:35" hidden="1">
       <c r="B86" t="s">
         <v>24</v>
       </c>
@@ -3357,7 +3316,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="2:35">
+    <row r="87" spans="2:35" hidden="1">
       <c r="B87" t="s">
         <v>24</v>
       </c>
@@ -3411,9 +3370,6 @@
       <c r="AB88">
         <v>49</v>
       </c>
-      <c r="AC88">
-        <v>98</v>
-      </c>
     </row>
     <row r="89" spans="2:35">
       <c r="B89" t="s">
@@ -3437,9 +3393,6 @@
       <c r="AB89">
         <v>49</v>
       </c>
-      <c r="AC89">
-        <v>98</v>
-      </c>
       <c r="AI89">
         <v>4.0999999999999996</v>
       </c>
@@ -3475,9 +3428,6 @@
       <c r="AB90">
         <v>49</v>
       </c>
-      <c r="AC90">
-        <v>98</v>
-      </c>
     </row>
     <row r="91" spans="2:35">
       <c r="B91" t="s">
@@ -3513,9 +3463,6 @@
       <c r="AB91">
         <v>49</v>
       </c>
-      <c r="AC91">
-        <v>98</v>
-      </c>
     </row>
     <row r="92" spans="2:35">
       <c r="B92" t="s">
@@ -3542,11 +3489,8 @@
       <c r="AB92">
         <v>49</v>
       </c>
-      <c r="AC92">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="2:35">
+    </row>
+    <row r="93" spans="2:35" hidden="1">
       <c r="B93" t="s">
         <v>16</v>
       </c>
@@ -3581,7 +3525,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="2:35">
+    <row r="94" spans="2:35" hidden="1">
       <c r="B94" t="s">
         <v>30</v>
       </c>
@@ -3604,7 +3548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="2:35">
+    <row r="95" spans="2:35" hidden="1">
       <c r="B95" t="s">
         <v>30</v>
       </c>
@@ -3661,7 +3605,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="96" spans="2:35">
+    <row r="96" spans="2:35" hidden="1">
       <c r="B96" t="s">
         <v>18</v>
       </c>
@@ -3705,7 +3649,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="2:34">
+    <row r="97" spans="2:34" hidden="1">
       <c r="B97" t="s">
         <v>18</v>
       </c>
@@ -3743,7 +3687,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="2:34">
+    <row r="98" spans="2:34" hidden="1">
       <c r="B98" t="s">
         <v>17</v>
       </c>
@@ -3772,7 +3716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="2:34">
+    <row r="99" spans="2:34" hidden="1">
       <c r="B99" t="s">
         <v>17</v>
       </c>
@@ -3795,7 +3739,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="2:34">
+    <row r="100" spans="2:34" hidden="1">
       <c r="B100" t="s">
         <v>14</v>
       </c>
@@ -3824,7 +3768,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="2:34">
+    <row r="101" spans="2:34" hidden="1">
       <c r="B101" t="s">
         <v>15</v>
       </c>
@@ -3853,7 +3797,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="2:34">
+    <row r="102" spans="2:34" hidden="1">
       <c r="B102" t="s">
         <v>17</v>
       </c>
@@ -3895,9 +3839,6 @@
       <c r="AB103">
         <v>47</v>
       </c>
-      <c r="AC103">
-        <v>124</v>
-      </c>
     </row>
     <row r="104" spans="2:34">
       <c r="B104" t="s">
@@ -3927,11 +3868,8 @@
       <c r="AB104">
         <v>47</v>
       </c>
-      <c r="AC104">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="105" spans="2:34">
+    </row>
+    <row r="105" spans="2:34" hidden="1">
       <c r="B105" t="s">
         <v>23</v>
       </c>
@@ -4016,9 +3954,6 @@
       <c r="AB106">
         <v>49</v>
       </c>
-      <c r="AC106">
-        <v>111</v>
-      </c>
     </row>
     <row r="107" spans="2:34">
       <c r="B107" t="s">
@@ -4039,9 +3974,6 @@
       <c r="AB107">
         <v>47</v>
       </c>
-      <c r="AC107">
-        <v>124</v>
-      </c>
     </row>
     <row r="108" spans="2:34">
       <c r="B108" t="s">
@@ -4062,11 +3994,8 @@
       <c r="AB108">
         <v>47</v>
       </c>
-      <c r="AC108">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="2:34">
+    </row>
+    <row r="109" spans="2:34" hidden="1">
       <c r="B109" t="s">
         <v>15</v>
       </c>
@@ -4108,11 +4037,8 @@
       <c r="AB110">
         <v>47</v>
       </c>
-      <c r="AC110">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="2:34">
+    </row>
+    <row r="111" spans="2:34" hidden="1">
       <c r="B111" t="s">
         <v>14</v>
       </c>
@@ -4169,7 +4095,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="112" spans="2:34">
+    <row r="112" spans="2:34" hidden="1">
       <c r="B112" t="s">
         <v>23</v>
       </c>
@@ -4214,9 +4140,6 @@
       <c r="AB113">
         <v>47</v>
       </c>
-      <c r="AC113">
-        <v>124</v>
-      </c>
     </row>
     <row r="114" spans="2:35">
       <c r="B114" t="s">
@@ -4243,9 +4166,6 @@
       <c r="AB114">
         <v>47</v>
       </c>
-      <c r="AC114">
-        <v>124</v>
-      </c>
       <c r="AD114">
         <v>11</v>
       </c>
@@ -4272,11 +4192,8 @@
       <c r="AB115">
         <v>47</v>
       </c>
-      <c r="AC115">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="116" spans="2:35">
+    </row>
+    <row r="116" spans="2:35" hidden="1">
       <c r="B116" t="s">
         <v>17</v>
       </c>
@@ -4299,7 +4216,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="2:35">
+    <row r="117" spans="2:35" hidden="1">
       <c r="B117" t="s">
         <v>18</v>
       </c>
@@ -4390,9 +4307,6 @@
       <c r="AB118">
         <v>47</v>
       </c>
-      <c r="AC118">
-        <v>124</v>
-      </c>
     </row>
     <row r="119" spans="2:35">
       <c r="B119" t="s">
@@ -4413,9 +4327,6 @@
       <c r="AB119">
         <v>47</v>
       </c>
-      <c r="AC119">
-        <v>124</v>
-      </c>
     </row>
     <row r="120" spans="2:35">
       <c r="B120" t="s">
@@ -4436,9 +4347,6 @@
       <c r="AB120">
         <v>47</v>
       </c>
-      <c r="AC120">
-        <v>124</v>
-      </c>
     </row>
     <row r="121" spans="2:35">
       <c r="B121" t="s">
@@ -4462,9 +4370,6 @@
       <c r="AB121">
         <v>47</v>
       </c>
-      <c r="AC121">
-        <v>124</v>
-      </c>
       <c r="AD121">
         <v>12</v>
       </c>
@@ -4497,9 +4402,6 @@
       <c r="AB122">
         <v>47</v>
       </c>
-      <c r="AC122">
-        <v>124</v>
-      </c>
     </row>
     <row r="123" spans="2:35">
       <c r="B123" t="s">
@@ -4523,14 +4425,11 @@
       <c r="AB123">
         <v>47</v>
       </c>
-      <c r="AC123">
-        <v>124</v>
-      </c>
       <c r="AI123">
         <v>10.7</v>
       </c>
     </row>
-    <row r="124" spans="2:35">
+    <row r="124" spans="2:35" hidden="1">
       <c r="B124" t="s">
         <v>17</v>
       </c>
@@ -4572,9 +4471,6 @@
       <c r="AB125">
         <v>47</v>
       </c>
-      <c r="AC125">
-        <v>124</v>
-      </c>
     </row>
     <row r="126" spans="2:35">
       <c r="B126" t="s">
@@ -4595,9 +4491,6 @@
       <c r="AB126">
         <v>47</v>
       </c>
-      <c r="AC126">
-        <v>124</v>
-      </c>
       <c r="AE126">
         <v>5</v>
       </c>
@@ -4633,9 +4526,6 @@
       <c r="AB127">
         <v>47</v>
       </c>
-      <c r="AC127">
-        <v>124</v>
-      </c>
     </row>
     <row r="128" spans="2:35">
       <c r="B128" t="s">
@@ -4662,9 +4552,6 @@
       <c r="AB128">
         <v>47</v>
       </c>
-      <c r="AC128">
-        <v>124</v>
-      </c>
     </row>
     <row r="129" spans="2:35">
       <c r="B129" t="s">
@@ -4685,9 +4572,6 @@
       <c r="AB129">
         <v>47</v>
       </c>
-      <c r="AC129">
-        <v>124</v>
-      </c>
     </row>
     <row r="130" spans="2:35">
       <c r="B130" t="s">
@@ -4708,9 +4592,6 @@
       <c r="AB130">
         <v>47</v>
       </c>
-      <c r="AC130">
-        <v>124</v>
-      </c>
     </row>
     <row r="131" spans="2:35">
       <c r="B131" t="s">
@@ -4731,9 +4612,6 @@
       <c r="AB131">
         <v>47</v>
       </c>
-      <c r="AC131">
-        <v>124</v>
-      </c>
     </row>
     <row r="132" spans="2:35">
       <c r="B132" t="s">
@@ -4754,11 +4632,8 @@
       <c r="AB132">
         <v>47</v>
       </c>
-      <c r="AC132">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="133" spans="2:35">
+    </row>
+    <row r="133" spans="2:35" hidden="1">
       <c r="B133" t="s">
         <v>15</v>
       </c>
@@ -4809,9 +4684,6 @@
       <c r="AB134">
         <v>47</v>
       </c>
-      <c r="AC134">
-        <v>124</v>
-      </c>
     </row>
     <row r="135" spans="2:35">
       <c r="B135" t="s">
@@ -4838,9 +4710,6 @@
       <c r="AB135">
         <v>47</v>
       </c>
-      <c r="AC135">
-        <v>124</v>
-      </c>
       <c r="AD135">
         <v>1</v>
       </c>
@@ -4873,9 +4742,6 @@
       <c r="AB136">
         <v>47</v>
       </c>
-      <c r="AC136">
-        <v>124</v>
-      </c>
     </row>
     <row r="137" spans="2:35">
       <c r="B137" t="s">
@@ -4896,9 +4762,6 @@
       <c r="AB137">
         <v>47</v>
       </c>
-      <c r="AC137">
-        <v>124</v>
-      </c>
     </row>
     <row r="138" spans="2:35">
       <c r="B138" t="s">
@@ -4919,11 +4782,8 @@
       <c r="AB138">
         <v>47</v>
       </c>
-      <c r="AC138">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="139" spans="2:35">
+    </row>
+    <row r="139" spans="2:35" hidden="1">
       <c r="B139" t="s">
         <v>14</v>
       </c>
@@ -4949,7 +4809,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="140" spans="2:35">
+    <row r="140" spans="2:35" hidden="1">
       <c r="B140" t="s">
         <v>25</v>
       </c>
@@ -5000,11 +4860,8 @@
       <c r="AB141">
         <v>49</v>
       </c>
-      <c r="AC141">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="142" spans="2:35">
+    </row>
+    <row r="142" spans="2:35" hidden="1">
       <c r="B142" t="s">
         <v>19</v>
       </c>
@@ -5050,9 +4907,6 @@
       <c r="AB143">
         <v>47</v>
       </c>
-      <c r="AC143">
-        <v>124</v>
-      </c>
     </row>
     <row r="144" spans="2:35">
       <c r="B144" t="s">
@@ -5082,9 +4936,6 @@
       <c r="AB144">
         <v>47</v>
       </c>
-      <c r="AC144">
-        <v>124</v>
-      </c>
     </row>
     <row r="145" spans="2:35">
       <c r="B145" t="s">
@@ -5121,9 +4972,6 @@
       <c r="AB145">
         <v>47</v>
       </c>
-      <c r="AC145">
-        <v>124</v>
-      </c>
       <c r="AD145">
         <v>1</v>
       </c>
@@ -5140,7 +4988,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="146" spans="2:35">
+    <row r="146" spans="2:35" hidden="1">
       <c r="B146" t="s">
         <v>32</v>
       </c>
@@ -5169,7 +5017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:35">
+    <row r="147" spans="2:35" hidden="1">
       <c r="B147" t="s">
         <v>32</v>
       </c>
@@ -5198,7 +5046,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="2:35">
+    <row r="148" spans="2:35" hidden="1">
       <c r="B148" t="s">
         <v>32</v>
       </c>
@@ -5221,7 +5069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="2:35">
+    <row r="149" spans="2:35" hidden="1">
       <c r="B149" t="s">
         <v>32</v>
       </c>
@@ -5244,7 +5092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="2:35">
+    <row r="150" spans="2:35" hidden="1">
       <c r="B150" t="s">
         <v>32</v>
       </c>
@@ -5267,7 +5115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="2:35">
+    <row r="151" spans="2:35" hidden="1">
       <c r="B151" t="s">
         <v>32</v>
       </c>
@@ -5290,7 +5138,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="2:35">
+    <row r="152" spans="2:35" hidden="1">
       <c r="B152" t="s">
         <v>32</v>
       </c>
@@ -5313,7 +5161,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="2:35">
+    <row r="153" spans="2:35" hidden="1">
       <c r="B153" t="s">
         <v>32</v>
       </c>
@@ -5342,7 +5190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="2:35">
+    <row r="154" spans="2:35" hidden="1">
       <c r="B154" t="s">
         <v>19</v>
       </c>
@@ -5368,7 +5216,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="155" spans="2:35">
+    <row r="155" spans="2:35" hidden="1">
       <c r="B155" t="s">
         <v>19</v>
       </c>
@@ -5391,7 +5239,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="156" spans="2:35">
+    <row r="156" spans="2:35" hidden="1">
       <c r="B156" t="s">
         <v>32</v>
       </c>
@@ -5417,7 +5265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="2:35">
+    <row r="157" spans="2:35" hidden="1">
       <c r="B157" t="s">
         <v>32</v>
       </c>
@@ -5443,7 +5291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="2:35">
+    <row r="158" spans="2:35" hidden="1">
       <c r="B158" t="s">
         <v>25</v>
       </c>
@@ -5479,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:35">
+    <row r="159" spans="2:35" hidden="1">
       <c r="B159" t="s">
         <v>19</v>
       </c>
@@ -5542,11 +5390,8 @@
       <c r="AB160">
         <v>49</v>
       </c>
-      <c r="AC160">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="161" spans="2:34">
+    </row>
+    <row r="161" spans="2:34" hidden="1">
       <c r="B161" t="s">
         <v>32</v>
       </c>
@@ -5569,7 +5414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="2:34">
+    <row r="162" spans="2:34" hidden="1">
       <c r="B162" t="s">
         <v>32</v>
       </c>
@@ -5592,7 +5437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="2:34">
+    <row r="163" spans="2:34" hidden="1">
       <c r="B163" t="s">
         <v>32</v>
       </c>
@@ -5615,7 +5460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="2:34">
+    <row r="164" spans="2:34" hidden="1">
       <c r="B164" t="s">
         <v>32</v>
       </c>
@@ -5647,7 +5492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="2:34">
+    <row r="165" spans="2:34" hidden="1">
       <c r="B165" t="s">
         <v>17</v>
       </c>
@@ -5698,7 +5543,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="166" spans="2:34">
+    <row r="166" spans="2:34" hidden="1">
       <c r="B166" t="s">
         <v>17</v>
       </c>
@@ -5721,7 +5566,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="167" spans="2:34">
+    <row r="167" spans="2:34" hidden="1">
       <c r="B167" t="s">
         <v>14</v>
       </c>
@@ -5747,7 +5592,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="168" spans="2:34">
+    <row r="168" spans="2:34" hidden="1">
       <c r="B168" t="s">
         <v>14</v>
       </c>
@@ -5795,11 +5640,8 @@
       <c r="AB169">
         <v>49</v>
       </c>
-      <c r="AC169">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="170" spans="2:34">
+    </row>
+    <row r="170" spans="2:34" hidden="1">
       <c r="B170" t="s">
         <v>32</v>
       </c>
@@ -5828,7 +5670,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="2:34">
+    <row r="171" spans="2:34" hidden="1">
       <c r="B171" t="s">
         <v>25</v>
       </c>
@@ -5851,7 +5693,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="172" spans="2:34">
+    <row r="172" spans="2:34" hidden="1">
       <c r="B172" t="s">
         <v>15</v>
       </c>
@@ -5908,7 +5750,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="173" spans="2:34">
+    <row r="173" spans="2:34" hidden="1">
       <c r="B173" t="s">
         <v>25</v>
       </c>
@@ -5956,11 +5798,8 @@
       <c r="AB174">
         <v>49</v>
       </c>
-      <c r="AC174">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="175" spans="2:34">
+    </row>
+    <row r="175" spans="2:34" hidden="1">
       <c r="B175" t="s">
         <v>32</v>
       </c>
@@ -5989,7 +5828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="2:34">
+    <row r="176" spans="2:34" hidden="1">
       <c r="B176" t="s">
         <v>32</v>
       </c>
@@ -6015,7 +5854,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="2:34">
+    <row r="177" spans="2:34" hidden="1">
       <c r="B177" t="s">
         <v>32</v>
       </c>
@@ -6041,7 +5880,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="2:34">
+    <row r="178" spans="2:34" hidden="1">
       <c r="B178" t="s">
         <v>32</v>
       </c>
@@ -6064,7 +5903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="2:34">
+    <row r="179" spans="2:34" hidden="1">
       <c r="B179" t="s">
         <v>14</v>
       </c>
@@ -6090,7 +5929,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="180" spans="2:34">
+    <row r="180" spans="2:34" hidden="1">
       <c r="B180" t="s">
         <v>25</v>
       </c>
@@ -6144,11 +5983,8 @@
       <c r="AB181">
         <v>49</v>
       </c>
-      <c r="AC181">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="182" spans="2:34">
+    </row>
+    <row r="182" spans="2:34" hidden="1">
       <c r="B182" t="s">
         <v>19</v>
       </c>
@@ -6205,7 +6041,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="183" spans="2:34">
+    <row r="183" spans="2:34" hidden="1">
       <c r="B183" t="s">
         <v>23</v>
       </c>
@@ -6253,11 +6089,8 @@
       <c r="AB184">
         <v>49</v>
       </c>
-      <c r="AC184">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="185" spans="2:34">
+    </row>
+    <row r="185" spans="2:34" hidden="1">
       <c r="B185" t="s">
         <v>15</v>
       </c>
@@ -6280,7 +6113,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="186" spans="2:34">
+    <row r="186" spans="2:34" hidden="1">
       <c r="B186" t="s">
         <v>23</v>
       </c>
@@ -6360,11 +6193,8 @@
       <c r="AB187">
         <v>49</v>
       </c>
-      <c r="AC187">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="188" spans="2:34">
+    </row>
+    <row r="188" spans="2:34" hidden="1">
       <c r="B188" t="s">
         <v>15</v>
       </c>
@@ -6412,11 +6242,8 @@
       <c r="AB189">
         <v>49</v>
       </c>
-      <c r="AC189">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="190" spans="2:34">
+    </row>
+    <row r="190" spans="2:34" hidden="1">
       <c r="B190" t="s">
         <v>15</v>
       </c>
@@ -6439,7 +6266,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="191" spans="2:34">
+    <row r="191" spans="2:34" hidden="1">
       <c r="B191" t="s">
         <v>15</v>
       </c>
@@ -6462,7 +6289,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="192" spans="2:34">
+    <row r="192" spans="2:34" hidden="1">
       <c r="B192" t="s">
         <v>15</v>
       </c>
@@ -6485,7 +6312,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="193" spans="2:35">
+    <row r="193" spans="2:35" hidden="1">
       <c r="B193" t="s">
         <v>14</v>
       </c>
@@ -6511,7 +6338,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="194" spans="2:35">
+    <row r="194" spans="2:35" hidden="1">
       <c r="B194" t="s">
         <v>16</v>
       </c>
@@ -6553,11 +6380,8 @@
       <c r="AB195">
         <v>49</v>
       </c>
-      <c r="AC195">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="196" spans="2:35">
+    </row>
+    <row r="196" spans="2:35" hidden="1">
       <c r="B196" t="s">
         <v>17</v>
       </c>
@@ -6580,7 +6404,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="197" spans="2:35">
+    <row r="197" spans="2:35" hidden="1">
       <c r="B197" t="s">
         <v>17</v>
       </c>
@@ -6622,11 +6446,8 @@
       <c r="AB198">
         <v>49</v>
       </c>
-      <c r="AC198">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="199" spans="2:35">
+    </row>
+    <row r="199" spans="2:35" hidden="1">
       <c r="B199" t="s">
         <v>16</v>
       </c>
@@ -6649,7 +6470,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="200" spans="2:35">
+    <row r="200" spans="2:35" hidden="1">
       <c r="B200" t="s">
         <v>32</v>
       </c>
@@ -6687,7 +6508,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="201" spans="2:35">
+    <row r="201" spans="2:35" hidden="1">
       <c r="B201" t="s">
         <v>24</v>
       </c>
@@ -6713,7 +6534,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="202" spans="2:35">
+    <row r="202" spans="2:35" hidden="1">
       <c r="B202" t="s">
         <v>17</v>
       </c>
@@ -6736,7 +6557,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="203" spans="2:35">
+    <row r="203" spans="2:35" hidden="1">
       <c r="B203" t="s">
         <v>17</v>
       </c>
@@ -6759,7 +6580,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="204" spans="2:35">
+    <row r="204" spans="2:35" hidden="1">
       <c r="B204" t="s">
         <v>17</v>
       </c>
@@ -6782,7 +6603,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="205" spans="2:35">
+    <row r="205" spans="2:35" hidden="1">
       <c r="B205" t="s">
         <v>14</v>
       </c>
@@ -6805,7 +6626,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="206" spans="2:35">
+    <row r="206" spans="2:35" hidden="1">
       <c r="B206" t="s">
         <v>16</v>
       </c>
@@ -6828,7 +6649,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="207" spans="2:35">
+    <row r="207" spans="2:35" hidden="1">
       <c r="B207" t="s">
         <v>16</v>
       </c>
@@ -6851,7 +6672,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="208" spans="2:35">
+    <row r="208" spans="2:35" hidden="1">
       <c r="B208" t="s">
         <v>16</v>
       </c>
@@ -6874,7 +6695,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="209" spans="2:35">
+    <row r="209" spans="2:35" hidden="1">
       <c r="B209" t="s">
         <v>23</v>
       </c>
@@ -6900,7 +6721,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="210" spans="2:35">
+    <row r="210" spans="2:35" hidden="1">
       <c r="B210" t="s">
         <v>18</v>
       </c>
@@ -6960,11 +6781,8 @@
       <c r="AB211">
         <v>49</v>
       </c>
-      <c r="AC211">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="212" spans="2:35">
+    </row>
+    <row r="212" spans="2:35" hidden="1">
       <c r="B212" t="s">
         <v>32</v>
       </c>
@@ -6987,7 +6805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="2:35">
+    <row r="213" spans="2:35" hidden="1">
       <c r="B213" t="s">
         <v>32</v>
       </c>
@@ -7019,7 +6837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="2:35">
+    <row r="214" spans="2:35" hidden="1">
       <c r="B214" t="s">
         <v>32</v>
       </c>
@@ -7045,7 +6863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="215" spans="2:35">
+    <row r="215" spans="2:35" hidden="1">
       <c r="B215" t="s">
         <v>32</v>
       </c>
@@ -7105,14 +6923,11 @@
       <c r="AB216">
         <v>49</v>
       </c>
-      <c r="AC216">
-        <v>111</v>
-      </c>
       <c r="AI216">
         <v>7.6</v>
       </c>
     </row>
-    <row r="217" spans="2:35">
+    <row r="217" spans="2:35" hidden="1">
       <c r="B217" t="s">
         <v>14</v>
       </c>
@@ -7135,7 +6950,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="218" spans="2:35">
+    <row r="218" spans="2:35" hidden="1">
       <c r="B218" t="s">
         <v>23</v>
       </c>
@@ -7155,7 +6970,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="219" spans="2:35">
+    <row r="219" spans="2:35" hidden="1">
       <c r="B219" t="s">
         <v>32</v>
       </c>
@@ -7181,7 +6996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="2:35">
+    <row r="220" spans="2:35" hidden="1">
       <c r="B220" t="s">
         <v>32</v>
       </c>
@@ -7223,11 +7038,8 @@
       <c r="AB221">
         <v>49</v>
       </c>
-      <c r="AC221">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="222" spans="2:35">
+    </row>
+    <row r="222" spans="2:35" hidden="1">
       <c r="B222" t="s">
         <v>23</v>
       </c>
@@ -7290,11 +7102,8 @@
       <c r="AB223">
         <v>49</v>
       </c>
-      <c r="AC223">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="224" spans="2:35">
+    </row>
+    <row r="224" spans="2:35" hidden="1">
       <c r="B224" t="s">
         <v>15</v>
       </c>
@@ -7317,7 +7126,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="225" spans="2:35">
+    <row r="225" spans="2:35" hidden="1">
       <c r="B225" t="s">
         <v>18</v>
       </c>
@@ -7343,7 +7152,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="226" spans="2:35">
+    <row r="226" spans="2:35" hidden="1">
       <c r="B226" t="s">
         <v>16</v>
       </c>
@@ -7366,7 +7175,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="227" spans="2:35">
+    <row r="227" spans="2:35" hidden="1">
       <c r="B227" t="s">
         <v>17</v>
       </c>
@@ -7389,7 +7198,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="228" spans="2:35">
+    <row r="228" spans="2:35" hidden="1">
       <c r="B228" t="s">
         <v>32</v>
       </c>
@@ -7415,7 +7224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="229" spans="2:35">
+    <row r="229" spans="2:35" hidden="1">
       <c r="B229" t="s">
         <v>32</v>
       </c>
@@ -7438,7 +7247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="2:35">
+    <row r="230" spans="2:35" hidden="1">
       <c r="B230" t="s">
         <v>32</v>
       </c>
@@ -7473,7 +7282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="2:35">
+    <row r="231" spans="2:35" hidden="1">
       <c r="B231" t="s">
         <v>32</v>
       </c>
@@ -7508,7 +7317,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="232" spans="2:35">
+    <row r="232" spans="2:35" hidden="1">
       <c r="B232" t="s">
         <v>17</v>
       </c>
@@ -7531,7 +7340,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="233" spans="2:35">
+    <row r="233" spans="2:35" hidden="1">
       <c r="B233" t="s">
         <v>16</v>
       </c>
@@ -7554,7 +7363,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="234" spans="2:35">
+    <row r="234" spans="2:35" hidden="1">
       <c r="B234" t="s">
         <v>32</v>
       </c>
@@ -7577,7 +7386,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="2:35">
+    <row r="235" spans="2:35" hidden="1">
       <c r="B235" t="s">
         <v>32</v>
       </c>
@@ -7600,7 +7409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="236" spans="2:35">
+    <row r="236" spans="2:35" hidden="1">
       <c r="B236" t="s">
         <v>23</v>
       </c>
@@ -7629,7 +7438,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="237" spans="2:35">
+    <row r="237" spans="2:35" hidden="1">
       <c r="B237" t="s">
         <v>24</v>
       </c>
@@ -7655,7 +7464,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="238" spans="2:35">
+    <row r="238" spans="2:35" hidden="1">
       <c r="B238" t="s">
         <v>17</v>
       </c>
@@ -7678,7 +7487,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="239" spans="2:35">
+    <row r="239" spans="2:35" hidden="1">
       <c r="B239" t="s">
         <v>23</v>
       </c>
@@ -7701,7 +7510,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="240" spans="2:35">
+    <row r="240" spans="2:35" hidden="1">
       <c r="B240" t="s">
         <v>32</v>
       </c>
@@ -7725,7 +7534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="2:34">
+    <row r="241" spans="2:34" hidden="1">
       <c r="B241" t="s">
         <v>23</v>
       </c>
@@ -7748,7 +7557,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="242" spans="2:34">
+    <row r="242" spans="2:34" hidden="1">
       <c r="B242" t="s">
         <v>14</v>
       </c>
@@ -7771,7 +7580,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="243" spans="2:34">
+    <row r="243" spans="2:34" hidden="1">
       <c r="B243" t="s">
         <v>32</v>
       </c>
@@ -7825,7 +7634,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="244" spans="2:34">
+    <row r="244" spans="2:34" hidden="1">
       <c r="B244" t="s">
         <v>14</v>
       </c>
@@ -7870,9 +7679,6 @@
       <c r="AB245">
         <v>47</v>
       </c>
-      <c r="AC245">
-        <v>124</v>
-      </c>
     </row>
     <row r="246" spans="2:34">
       <c r="B246" t="s">
@@ -7893,9 +7699,6 @@
       <c r="AB246">
         <v>49</v>
       </c>
-      <c r="AC246">
-        <v>111</v>
-      </c>
     </row>
     <row r="247" spans="2:34">
       <c r="B247" t="s">
@@ -7925,11 +7728,8 @@
       <c r="AB247">
         <v>47</v>
       </c>
-      <c r="AC247">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="248" spans="2:34">
+    </row>
+    <row r="248" spans="2:34" hidden="1">
       <c r="B248" t="s">
         <v>17</v>
       </c>
@@ -7952,7 +7752,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="249" spans="2:34">
+    <row r="249" spans="2:34" hidden="1">
       <c r="B249" t="s">
         <v>15</v>
       </c>
@@ -8009,9 +7809,6 @@
       <c r="AB250">
         <v>49</v>
       </c>
-      <c r="AC250">
-        <v>98</v>
-      </c>
     </row>
     <row r="251" spans="2:34">
       <c r="B251" t="s">
@@ -8035,9 +7832,6 @@
       <c r="AB251">
         <v>47</v>
       </c>
-      <c r="AC251">
-        <v>124</v>
-      </c>
     </row>
     <row r="252" spans="2:34">
       <c r="B252" t="s">
@@ -8058,9 +7852,6 @@
       <c r="AB252">
         <v>47</v>
       </c>
-      <c r="AC252">
-        <v>124</v>
-      </c>
     </row>
     <row r="253" spans="2:34">
       <c r="B253" t="s">
@@ -8081,9 +7872,6 @@
       <c r="AB253">
         <v>47</v>
       </c>
-      <c r="AC253">
-        <v>124</v>
-      </c>
     </row>
     <row r="254" spans="2:34">
       <c r="B254" t="s">
@@ -8104,9 +7892,6 @@
       <c r="AB254">
         <v>47</v>
       </c>
-      <c r="AC254">
-        <v>124</v>
-      </c>
     </row>
     <row r="255" spans="2:34">
       <c r="B255" t="s">
@@ -8136,11 +7921,8 @@
       <c r="AB255">
         <v>49</v>
       </c>
-      <c r="AC255">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="256" spans="2:34">
+    </row>
+    <row r="256" spans="2:34" hidden="1">
       <c r="B256" t="s">
         <v>17</v>
       </c>
@@ -8163,7 +7945,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="257" spans="2:31">
+    <row r="257" spans="2:31" hidden="1">
       <c r="B257" t="s">
         <v>15</v>
       </c>
@@ -8205,9 +7987,6 @@
       <c r="AB258">
         <v>47</v>
       </c>
-      <c r="AC258">
-        <v>124</v>
-      </c>
     </row>
     <row r="259" spans="2:31">
       <c r="B259" t="s">
@@ -8231,9 +8010,6 @@
       <c r="AB259">
         <v>47</v>
       </c>
-      <c r="AC259">
-        <v>124</v>
-      </c>
     </row>
     <row r="260" spans="2:31">
       <c r="B260" t="s">
@@ -8257,9 +8033,6 @@
       <c r="AB260">
         <v>47</v>
       </c>
-      <c r="AC260">
-        <v>124</v>
-      </c>
       <c r="AD260">
         <v>9</v>
       </c>
@@ -8267,7 +8040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="2:31">
+    <row r="261" spans="2:31" hidden="1">
       <c r="B261" t="s">
         <v>15</v>
       </c>
@@ -8309,9 +8082,6 @@
       <c r="AB262">
         <v>47</v>
       </c>
-      <c r="AC262">
-        <v>124</v>
-      </c>
     </row>
     <row r="263" spans="2:31">
       <c r="B263" t="s">
@@ -8332,11 +8102,8 @@
       <c r="AB263">
         <v>47</v>
       </c>
-      <c r="AC263">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="264" spans="2:31">
+    </row>
+    <row r="264" spans="2:31" hidden="1">
       <c r="B264" t="s">
         <v>14</v>
       </c>
@@ -8387,9 +8154,6 @@
       <c r="AB265">
         <v>47</v>
       </c>
-      <c r="AC265">
-        <v>124</v>
-      </c>
     </row>
     <row r="266" spans="2:31">
       <c r="B266" t="s">
@@ -8410,9 +8174,6 @@
       <c r="AB266">
         <v>47</v>
       </c>
-      <c r="AC266">
-        <v>124</v>
-      </c>
     </row>
     <row r="267" spans="2:31">
       <c r="B267" t="s">
@@ -8433,11 +8194,8 @@
       <c r="AB267">
         <v>49</v>
       </c>
-      <c r="AC267">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="268" spans="2:31">
+    </row>
+    <row r="268" spans="2:31" hidden="1">
       <c r="B268" t="s">
         <v>18</v>
       </c>
@@ -8460,7 +8218,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="269" spans="2:31">
+    <row r="269" spans="2:31" hidden="1">
       <c r="B269" t="s">
         <v>18</v>
       </c>
@@ -8502,11 +8260,8 @@
       <c r="AB270">
         <v>47</v>
       </c>
-      <c r="AC270">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="271" spans="2:31">
+    </row>
+    <row r="271" spans="2:31" hidden="1">
       <c r="B271" t="s">
         <v>24</v>
       </c>
@@ -8566,11 +8321,8 @@
       <c r="AB272">
         <v>47</v>
       </c>
-      <c r="AC272">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="273" spans="2:35">
+    </row>
+    <row r="273" spans="2:35" hidden="1">
       <c r="B273" t="s">
         <v>24</v>
       </c>
@@ -8612,14 +8364,11 @@
       <c r="AB274">
         <v>47</v>
       </c>
-      <c r="AC274">
-        <v>124</v>
-      </c>
       <c r="AE274">
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="2:35">
+    <row r="275" spans="2:35" hidden="1">
       <c r="B275" t="s">
         <v>18</v>
       </c>
@@ -8642,7 +8391,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="276" spans="2:35">
+    <row r="276" spans="2:35" hidden="1">
       <c r="B276" t="s">
         <v>16</v>
       </c>
@@ -8668,7 +8417,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="277" spans="2:35">
+    <row r="277" spans="2:35" hidden="1">
       <c r="B277" t="s">
         <v>14</v>
       </c>
@@ -8713,9 +8462,6 @@
       <c r="AB278">
         <v>47</v>
       </c>
-      <c r="AC278">
-        <v>124</v>
-      </c>
     </row>
     <row r="279" spans="2:35">
       <c r="B279" t="s">
@@ -8736,11 +8482,8 @@
       <c r="AB279">
         <v>49</v>
       </c>
-      <c r="AC279">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="280" spans="2:35">
+    </row>
+    <row r="280" spans="2:35" hidden="1">
       <c r="B280" t="s">
         <v>24</v>
       </c>
@@ -8770,7 +8513,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="281" spans="2:35">
+    <row r="281" spans="2:35" hidden="1">
       <c r="B281" t="s">
         <v>23</v>
       </c>
@@ -8815,9 +8558,6 @@
       <c r="AB282">
         <v>47</v>
       </c>
-      <c r="AC282">
-        <v>124</v>
-      </c>
     </row>
     <row r="283" spans="2:35">
       <c r="B283" t="s">
@@ -8847,9 +8587,6 @@
       <c r="AB283">
         <v>47</v>
       </c>
-      <c r="AC283">
-        <v>124</v>
-      </c>
     </row>
     <row r="284" spans="2:35">
       <c r="B284" t="s">
@@ -8870,9 +8607,6 @@
       <c r="AB284">
         <v>47</v>
       </c>
-      <c r="AC284">
-        <v>124</v>
-      </c>
       <c r="AI284">
         <v>5.5</v>
       </c>
@@ -8896,9 +8630,6 @@
       <c r="AB285">
         <v>47</v>
       </c>
-      <c r="AC285">
-        <v>124</v>
-      </c>
     </row>
     <row r="286" spans="2:35">
       <c r="B286" t="s">
@@ -8919,9 +8650,6 @@
       <c r="AB286">
         <v>47</v>
       </c>
-      <c r="AC286">
-        <v>124</v>
-      </c>
       <c r="AD286">
         <v>1</v>
       </c>
@@ -8960,11 +8688,8 @@
       <c r="AB287">
         <v>47</v>
       </c>
-      <c r="AC287">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="288" spans="2:35">
+    </row>
+    <row r="288" spans="2:35" hidden="1">
       <c r="B288" t="s">
         <v>18</v>
       </c>
@@ -8987,7 +8712,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="289" spans="2:35">
+    <row r="289" spans="2:35" hidden="1">
       <c r="B289" t="s">
         <v>14</v>
       </c>
@@ -9032,11 +8757,8 @@
       <c r="AB290">
         <v>47</v>
       </c>
-      <c r="AC290">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="291" spans="2:35">
+    </row>
+    <row r="291" spans="2:35" hidden="1">
       <c r="B291" t="s">
         <v>16</v>
       </c>
@@ -9081,9 +8803,6 @@
       <c r="AB292">
         <v>47</v>
       </c>
-      <c r="AC292">
-        <v>124</v>
-      </c>
     </row>
     <row r="293" spans="2:35">
       <c r="B293" t="s">
@@ -9104,9 +8823,6 @@
       <c r="AB293">
         <v>47</v>
       </c>
-      <c r="AC293">
-        <v>124</v>
-      </c>
     </row>
     <row r="294" spans="2:35">
       <c r="B294" t="s">
@@ -9128,11 +8844,8 @@
       <c r="AB294">
         <v>47</v>
       </c>
-      <c r="AC294">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="295" spans="2:35">
+    </row>
+    <row r="295" spans="2:35" hidden="1">
       <c r="B295" t="s">
         <v>24</v>
       </c>
@@ -9180,9 +8893,6 @@
       <c r="AB296">
         <v>47</v>
       </c>
-      <c r="AC296">
-        <v>124</v>
-      </c>
     </row>
     <row r="297" spans="2:35">
       <c r="B297" t="s">
@@ -9206,9 +8916,6 @@
       <c r="AB297">
         <v>47</v>
       </c>
-      <c r="AC297">
-        <v>124</v>
-      </c>
       <c r="AE297">
         <v>4</v>
       </c>
@@ -9219,7 +8926,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="298" spans="2:35">
+    <row r="298" spans="2:35" hidden="1">
       <c r="B298" t="s">
         <v>14</v>
       </c>
@@ -9264,9 +8971,6 @@
       <c r="AB299">
         <v>49</v>
       </c>
-      <c r="AC299">
-        <v>98</v>
-      </c>
     </row>
     <row r="300" spans="2:35">
       <c r="B300" t="s">
@@ -9287,11 +8991,8 @@
       <c r="AB300">
         <v>47</v>
       </c>
-      <c r="AC300">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="301" spans="2:35">
+    </row>
+    <row r="301" spans="2:35" hidden="1">
       <c r="B301" t="s">
         <v>19</v>
       </c>
@@ -9334,9 +9035,6 @@
       <c r="AB302">
         <v>49</v>
       </c>
-      <c r="AC302">
-        <v>98</v>
-      </c>
     </row>
     <row r="303" spans="2:35">
       <c r="B303" t="s">
@@ -9360,11 +9058,8 @@
       <c r="AB303">
         <v>49</v>
       </c>
-      <c r="AC303">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="304" spans="2:35">
+    </row>
+    <row r="304" spans="2:35" hidden="1">
       <c r="B304" t="s">
         <v>19</v>
       </c>
@@ -9387,7 +9082,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="305" spans="2:29">
+    <row r="305" spans="2:29" hidden="1">
       <c r="B305" t="s">
         <v>19</v>
       </c>
@@ -9410,7 +9105,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="306" spans="2:29">
+    <row r="306" spans="2:29" hidden="1">
       <c r="B306" t="s">
         <v>25</v>
       </c>
@@ -9439,7 +9134,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="307" spans="2:29">
+    <row r="307" spans="2:29" hidden="1">
       <c r="B307" t="s">
         <v>25</v>
       </c>
@@ -9495,9 +9190,6 @@
       <c r="AB308">
         <v>47</v>
       </c>
-      <c r="AC308">
-        <v>124</v>
-      </c>
     </row>
     <row r="309" spans="2:29">
       <c r="B309" t="s">
@@ -9518,9 +9210,6 @@
       <c r="AB309">
         <v>49</v>
       </c>
-      <c r="AC309">
-        <v>91</v>
-      </c>
     </row>
     <row r="310" spans="2:29">
       <c r="B310" t="s">
@@ -9544,11 +9233,8 @@
       <c r="AB310">
         <v>49</v>
       </c>
-      <c r="AC310">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="311" spans="2:29">
+    </row>
+    <row r="311" spans="2:29" hidden="1">
       <c r="B311" t="s">
         <v>18</v>
       </c>
@@ -9590,9 +9276,6 @@
       <c r="AB312">
         <v>47</v>
       </c>
-      <c r="AC312">
-        <v>124</v>
-      </c>
     </row>
     <row r="313" spans="2:29">
       <c r="B313" t="s">
@@ -9613,11 +9296,8 @@
       <c r="AB313">
         <v>47</v>
       </c>
-      <c r="AC313">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="314" spans="2:29">
+    </row>
+    <row r="314" spans="2:29" hidden="1">
       <c r="B314" t="s">
         <v>18</v>
       </c>
@@ -9640,7 +9320,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="315" spans="2:29">
+    <row r="315" spans="2:29" hidden="1">
       <c r="B315" t="s">
         <v>18</v>
       </c>
@@ -9663,7 +9343,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="316" spans="2:29">
+    <row r="316" spans="2:29" hidden="1">
       <c r="B316" t="s">
         <v>25</v>
       </c>
@@ -9686,7 +9366,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="2:29">
+    <row r="317" spans="2:29" hidden="1">
       <c r="B317" t="s">
         <v>14</v>
       </c>
@@ -9712,7 +9392,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="318" spans="2:29">
+    <row r="318" spans="2:29" hidden="1">
       <c r="B318" t="s">
         <v>17</v>
       </c>
@@ -9735,7 +9415,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="319" spans="2:29">
+    <row r="319" spans="2:29" hidden="1">
       <c r="B319" t="s">
         <v>18</v>
       </c>
@@ -9758,7 +9438,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="320" spans="2:29">
+    <row r="320" spans="2:29" hidden="1">
       <c r="B320" t="s">
         <v>19</v>
       </c>
@@ -9807,9 +9487,6 @@
       <c r="AB321">
         <v>49</v>
       </c>
-      <c r="AC321">
-        <v>91</v>
-      </c>
     </row>
     <row r="322" spans="2:34">
       <c r="B322" t="s">
@@ -9830,9 +9507,6 @@
       <c r="AB322">
         <v>47</v>
       </c>
-      <c r="AC322">
-        <v>124</v>
-      </c>
     </row>
     <row r="323" spans="2:34">
       <c r="B323" t="s">
@@ -9853,11 +9527,8 @@
       <c r="AB323">
         <v>47</v>
       </c>
-      <c r="AC323">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="324" spans="2:34">
+    </row>
+    <row r="324" spans="2:34" hidden="1">
       <c r="B324" t="s">
         <v>25</v>
       </c>
@@ -9905,11 +9576,8 @@
       <c r="AB325">
         <v>47</v>
       </c>
-      <c r="AC325">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="326" spans="2:34">
+    </row>
+    <row r="326" spans="2:34" hidden="1">
       <c r="B326" t="s">
         <v>19</v>
       </c>
@@ -9935,7 +9603,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="327" spans="2:34">
+    <row r="327" spans="2:34" hidden="1">
       <c r="B327" t="s">
         <v>19</v>
       </c>
@@ -9959,7 +9627,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="328" spans="2:34">
+    <row r="328" spans="2:34" hidden="1">
       <c r="B328" t="s">
         <v>18</v>
       </c>
@@ -9988,7 +9656,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="329" spans="2:34">
+    <row r="329" spans="2:34" hidden="1">
       <c r="B329" t="s">
         <v>17</v>
       </c>
@@ -10014,7 +9682,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="330" spans="2:34">
+    <row r="330" spans="2:34" hidden="1">
       <c r="B330" t="s">
         <v>25</v>
       </c>
@@ -10037,7 +9705,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="331" spans="2:34">
+    <row r="331" spans="2:34" hidden="1">
       <c r="B331" t="s">
         <v>14</v>
       </c>
@@ -10066,7 +9734,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="332" spans="2:34">
+    <row r="332" spans="2:34" hidden="1">
       <c r="B332" t="s">
         <v>25</v>
       </c>
@@ -10123,9 +9791,6 @@
       <c r="AB333">
         <v>49</v>
       </c>
-      <c r="AC333">
-        <v>91</v>
-      </c>
     </row>
     <row r="334" spans="2:34">
       <c r="B334" t="s">
@@ -10152,9 +9817,6 @@
       <c r="AB334">
         <v>47</v>
       </c>
-      <c r="AC334">
-        <v>124</v>
-      </c>
     </row>
     <row r="335" spans="2:34">
       <c r="B335" t="s">
@@ -10175,9 +9837,6 @@
       <c r="AB335">
         <v>47</v>
       </c>
-      <c r="AC335">
-        <v>124</v>
-      </c>
     </row>
     <row r="336" spans="2:34">
       <c r="B336" t="s">
@@ -10223,9 +9882,6 @@
       <c r="AB336">
         <v>47</v>
       </c>
-      <c r="AC336">
-        <v>124</v>
-      </c>
       <c r="AF336">
         <v>16</v>
       </c>
@@ -10236,7 +9892,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="337" spans="1:31">
+    <row r="337" spans="1:31" hidden="1">
       <c r="A337" t="s">
         <v>20</v>
       </c>
@@ -10277,7 +9933,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="338" spans="1:31">
+    <row r="338" spans="1:31" hidden="1">
       <c r="B338" t="s">
         <v>34</v>
       </c>
@@ -10306,7 +9962,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="339" spans="1:31">
+    <row r="339" spans="1:31" hidden="1">
       <c r="B339" t="s">
         <v>34</v>
       </c>
@@ -10329,7 +9985,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="340" spans="1:31">
+    <row r="340" spans="1:31" hidden="1">
       <c r="B340" t="s">
         <v>34</v>
       </c>
@@ -10367,7 +10023,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="341" spans="1:31">
+    <row r="341" spans="1:31" hidden="1">
       <c r="B341" t="s">
         <v>34</v>
       </c>
@@ -10402,7 +10058,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="342" spans="1:31">
+    <row r="342" spans="1:31" hidden="1">
       <c r="B342" t="s">
         <v>34</v>
       </c>
@@ -10425,7 +10081,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="343" spans="1:31">
+    <row r="343" spans="1:31" hidden="1">
       <c r="B343" t="s">
         <v>34</v>
       </c>
@@ -10451,7 +10107,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="344" spans="1:31">
+    <row r="344" spans="1:31" hidden="1">
       <c r="B344" t="s">
         <v>34</v>
       </c>
@@ -10480,7 +10136,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="345" spans="1:31">
+    <row r="345" spans="1:31" hidden="1">
       <c r="B345" t="s">
         <v>34</v>
       </c>
@@ -10521,7 +10177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:31">
+    <row r="346" spans="1:31" hidden="1">
       <c r="B346" t="s">
         <v>34</v>
       </c>
@@ -10544,7 +10200,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="347" spans="1:31">
+    <row r="347" spans="1:31" hidden="1">
       <c r="B347" t="s">
         <v>34</v>
       </c>
@@ -10582,7 +10238,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="348" spans="1:31">
+    <row r="348" spans="1:31" hidden="1">
       <c r="B348" t="s">
         <v>34</v>
       </c>
@@ -10606,7 +10262,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="349" spans="1:31">
+    <row r="349" spans="1:31" hidden="1">
       <c r="B349" t="s">
         <v>34</v>
       </c>
@@ -10638,7 +10294,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="350" spans="1:31">
+    <row r="350" spans="1:31" hidden="1">
       <c r="B350" t="s">
         <v>34</v>
       </c>
@@ -10676,7 +10332,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="351" spans="1:31">
+    <row r="351" spans="1:31" hidden="1">
       <c r="B351" t="s">
         <v>34</v>
       </c>
@@ -10708,7 +10364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:31">
+    <row r="352" spans="1:31" hidden="1">
       <c r="B352" t="s">
         <v>34</v>
       </c>
@@ -10731,7 +10387,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="353" spans="2:35">
+    <row r="353" spans="2:35" hidden="1">
       <c r="B353" t="s">
         <v>34</v>
       </c>
@@ -10766,7 +10422,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="354" spans="2:35">
+    <row r="354" spans="2:35" hidden="1">
       <c r="B354" t="s">
         <v>34</v>
       </c>
@@ -10795,7 +10451,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="355" spans="2:35">
+    <row r="355" spans="2:35" hidden="1">
       <c r="B355" t="s">
         <v>34</v>
       </c>
@@ -10828,7 +10484,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="356" spans="2:35">
+    <row r="356" spans="2:35" hidden="1">
       <c r="B356" t="s">
         <v>34</v>
       </c>
@@ -10863,7 +10519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="2:35">
+    <row r="357" spans="2:35" hidden="1">
       <c r="B357" t="s">
         <v>34</v>
       </c>
@@ -10898,7 +10554,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="358" spans="2:35">
+    <row r="358" spans="2:35" hidden="1">
       <c r="B358" t="s">
         <v>34</v>
       </c>
@@ -10921,7 +10577,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="359" spans="2:35">
+    <row r="359" spans="2:35" hidden="1">
       <c r="B359" t="s">
         <v>34</v>
       </c>
@@ -10944,7 +10600,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="360" spans="2:35">
+    <row r="360" spans="2:35" hidden="1">
       <c r="B360" t="s">
         <v>34</v>
       </c>
@@ -10970,7 +10626,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="361" spans="2:35">
+    <row r="361" spans="2:35" hidden="1">
       <c r="B361" t="s">
         <v>34</v>
       </c>
@@ -10990,7 +10646,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="362" spans="2:35">
+    <row r="362" spans="2:35" hidden="1">
       <c r="B362" t="s">
         <v>34</v>
       </c>
@@ -11025,7 +10681,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="363" spans="2:35">
+    <row r="363" spans="2:35" hidden="1">
       <c r="B363" t="s">
         <v>34</v>
       </c>
@@ -11048,7 +10704,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="364" spans="2:35">
+    <row r="364" spans="2:35" hidden="1">
       <c r="B364" t="s">
         <v>34</v>
       </c>
@@ -11071,7 +10727,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="365" spans="2:35">
+    <row r="365" spans="2:35" hidden="1">
       <c r="B365" t="s">
         <v>34</v>
       </c>
@@ -11118,7 +10774,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="366" spans="2:35">
+    <row r="366" spans="2:35" hidden="1">
       <c r="B366" t="s">
         <v>34</v>
       </c>
@@ -11153,7 +10809,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="367" spans="2:35">
+    <row r="367" spans="2:35" hidden="1">
       <c r="B367" t="s">
         <v>34</v>
       </c>
@@ -11173,7 +10829,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="368" spans="2:35">
+    <row r="368" spans="2:35" hidden="1">
       <c r="B368" t="s">
         <v>34</v>
       </c>
@@ -11203,7 +10859,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="369" spans="2:34">
+    <row r="369" spans="2:34" hidden="1">
       <c r="B369" t="s">
         <v>34</v>
       </c>
@@ -11254,7 +10910,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="370" spans="2:34">
+    <row r="370" spans="2:34" hidden="1">
       <c r="B370" t="s">
         <v>34</v>
       </c>
@@ -11277,7 +10933,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="371" spans="2:34">
+    <row r="371" spans="2:34" hidden="1">
       <c r="B371" t="s">
         <v>34</v>
       </c>
@@ -11309,7 +10965,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="372" spans="2:34">
+    <row r="372" spans="2:34" hidden="1">
       <c r="B372" t="s">
         <v>34</v>
       </c>
@@ -11341,7 +10997,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="373" spans="2:34">
+    <row r="373" spans="2:34" hidden="1">
       <c r="B373" t="s">
         <v>34</v>
       </c>
@@ -11373,7 +11029,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="374" spans="2:34">
+    <row r="374" spans="2:34" hidden="1">
       <c r="B374" t="s">
         <v>34</v>
       </c>
@@ -11442,9 +11098,6 @@
       <c r="AB375">
         <v>47</v>
       </c>
-      <c r="AC375">
-        <v>117</v>
-      </c>
     </row>
     <row r="376" spans="2:34">
       <c r="B376" t="s">
@@ -11471,9 +11124,6 @@
       <c r="AB376">
         <v>47</v>
       </c>
-      <c r="AC376">
-        <v>117</v>
-      </c>
     </row>
     <row r="377" spans="2:34">
       <c r="B377" t="s">
@@ -11509,9 +11159,6 @@
       <c r="AB377">
         <v>47</v>
       </c>
-      <c r="AC377">
-        <v>117</v>
-      </c>
     </row>
     <row r="378" spans="2:34">
       <c r="B378" t="s">
@@ -11544,9 +11191,6 @@
       <c r="AB378">
         <v>47</v>
       </c>
-      <c r="AC378">
-        <v>117</v>
-      </c>
     </row>
     <row r="379" spans="2:34">
       <c r="B379" t="s">
@@ -11567,9 +11211,6 @@
       <c r="AB379">
         <v>47</v>
       </c>
-      <c r="AC379">
-        <v>117</v>
-      </c>
     </row>
     <row r="380" spans="2:34">
       <c r="B380" t="s">
@@ -11590,9 +11231,6 @@
       <c r="AB380">
         <v>47</v>
       </c>
-      <c r="AC380">
-        <v>117</v>
-      </c>
     </row>
     <row r="381" spans="2:34">
       <c r="B381" t="s">
@@ -11613,9 +11251,6 @@
       <c r="AB381">
         <v>47</v>
       </c>
-      <c r="AC381">
-        <v>117</v>
-      </c>
     </row>
     <row r="382" spans="2:34">
       <c r="B382" t="s">
@@ -11639,9 +11274,6 @@
       <c r="AB382">
         <v>47</v>
       </c>
-      <c r="AC382">
-        <v>117</v>
-      </c>
     </row>
     <row r="383" spans="2:34">
       <c r="B383" t="s">
@@ -11677,9 +11309,6 @@
       <c r="AB383">
         <v>47</v>
       </c>
-      <c r="AC383">
-        <v>117</v>
-      </c>
       <c r="AD383">
         <v>5</v>
       </c>
@@ -11706,9 +11335,6 @@
       <c r="AB384">
         <v>47</v>
       </c>
-      <c r="AC384">
-        <v>117</v>
-      </c>
     </row>
     <row r="385" spans="2:35">
       <c r="B385" t="s">
@@ -11741,9 +11367,6 @@
       <c r="AB385">
         <v>47</v>
       </c>
-      <c r="AC385">
-        <v>117</v>
-      </c>
     </row>
     <row r="386" spans="2:35">
       <c r="B386" t="s">
@@ -11764,9 +11387,6 @@
       <c r="AB386">
         <v>47</v>
       </c>
-      <c r="AC386">
-        <v>117</v>
-      </c>
     </row>
     <row r="387" spans="2:35">
       <c r="B387" t="s">
@@ -11797,9 +11417,6 @@
       <c r="AB387">
         <v>47</v>
       </c>
-      <c r="AC387">
-        <v>117</v>
-      </c>
     </row>
     <row r="388" spans="2:35">
       <c r="B388" t="s">
@@ -11838,9 +11455,6 @@
       <c r="AB388">
         <v>47</v>
       </c>
-      <c r="AC388">
-        <v>117</v>
-      </c>
     </row>
     <row r="389" spans="2:35">
       <c r="B389" t="s">
@@ -11867,9 +11481,6 @@
       <c r="AB389">
         <v>47</v>
       </c>
-      <c r="AC389">
-        <v>117</v>
-      </c>
       <c r="AE389">
         <v>5</v>
       </c>
@@ -11908,9 +11519,6 @@
       <c r="AB390">
         <v>47</v>
       </c>
-      <c r="AC390">
-        <v>117</v>
-      </c>
     </row>
     <row r="391" spans="2:35">
       <c r="B391" t="s">
@@ -11937,9 +11545,6 @@
       <c r="AB391">
         <v>47</v>
       </c>
-      <c r="AC391">
-        <v>117</v>
-      </c>
     </row>
     <row r="392" spans="2:35">
       <c r="B392" t="s">
@@ -11963,9 +11568,6 @@
       <c r="AB392">
         <v>47</v>
       </c>
-      <c r="AC392">
-        <v>117</v>
-      </c>
       <c r="AI392">
         <v>5</v>
       </c>
@@ -11989,9 +11591,6 @@
       <c r="AB393">
         <v>47</v>
       </c>
-      <c r="AC393">
-        <v>117</v>
-      </c>
     </row>
     <row r="394" spans="2:35">
       <c r="B394" t="s">
@@ -12012,9 +11611,6 @@
       <c r="AB394">
         <v>47</v>
       </c>
-      <c r="AC394">
-        <v>117</v>
-      </c>
       <c r="AD394">
         <v>2</v>
       </c>
@@ -12050,9 +11646,6 @@
       <c r="AB395">
         <v>47</v>
       </c>
-      <c r="AC395">
-        <v>117</v>
-      </c>
     </row>
     <row r="396" spans="2:35">
       <c r="B396" t="s">
@@ -12079,9 +11672,6 @@
       <c r="AB396">
         <v>47</v>
       </c>
-      <c r="AC396">
-        <v>117</v>
-      </c>
     </row>
     <row r="397" spans="2:35">
       <c r="B397" t="s">
@@ -12102,9 +11692,6 @@
       <c r="AB397">
         <v>47</v>
       </c>
-      <c r="AC397">
-        <v>117</v>
-      </c>
     </row>
     <row r="398" spans="2:35">
       <c r="B398" t="s">
@@ -12125,9 +11712,6 @@
       <c r="AB398">
         <v>47</v>
       </c>
-      <c r="AC398">
-        <v>117</v>
-      </c>
     </row>
     <row r="399" spans="2:35">
       <c r="B399" t="s">
@@ -12160,9 +11744,6 @@
       <c r="AB399">
         <v>47</v>
       </c>
-      <c r="AC399">
-        <v>117</v>
-      </c>
     </row>
     <row r="400" spans="2:35">
       <c r="B400" t="s">
@@ -12183,9 +11764,6 @@
       <c r="AB400">
         <v>47</v>
       </c>
-      <c r="AC400">
-        <v>117</v>
-      </c>
     </row>
     <row r="401" spans="2:35">
       <c r="B401" t="s">
@@ -12230,9 +11808,6 @@
       <c r="AB401">
         <v>47</v>
       </c>
-      <c r="AC401">
-        <v>117</v>
-      </c>
     </row>
     <row r="402" spans="2:35">
       <c r="B402" t="s">
@@ -12253,9 +11828,6 @@
       <c r="AB402">
         <v>47</v>
       </c>
-      <c r="AC402">
-        <v>117</v>
-      </c>
       <c r="AD402">
         <v>1</v>
       </c>
@@ -12285,9 +11857,6 @@
       <c r="AB403">
         <v>47</v>
       </c>
-      <c r="AC403">
-        <v>117</v>
-      </c>
     </row>
     <row r="404" spans="2:35">
       <c r="B404" t="s">
@@ -12320,9 +11889,6 @@
       <c r="AB404">
         <v>47</v>
       </c>
-      <c r="AC404">
-        <v>117</v>
-      </c>
     </row>
     <row r="405" spans="2:35">
       <c r="B405" t="s">
@@ -12343,9 +11909,6 @@
       <c r="AB405">
         <v>47</v>
       </c>
-      <c r="AC405">
-        <v>117</v>
-      </c>
     </row>
     <row r="406" spans="2:35">
       <c r="B406" t="s">
@@ -12378,9 +11941,6 @@
       <c r="AB406">
         <v>47</v>
       </c>
-      <c r="AC406">
-        <v>117</v>
-      </c>
     </row>
     <row r="407" spans="2:35">
       <c r="B407" t="s">
@@ -12401,9 +11961,6 @@
       <c r="AB407">
         <v>47</v>
       </c>
-      <c r="AC407">
-        <v>117</v>
-      </c>
     </row>
     <row r="408" spans="2:35">
       <c r="B408" t="s">
@@ -12424,9 +11981,6 @@
       <c r="AB408">
         <v>47</v>
       </c>
-      <c r="AC408">
-        <v>117</v>
-      </c>
     </row>
     <row r="409" spans="2:35">
       <c r="B409" t="s">
@@ -12451,9 +12005,6 @@
       <c r="AB409">
         <v>47</v>
       </c>
-      <c r="AC409">
-        <v>117</v>
-      </c>
     </row>
     <row r="410" spans="2:35">
       <c r="B410" t="s">
@@ -12477,9 +12028,6 @@
       <c r="AB410">
         <v>47</v>
       </c>
-      <c r="AC410">
-        <v>117</v>
-      </c>
     </row>
     <row r="411" spans="2:35">
       <c r="B411" t="s">
@@ -12515,9 +12063,6 @@
       <c r="AB411">
         <v>47</v>
       </c>
-      <c r="AC411">
-        <v>117</v>
-      </c>
       <c r="AF411">
         <v>14</v>
       </c>
@@ -12572,9 +12117,6 @@
       <c r="AB412">
         <v>47</v>
       </c>
-      <c r="AC412">
-        <v>117</v>
-      </c>
       <c r="AG412">
         <v>7.3</v>
       </c>
@@ -12582,7 +12124,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="413" spans="2:35">
+    <row r="413" spans="2:35" hidden="1">
       <c r="B413" t="s">
         <v>17</v>
       </c>
@@ -12605,7 +12147,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="414" spans="2:35">
+    <row r="414" spans="2:35" hidden="1">
       <c r="B414" t="s">
         <v>17</v>
       </c>
@@ -12628,7 +12170,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="415" spans="2:35">
+    <row r="415" spans="2:35" hidden="1">
       <c r="B415" t="s">
         <v>17</v>
       </c>
@@ -12654,7 +12196,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="416" spans="2:35">
+    <row r="416" spans="2:35" hidden="1">
       <c r="B416" t="s">
         <v>17</v>
       </c>
@@ -12677,7 +12219,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="417" spans="2:35">
+    <row r="417" spans="2:35" hidden="1">
       <c r="B417" t="s">
         <v>17</v>
       </c>
@@ -12700,7 +12242,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="418" spans="2:35">
+    <row r="418" spans="2:35" hidden="1">
       <c r="B418" t="s">
         <v>17</v>
       </c>
@@ -12726,7 +12268,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="419" spans="2:35">
+    <row r="419" spans="2:35" hidden="1">
       <c r="B419" t="s">
         <v>17</v>
       </c>
@@ -12752,7 +12294,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="420" spans="2:35">
+    <row r="420" spans="2:35" hidden="1">
       <c r="B420" t="s">
         <v>17</v>
       </c>
@@ -12775,7 +12317,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="421" spans="2:35">
+    <row r="421" spans="2:35" hidden="1">
       <c r="B421" t="s">
         <v>17</v>
       </c>
@@ -12798,7 +12340,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="422" spans="2:35">
+    <row r="422" spans="2:35" hidden="1">
       <c r="B422" t="s">
         <v>14</v>
       </c>
@@ -12821,7 +12363,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="423" spans="2:35">
+    <row r="423" spans="2:35" hidden="1">
       <c r="B423" t="s">
         <v>14</v>
       </c>
@@ -12844,7 +12386,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="424" spans="2:35">
+    <row r="424" spans="2:35" hidden="1">
       <c r="B424" t="s">
         <v>14</v>
       </c>
@@ -12870,7 +12412,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="425" spans="2:35">
+    <row r="425" spans="2:35" hidden="1">
       <c r="B425" t="s">
         <v>14</v>
       </c>
@@ -12893,7 +12435,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="426" spans="2:35">
+    <row r="426" spans="2:35" hidden="1">
       <c r="B426" t="s">
         <v>14</v>
       </c>
@@ -12916,7 +12458,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="427" spans="2:35">
+    <row r="427" spans="2:35" hidden="1">
       <c r="B427" t="s">
         <v>14</v>
       </c>
@@ -12939,7 +12481,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="428" spans="2:35">
+    <row r="428" spans="2:35" hidden="1">
       <c r="B428" t="s">
         <v>14</v>
       </c>
@@ -12965,7 +12507,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="429" spans="2:35">
+    <row r="429" spans="2:35" hidden="1">
       <c r="B429" t="s">
         <v>14</v>
       </c>
@@ -12994,7 +12536,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="430" spans="2:35">
+    <row r="430" spans="2:35" hidden="1">
       <c r="B430" t="s">
         <v>14</v>
       </c>
@@ -13023,7 +12565,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="431" spans="2:35">
+    <row r="431" spans="2:35" hidden="1">
       <c r="B431" t="s">
         <v>14</v>
       </c>
@@ -13046,7 +12588,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="432" spans="2:35">
+    <row r="432" spans="2:35" hidden="1">
       <c r="B432" t="s">
         <v>14</v>
       </c>
@@ -13069,7 +12611,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="433" spans="2:35">
+    <row r="433" spans="2:35" hidden="1">
       <c r="B433" t="s">
         <v>14</v>
       </c>
@@ -13092,7 +12634,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="434" spans="2:35">
+    <row r="434" spans="2:35" hidden="1">
       <c r="B434" t="s">
         <v>14</v>
       </c>
@@ -13115,7 +12657,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="435" spans="2:35">
+    <row r="435" spans="2:35" hidden="1">
       <c r="B435" t="s">
         <v>14</v>
       </c>
@@ -13139,7 +12681,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="436" spans="2:35">
+    <row r="436" spans="2:35" hidden="1">
       <c r="B436" t="s">
         <v>14</v>
       </c>
@@ -13165,7 +12707,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="437" spans="2:35">
+    <row r="437" spans="2:35" hidden="1">
       <c r="B437" t="s">
         <v>14</v>
       </c>
@@ -13188,7 +12730,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="438" spans="2:35">
+    <row r="438" spans="2:35" hidden="1">
       <c r="B438" t="s">
         <v>14</v>
       </c>
@@ -13214,7 +12756,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="439" spans="2:35">
+    <row r="439" spans="2:35" hidden="1">
       <c r="B439" t="s">
         <v>14</v>
       </c>
@@ -13238,7 +12780,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="440" spans="2:35">
+    <row r="440" spans="2:35" hidden="1">
       <c r="B440" t="s">
         <v>14</v>
       </c>
@@ -13261,7 +12803,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="441" spans="2:35">
+    <row r="441" spans="2:35" hidden="1">
       <c r="B441" t="s">
         <v>14</v>
       </c>
@@ -13284,7 +12826,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="442" spans="2:35">
+    <row r="442" spans="2:35" hidden="1">
       <c r="B442" t="s">
         <v>14</v>
       </c>
@@ -13310,7 +12852,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="443" spans="2:35">
+    <row r="443" spans="2:35" hidden="1">
       <c r="B443" t="s">
         <v>18</v>
       </c>
@@ -13336,7 +12878,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="444" spans="2:35">
+    <row r="444" spans="2:35" hidden="1">
       <c r="B444" t="s">
         <v>18</v>
       </c>
@@ -13359,7 +12901,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="445" spans="2:35">
+    <row r="445" spans="2:35" hidden="1">
       <c r="B445" t="s">
         <v>18</v>
       </c>
@@ -13382,7 +12924,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="446" spans="2:35">
+    <row r="446" spans="2:35" hidden="1">
       <c r="B446" t="s">
         <v>18</v>
       </c>
@@ -13411,7 +12953,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="447" spans="2:35">
+    <row r="447" spans="2:35" hidden="1">
       <c r="B447" t="s">
         <v>18</v>
       </c>
@@ -13435,7 +12977,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="448" spans="2:35">
+    <row r="448" spans="2:35" hidden="1">
       <c r="B448" t="s">
         <v>18</v>
       </c>
@@ -13467,7 +13009,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="449" spans="2:35">
+    <row r="449" spans="2:35" hidden="1">
       <c r="B449" t="s">
         <v>18</v>
       </c>
@@ -13494,7 +13036,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="450" spans="2:35">
+    <row r="450" spans="2:35" hidden="1">
       <c r="B450" t="s">
         <v>18</v>
       </c>
@@ -13520,7 +13062,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="451" spans="2:35">
+    <row r="451" spans="2:35" hidden="1">
       <c r="B451" t="s">
         <v>18</v>
       </c>
@@ -13540,7 +13082,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="452" spans="2:35">
+    <row r="452" spans="2:35" hidden="1">
       <c r="B452" t="s">
         <v>18</v>
       </c>
@@ -13564,7 +13106,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="453" spans="2:35">
+    <row r="453" spans="2:35" hidden="1">
       <c r="B453" t="s">
         <v>18</v>
       </c>
@@ -13587,7 +13129,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="454" spans="2:35">
+    <row r="454" spans="2:35" hidden="1">
       <c r="B454" t="s">
         <v>18</v>
       </c>
@@ -13614,7 +13156,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="455" spans="2:35">
+    <row r="455" spans="2:35" hidden="1">
       <c r="B455" t="s">
         <v>18</v>
       </c>
@@ -13637,7 +13179,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="456" spans="2:35">
+    <row r="456" spans="2:35" hidden="1">
       <c r="B456" t="s">
         <v>18</v>
       </c>
@@ -13660,7 +13202,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="457" spans="2:35">
+    <row r="457" spans="2:35" hidden="1">
       <c r="B457" t="s">
         <v>23</v>
       </c>
@@ -13683,7 +13225,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="458" spans="2:35">
+    <row r="458" spans="2:35" hidden="1">
       <c r="B458" t="s">
         <v>23</v>
       </c>
@@ -13706,7 +13248,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="459" spans="2:35">
+    <row r="459" spans="2:35" hidden="1">
       <c r="B459" t="s">
         <v>23</v>
       </c>
@@ -13735,7 +13277,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="460" spans="2:35">
+    <row r="460" spans="2:35" hidden="1">
       <c r="B460" t="s">
         <v>23</v>
       </c>
@@ -13804,7 +13346,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="461" spans="2:35">
+    <row r="461" spans="2:35" hidden="1">
       <c r="B461" t="s">
         <v>24</v>
       </c>
@@ -13830,7 +13372,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="462" spans="2:35">
+    <row r="462" spans="2:35" hidden="1">
       <c r="B462" t="s">
         <v>24</v>
       </c>
@@ -13853,7 +13395,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="463" spans="2:35">
+    <row r="463" spans="2:35" hidden="1">
       <c r="B463" t="s">
         <v>24</v>
       </c>
@@ -13888,7 +13430,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="464" spans="2:35">
+    <row r="464" spans="2:35" hidden="1">
       <c r="B464" t="s">
         <v>24</v>
       </c>
@@ -13923,7 +13465,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="465" spans="2:35">
+    <row r="465" spans="2:35" hidden="1">
       <c r="B465" t="s">
         <v>24</v>
       </c>
@@ -13946,7 +13488,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="466" spans="2:35">
+    <row r="466" spans="2:35" hidden="1">
       <c r="B466" t="s">
         <v>24</v>
       </c>
@@ -13981,7 +13523,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="467" spans="2:35">
+    <row r="467" spans="2:35" hidden="1">
       <c r="B467" t="s">
         <v>24</v>
       </c>
@@ -14004,7 +13546,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="468" spans="2:35">
+    <row r="468" spans="2:35" hidden="1">
       <c r="B468" t="s">
         <v>24</v>
       </c>
@@ -14042,7 +13584,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="469" spans="2:35">
+    <row r="469" spans="2:35" hidden="1">
       <c r="B469" t="s">
         <v>24</v>
       </c>
@@ -14099,7 +13641,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="470" spans="2:35">
+    <row r="470" spans="2:35" hidden="1">
       <c r="B470" t="s">
         <v>24</v>
       </c>
@@ -14128,7 +13670,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="471" spans="2:35">
+    <row r="471" spans="2:35" hidden="1">
       <c r="B471" t="s">
         <v>25</v>
       </c>
@@ -14151,7 +13693,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="472" spans="2:35">
+    <row r="472" spans="2:35" hidden="1">
       <c r="B472" t="s">
         <v>25</v>
       </c>
@@ -14191,7 +13733,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="473" spans="2:35">
+    <row r="473" spans="2:35" hidden="1">
       <c r="B473" t="s">
         <v>25</v>
       </c>
@@ -14224,7 +13766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="2:35">
+    <row r="474" spans="2:35" hidden="1">
       <c r="B474" t="s">
         <v>25</v>
       </c>
@@ -14250,7 +13792,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="475" spans="2:35">
+    <row r="475" spans="2:35" hidden="1">
       <c r="B475" t="s">
         <v>25</v>
       </c>
@@ -14273,7 +13815,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="476" spans="2:35">
+    <row r="476" spans="2:35" hidden="1">
       <c r="B476" t="s">
         <v>25</v>
       </c>
@@ -14302,7 +13844,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="477" spans="2:35">
+    <row r="477" spans="2:35" hidden="1">
       <c r="B477" t="s">
         <v>25</v>
       </c>
@@ -14328,7 +13870,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="478" spans="2:35">
+    <row r="478" spans="2:35" hidden="1">
       <c r="B478" t="s">
         <v>25</v>
       </c>
@@ -14388,7 +13930,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="479" spans="2:35">
+    <row r="479" spans="2:35" hidden="1">
       <c r="B479" t="s">
         <v>25</v>
       </c>
@@ -14430,9 +13972,6 @@
       <c r="AB480">
         <v>49</v>
       </c>
-      <c r="AC480">
-        <v>111</v>
-      </c>
     </row>
     <row r="481" spans="2:35">
       <c r="B481" t="s">
@@ -14453,9 +13992,6 @@
       <c r="AB481">
         <v>49</v>
       </c>
-      <c r="AC481">
-        <v>111</v>
-      </c>
     </row>
     <row r="482" spans="2:35">
       <c r="B482" t="s">
@@ -14476,9 +14012,6 @@
       <c r="AB482">
         <v>49</v>
       </c>
-      <c r="AC482">
-        <v>111</v>
-      </c>
     </row>
     <row r="483" spans="2:35">
       <c r="B483" t="s">
@@ -14496,9 +14029,6 @@
       <c r="AB483">
         <v>49</v>
       </c>
-      <c r="AC483">
-        <v>111</v>
-      </c>
     </row>
     <row r="484" spans="2:35">
       <c r="B484" t="s">
@@ -14525,9 +14055,6 @@
       <c r="AB484">
         <v>49</v>
       </c>
-      <c r="AC484">
-        <v>111</v>
-      </c>
     </row>
     <row r="485" spans="2:35">
       <c r="B485" t="s">
@@ -14588,9 +14115,6 @@
       <c r="AB485">
         <v>49</v>
       </c>
-      <c r="AC485">
-        <v>111</v>
-      </c>
       <c r="AG485">
         <v>7.2</v>
       </c>
@@ -14623,9 +14147,6 @@
       <c r="AB486">
         <v>49</v>
       </c>
-      <c r="AC486">
-        <v>98</v>
-      </c>
       <c r="AI486">
         <v>5</v>
       </c>
@@ -14661,9 +14182,6 @@
       <c r="AB487">
         <v>49</v>
       </c>
-      <c r="AC487">
-        <v>98</v>
-      </c>
     </row>
     <row r="488" spans="2:35">
       <c r="B488" t="s">
@@ -14684,9 +14202,6 @@
       <c r="AB488">
         <v>49</v>
       </c>
-      <c r="AC488">
-        <v>98</v>
-      </c>
     </row>
     <row r="489" spans="2:35">
       <c r="B489" t="s">
@@ -14719,9 +14234,6 @@
       <c r="AB489">
         <v>49</v>
       </c>
-      <c r="AC489">
-        <v>98</v>
-      </c>
     </row>
     <row r="490" spans="2:35">
       <c r="B490" t="s">
@@ -14742,9 +14254,6 @@
       <c r="AB490">
         <v>49</v>
       </c>
-      <c r="AC490">
-        <v>98</v>
-      </c>
     </row>
     <row r="491" spans="2:35">
       <c r="B491" t="s">
@@ -14777,9 +14286,6 @@
       <c r="AB491">
         <v>49</v>
       </c>
-      <c r="AC491">
-        <v>98</v>
-      </c>
     </row>
     <row r="492" spans="2:35">
       <c r="B492" t="s">
@@ -14800,9 +14306,6 @@
       <c r="AB492">
         <v>49</v>
       </c>
-      <c r="AC492">
-        <v>98</v>
-      </c>
     </row>
     <row r="493" spans="2:35">
       <c r="B493" t="s">
@@ -14823,9 +14326,6 @@
       <c r="AB493">
         <v>49</v>
       </c>
-      <c r="AC493">
-        <v>98</v>
-      </c>
     </row>
     <row r="494" spans="2:35">
       <c r="B494" t="s">
@@ -14855,9 +14355,6 @@
       <c r="AB494">
         <v>49</v>
       </c>
-      <c r="AC494">
-        <v>98</v>
-      </c>
     </row>
     <row r="495" spans="2:35">
       <c r="B495" t="s">
@@ -14912,9 +14409,6 @@
       <c r="AB495">
         <v>49</v>
       </c>
-      <c r="AC495">
-        <v>98</v>
-      </c>
       <c r="AG495">
         <v>6.8</v>
       </c>
@@ -14941,9 +14435,6 @@
       <c r="AB496">
         <v>49</v>
       </c>
-      <c r="AC496">
-        <v>91</v>
-      </c>
     </row>
     <row r="497" spans="2:35">
       <c r="B497" t="s">
@@ -14969,9 +14460,6 @@
       </c>
       <c r="AB497">
         <v>49</v>
-      </c>
-      <c r="AC497">
-        <v>91</v>
       </c>
     </row>
     <row r="498" spans="2:35">
@@ -14995,9 +14483,6 @@
       <c r="AB498">
         <v>49</v>
       </c>
-      <c r="AC498">
-        <v>91</v>
-      </c>
     </row>
     <row r="499" spans="2:35">
       <c r="B499" t="s">
@@ -15018,9 +14503,6 @@
       <c r="AB499">
         <v>49</v>
       </c>
-      <c r="AC499">
-        <v>91</v>
-      </c>
     </row>
     <row r="500" spans="2:35">
       <c r="B500" t="s">
@@ -15050,9 +14532,6 @@
       <c r="AB500">
         <v>49</v>
       </c>
-      <c r="AC500">
-        <v>91</v>
-      </c>
     </row>
     <row r="501" spans="2:35">
       <c r="B501" t="s">
@@ -15088,9 +14567,6 @@
       <c r="AB501">
         <v>49</v>
       </c>
-      <c r="AC501">
-        <v>91</v>
-      </c>
     </row>
     <row r="502" spans="2:35">
       <c r="B502" t="s">
@@ -15114,9 +14590,6 @@
       <c r="AB502">
         <v>49</v>
       </c>
-      <c r="AC502">
-        <v>91</v>
-      </c>
       <c r="AI502">
         <v>0.8</v>
       </c>
@@ -15140,9 +14613,6 @@
       <c r="AB503">
         <v>49</v>
       </c>
-      <c r="AC503">
-        <v>91</v>
-      </c>
     </row>
     <row r="504" spans="2:35">
       <c r="B504" t="s">
@@ -15163,9 +14633,6 @@
       <c r="AB504">
         <v>49</v>
       </c>
-      <c r="AC504">
-        <v>91</v>
-      </c>
     </row>
     <row r="505" spans="2:35">
       <c r="B505" t="s">
@@ -15186,9 +14653,6 @@
       <c r="AB505">
         <v>49</v>
       </c>
-      <c r="AC505">
-        <v>91</v>
-      </c>
     </row>
     <row r="506" spans="2:35">
       <c r="B506" t="s">
@@ -15209,11 +14673,8 @@
       <c r="AB506">
         <v>49</v>
       </c>
-      <c r="AC506">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="507" spans="2:35">
+    </row>
+    <row r="507" spans="2:35" hidden="1">
       <c r="B507" t="s">
         <v>15</v>
       </c>
@@ -15236,7 +14697,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="508" spans="2:35">
+    <row r="508" spans="2:35" hidden="1">
       <c r="B508" t="s">
         <v>15</v>
       </c>
@@ -15251,7 +14712,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="509" spans="2:35">
+    <row r="509" spans="2:35" hidden="1">
       <c r="B509" t="s">
         <v>15</v>
       </c>
@@ -15277,7 +14738,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="510" spans="2:35">
+    <row r="510" spans="2:35" hidden="1">
       <c r="B510" t="s">
         <v>15</v>
       </c>
@@ -15303,7 +14764,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="511" spans="2:35">
+    <row r="511" spans="2:35" hidden="1">
       <c r="B511" t="s">
         <v>15</v>
       </c>
@@ -15330,7 +14791,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="512" spans="2:35">
+    <row r="512" spans="2:35" hidden="1">
       <c r="B512" t="s">
         <v>15</v>
       </c>
@@ -15353,7 +14814,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="513" spans="2:35">
+    <row r="513" spans="2:35" hidden="1">
       <c r="B513" t="s">
         <v>15</v>
       </c>
@@ -15376,7 +14837,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="514" spans="2:35">
+    <row r="514" spans="2:35" hidden="1">
       <c r="B514" t="s">
         <v>16</v>
       </c>
@@ -15430,7 +14891,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="515" spans="2:35">
+    <row r="515" spans="2:35" hidden="1">
       <c r="B515" t="s">
         <v>16</v>
       </c>
@@ -15456,7 +14917,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="516" spans="2:35">
+    <row r="516" spans="2:35" hidden="1">
       <c r="B516" t="s">
         <v>16</v>
       </c>
@@ -15482,7 +14943,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="517" spans="2:35">
+    <row r="517" spans="2:35" hidden="1">
       <c r="B517" t="s">
         <v>16</v>
       </c>
@@ -15515,7 +14976,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="518" spans="2:35">
+    <row r="518" spans="2:35" hidden="1">
       <c r="B518" t="s">
         <v>16</v>
       </c>
@@ -15538,7 +14999,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="519" spans="2:35">
+    <row r="519" spans="2:35" hidden="1">
       <c r="B519" t="s">
         <v>16</v>
       </c>
@@ -15564,7 +15025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="520" spans="2:35">
+    <row r="520" spans="2:35" hidden="1">
       <c r="B520" t="s">
         <v>16</v>
       </c>
@@ -15587,7 +15048,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="521" spans="2:35">
+    <row r="521" spans="2:35" hidden="1">
       <c r="B521" t="s">
         <v>16</v>
       </c>
@@ -15613,7 +15074,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="522" spans="2:35">
+    <row r="522" spans="2:35" hidden="1">
       <c r="B522" t="s">
         <v>16</v>
       </c>
@@ -15636,7 +15097,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="523" spans="2:35">
+    <row r="523" spans="2:35" hidden="1">
       <c r="B523" t="s">
         <v>16</v>
       </c>
@@ -15659,7 +15120,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="524" spans="2:35">
+    <row r="524" spans="2:35" hidden="1">
       <c r="B524" t="s">
         <v>16</v>
       </c>
@@ -15688,7 +15149,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="525" spans="2:35">
+    <row r="525" spans="2:35" hidden="1">
       <c r="B525" t="s">
         <v>16</v>
       </c>
@@ -15724,7 +15185,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="526" spans="2:35">
+    <row r="526" spans="2:35" hidden="1">
       <c r="B526" t="s">
         <v>16</v>
       </c>
@@ -15751,7 +15212,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="527" spans="2:35">
+    <row r="527" spans="2:35" hidden="1">
       <c r="B527" t="s">
         <v>19</v>
       </c>
@@ -15775,7 +15236,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="528" spans="2:35">
+    <row r="528" spans="2:35" hidden="1">
       <c r="B528" t="s">
         <v>19</v>
       </c>
@@ -15799,7 +15260,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="529" spans="2:34">
+    <row r="529" spans="2:34" hidden="1">
       <c r="B529" t="s">
         <v>19</v>
       </c>
@@ -15826,7 +15287,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="530" spans="2:34">
+    <row r="530" spans="2:34" hidden="1">
       <c r="B530" t="s">
         <v>19</v>
       </c>
@@ -15854,7 +15315,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="531" spans="2:34">
+    <row r="531" spans="2:34" hidden="1">
       <c r="B531" t="s">
         <v>19</v>
       </c>
@@ -15877,7 +15338,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="532" spans="2:34">
+    <row r="532" spans="2:34" hidden="1">
       <c r="B532" t="s">
         <v>19</v>
       </c>
@@ -15900,7 +15361,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="533" spans="2:34">
+    <row r="533" spans="2:34" hidden="1">
       <c r="B533" t="s">
         <v>19</v>
       </c>
@@ -15926,7 +15387,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="534" spans="2:34">
+    <row r="534" spans="2:34" hidden="1">
       <c r="B534" t="s">
         <v>19</v>
       </c>
@@ -15949,7 +15410,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="535" spans="2:34">
+    <row r="535" spans="2:34" hidden="1">
       <c r="B535" t="s">
         <v>19</v>
       </c>
@@ -15978,7 +15439,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="536" spans="2:34">
+    <row r="536" spans="2:34" hidden="1">
       <c r="B536" t="s">
         <v>19</v>
       </c>
@@ -16119,6 +15580,18 @@
       <c r="T574" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AI536" xr:uid="{21C69D9A-1FFA-4799-BC03-A6694D3363DD}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="exp1EmeraldWaterIrr"/>
+        <filter val="exp1EmeraldWaterPodIrr"/>
+        <filter val="exp1EmeraldWaterRF"/>
+        <filter val="exp2WaterIrrCultivarEmerald"/>
+        <filter val="exp2WaterRFCultivarEmerald"/>
+        <filter val="exp2WaterTermStressCultivarEmerald"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI541">
     <sortCondition descending="1" ref="R2:R541"/>
   </sortState>

--- a/Prototypes/Mungbean/Exp1_2observed.xlsx
+++ b/Prototypes/Mungbean/Exp1_2observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD200AC-46CE-4CEA-B771-1C18EF84FC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C7D980-3082-44A9-AA22-A4AEC83882E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{EC5736B7-331A-44E7-9B2A-DE6BDB9CC19C}"/>
+    <workbookView xWindow="28680" yWindow="5505" windowWidth="29040" windowHeight="15840" xr2:uid="{EC5736B7-331A-44E7-9B2A-DE6BDB9CC19C}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -197,10 +197,10 @@
     <t>Mungbean.Phenology.StartPodDevDAS</t>
   </si>
   <si>
-    <t>Mungbean.Phenology.MaturityDAS</t>
+    <t>Mungbean.Nodule.Nfixed</t>
   </si>
   <si>
-    <t>Mungbean.Nodule.Nfixed</t>
+    <t>Mungbean.Phenology.MaturityDASx</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
   <dimension ref="A1:AI574"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N103" sqref="N103:N104"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -692,7 +692,7 @@
         <v>52</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>9</v>
@@ -710,7 +710,7 @@
         <v>13</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:35" hidden="1">

--- a/Prototypes/Mungbean/Exp1_2observed.xlsx
+++ b/Prototypes/Mungbean/Exp1_2observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C7D980-3082-44A9-AA22-A4AEC83882E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63EEC79-1097-4357-BCDA-830E54ECE9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5505" windowWidth="29040" windowHeight="15840" xr2:uid="{EC5736B7-331A-44E7-9B2A-DE6BDB9CC19C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{EC5736B7-331A-44E7-9B2A-DE6BDB9CC19C}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>exp1EmeraldWaterRF</t>
   </si>
   <si>
-    <t>Mungbean.Grain.Wt</t>
-  </si>
-  <si>
     <t>Mungbean.Phenology.CurrentStageName</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>Mungbean.Phenology.MaturityDASx</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.Wt</t>
   </si>
 </sst>
 </file>
@@ -596,8 +596,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AI574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -617,16 +617,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -644,55 +644,55 @@
         <v>7</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" t="s">
         <v>42</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" t="s">
         <v>45</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" t="s">
         <v>48</v>
-      </c>
-      <c r="X1" t="s">
-        <v>49</v>
       </c>
       <c r="Y1" t="s">
         <v>29</v>
       </c>
       <c r="Z1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>9</v>
@@ -710,7 +710,7 @@
         <v>13</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:35" hidden="1">
